--- a/decreasing-balance.xlsx
+++ b/decreasing-balance.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdemon\repo\stellaris-mods\stellaris-tech-balance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdemonaco\repo\stellaris-mods\stellaris-tech-balance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18730" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18735" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="weapon_components_1.8" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -46,7 +46,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>pdemon:</t>
         </r>
@@ -55,7 +55,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Tier 5 value divided by five.
@@ -71,7 +71,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>pdemon:</t>
         </r>
@@ -80,7 +80,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Same as min value. This ensures we don't get too crazy with our scaling.</t>
@@ -95,7 +95,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>pdemon:</t>
         </r>
@@ -104,7 +104,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Extra yield factor to make higher tiers "better" </t>
@@ -1977,10 +1977,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1998,14 +2000,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2209,116 +2211,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="74">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Inconsolata"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Inconsolata"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2557,6 +2449,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2602,6 +2508,45 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Inconsolata"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Inconsolata"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2733,6 +2678,63 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6914,7 +6916,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:C164" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField subtotalTop="0" showAll="0"/>
@@ -7661,11 +7663,11 @@
     <tableColumn id="26" name="max_damage_override" dataDxfId="36">
       <calculatedColumnFormula>_xlfn.IFNA(ROUND(VLOOKUP(weapon_components[[#This Row],[max_tier]],weapon_components[],9,FALSE)/5,0),weapon_components[[#This Row],[max_damage]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="Yield_Factor" dataDxfId="6"/>
-    <tableColumn id="30" name="min_new" dataDxfId="3">
+    <tableColumn id="29" name="Yield_Factor" dataDxfId="35"/>
+    <tableColumn id="30" name="min_new" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP(weapon_components[[#This Row],[newkey]],weapon_comparison[],15,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="max_new" dataDxfId="2">
+    <tableColumn id="31" name="max_new" dataDxfId="33">
       <calculatedColumnFormula>VLOOKUP(weapon_components[[#This Row],[newkey]],weapon_comparison[],16,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7674,37 +7676,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="weapon_comparison" displayName="weapon_comparison" ref="A1:R164" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="weapon_comparison" displayName="weapon_comparison" ref="A1:R164" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="A1:R164"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="newkey" dataDxfId="34"/>
-    <tableColumn id="2" name="key" dataDxfId="33"/>
-    <tableColumn id="3" name="type" dataDxfId="32"/>
-    <tableColumn id="4" name="size" dataDxfId="31"/>
-    <tableColumn id="5" name="tier" dataDxfId="30"/>
-    <tableColumn id="6" name="Previous_Override" dataDxfId="29"/>
-    <tableColumn id="7" name="Previous_Tier" dataDxfId="28">
+    <tableColumn id="1" name="newkey" dataDxfId="31"/>
+    <tableColumn id="2" name="key" dataDxfId="30"/>
+    <tableColumn id="3" name="type" dataDxfId="29"/>
+    <tableColumn id="4" name="size" dataDxfId="28"/>
+    <tableColumn id="5" name="tier" dataDxfId="27"/>
+    <tableColumn id="6" name="Previous_Override" dataDxfId="26"/>
+    <tableColumn id="7" name="Previous_Tier" dataDxfId="25">
       <calculatedColumnFormula>IF(weapon_comparison[[#This Row],[Previous_Override]]="",weapon_comparison[[#This Row],[type]]&amp;","&amp;weapon_comparison[[#This Row],[size]]&amp;","&amp;MAX(weapon_comparison[[#This Row],[tier]]-1,1),weapon_comparison[[#This Row],[Previous_Override]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Power_Factor" dataDxfId="7">
+    <tableColumn id="8" name="Power_Factor" dataDxfId="24">
       <calculatedColumnFormula>IF(weapon_comparison[[#This Row],[tier]]=1,1,VLOOKUP(weapon_comparison[[#This Row],[newkey]],weapon_components[],7,FALSE)/VLOOKUP(weapon_comparison[[#This Row],[Previous_Tier]],weapon_components[],7,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Min_Factor" dataDxfId="5">
+    <tableColumn id="9" name="Min_Factor" dataDxfId="23">
       <calculatedColumnFormula>weapon_comparison[[#This Row],[Min_Current]]/IF(weapon_comparison[[#This Row],[newkey]]=weapon_comparison[[#This Row],[Previous_Tier]],weapon_comparison[[#This Row],[Min_Current]],VLOOKUP(weapon_comparison[[#This Row],[Previous_Tier]],weapon_comparison[],11,FALSE))+VLOOKUP(weapon_comparison[[#This Row],[Previous_Tier]],weapon_components[],28,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Max_Factor" dataDxfId="4">
+    <tableColumn id="10" name="Max_Factor" dataDxfId="22">
       <calculatedColumnFormula>weapon_comparison[[#This Row],[Max_Current]]/IF(weapon_comparison[[#This Row],[newkey]]=weapon_comparison[[#This Row],[Previous_Tier]],weapon_comparison[[#This Row],[Max_Current]],VLOOKUP(weapon_comparison[[#This Row],[Previous_Tier]],weapon_comparison[],12,FALSE))+VLOOKUP(weapon_comparison[[#This Row],[Previous_Tier]],weapon_components[],28,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Min_Current" dataDxfId="27">
+    <tableColumn id="11" name="Min_Current" dataDxfId="21">
       <calculatedColumnFormula>VLOOKUP(weapon_comparison[[#This Row],[newkey]],weapon_components[],26,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Max_Current" dataDxfId="26">
+    <tableColumn id="12" name="Max_Current" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP(weapon_comparison[[#This Row],[newkey]],weapon_components[],27,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Min_Previous_Tier" dataDxfId="25">
+    <tableColumn id="13" name="Min_Previous_Tier" dataDxfId="19">
       <calculatedColumnFormula>IF(weapon_comparison[[#This Row],[newkey]]=weapon_comparison[[#This Row],[Previous_Tier]],VLOOKUP(weapon_comparison[[#This Row],[newkey]],weapon_comparison[],11,FALSE),VLOOKUP(weapon_comparison[[#This Row],[Previous_Tier]],weapon_comparison[],15,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Max_Previous_Tier" dataDxfId="24">
+    <tableColumn id="14" name="Max_Previous_Tier" dataDxfId="18">
       <calculatedColumnFormula>IF(weapon_comparison[[#This Row],[newkey]]=weapon_comparison[[#This Row],[Previous_Tier]],VLOOKUP(weapon_comparison[[#This Row],[newkey]],weapon_comparison[],12,FALSE),VLOOKUP(weapon_comparison[[#This Row],[Previous_Tier]],weapon_comparison[],16,FALSE))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" name="Min_New">
@@ -7713,10 +7715,10 @@
     <tableColumn id="16" name="Max_New">
       <calculatedColumnFormula>ROUND(IF(weapon_comparison[[#This Row],[tier]]=1,weapon_comparison[[#This Row],[Max_Factor]]*weapon_comparison[[#This Row],[Power_Factor]],weapon_comparison[[#This Row],[Power_Factor]])*weapon_comparison[[#This Row],[Max_Previous_Tier]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Min_Delta" dataDxfId="23">
+    <tableColumn id="17" name="Min_Delta" dataDxfId="17">
       <calculatedColumnFormula>weapon_comparison[[#This Row],[Min_New]]-weapon_comparison[[#This Row],[Min_Current]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Max_Delta" dataDxfId="22">
+    <tableColumn id="18" name="Max_Delta" dataDxfId="16">
       <calculatedColumnFormula>weapon_comparison[[#This Row],[Max_New]]-weapon_comparison[[#This Row],[Max_Current]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7725,22 +7727,22 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="shield_components" displayName="shield_components" ref="A1:K22" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="shield_components" displayName="shield_components" ref="A1:K22" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:K22"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ID" dataDxfId="19">
+    <tableColumn id="1" name="ID" dataDxfId="11">
       <calculatedColumnFormula>C2&amp;D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Type" dataDxfId="18"/>
-    <tableColumn id="3" name="Size" dataDxfId="17"/>
-    <tableColumn id="4" name="Tier" dataDxfId="16"/>
-    <tableColumn id="5" name="Key" dataDxfId="15"/>
-    <tableColumn id="6" name="Cost" dataDxfId="14"/>
-    <tableColumn id="7" name="Power" dataDxfId="13"/>
-    <tableColumn id="8" name="Shield_HP" dataDxfId="12"/>
-    <tableColumn id="9" name="Shield_Regen" dataDxfId="11"/>
-    <tableColumn id="10" name="Override_HP" dataDxfId="10"/>
-    <tableColumn id="11" name="Override_Regen" dataDxfId="9"/>
+    <tableColumn id="2" name="Type" dataDxfId="10"/>
+    <tableColumn id="3" name="Size" dataDxfId="9"/>
+    <tableColumn id="4" name="Tier" dataDxfId="8"/>
+    <tableColumn id="5" name="Key" dataDxfId="7"/>
+    <tableColumn id="6" name="Cost" dataDxfId="6"/>
+    <tableColumn id="7" name="Power" dataDxfId="5"/>
+    <tableColumn id="8" name="Shield_HP" dataDxfId="4"/>
+    <tableColumn id="9" name="Shield_Regen" dataDxfId="3"/>
+    <tableColumn id="10" name="Override_HP" dataDxfId="2"/>
+    <tableColumn id="11" name="Override_Regen" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name=" shield_values_update-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7768,7 +7770,7 @@
     <tableColumn id="11" name="Previous_HP">
       <calculatedColumnFormula>IF(shield_values[[#This Row],[ID]]=shield_values[[#This Row],[ID_Previous]],VLOOKUP(shield_values[[#This Row],[ID]],shield_components[],8,FALSE),VLOOKUP(shield_values[[#This Row],[ID_Previous]],shield_values[],8,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Previous_Regen" dataDxfId="8">
+    <tableColumn id="12" name="Previous_Regen" dataDxfId="0">
       <calculatedColumnFormula>IF(shield_values[[#This Row],[ID]]=shield_values[[#This Row],[ID_Previous]],VLOOKUP(shield_values[[#This Row],[ID]],shield_components[],9,FALSE),VLOOKUP(shield_values[[#This Row],[ID_Previous]],shield_values[],9,FALSE))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="Ratio_Cost">
@@ -8103,39 +8105,39 @@
       <selection activeCell="X1" sqref="F1:X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="49.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="49.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.5">
+    <row r="1" spans="1:30" ht="15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8227,7 +8229,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="12.5">
+    <row r="2" spans="1:30" ht="12.75">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -8324,7 +8326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="12.5">
+    <row r="3" spans="1:30" ht="12.75">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -8421,7 +8423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="12.5">
+    <row r="4" spans="1:30" ht="12.75">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -8518,7 +8520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="12.5">
+    <row r="5" spans="1:30" ht="12.75">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -8615,7 +8617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="12.5">
+    <row r="6" spans="1:30" ht="12.75">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -8712,7 +8714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="12.5">
+    <row r="7" spans="1:30" ht="12.75">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -8809,7 +8811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="12.5">
+    <row r="8" spans="1:30" ht="12.75">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -8906,7 +8908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="12.5">
+    <row r="9" spans="1:30" ht="12.75">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
@@ -9003,7 +9005,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="12.5">
+    <row r="10" spans="1:30" ht="12.75">
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
@@ -9100,7 +9102,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="12.5">
+    <row r="11" spans="1:30" ht="12.75">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -9197,7 +9199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="12.5">
+    <row r="12" spans="1:30" ht="12.75">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -9294,7 +9296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="12.5">
+    <row r="13" spans="1:30" ht="12.75">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
@@ -9391,7 +9393,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="12.5">
+    <row r="14" spans="1:30" ht="12.75">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -9488,7 +9490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="12.5">
+    <row r="15" spans="1:30" ht="12.75">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -9585,7 +9587,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="12.5">
+    <row r="16" spans="1:30" ht="12.75">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -9682,7 +9684,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="12.5">
+    <row r="17" spans="1:30" ht="12.75">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -9779,7 +9781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="12.5">
+    <row r="18" spans="1:30" ht="12.75">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -9876,7 +9878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="12.5">
+    <row r="19" spans="1:30" ht="12.75">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -9973,7 +9975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="12.5">
+    <row r="20" spans="1:30" ht="12.75">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -10070,7 +10072,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="12.5">
+    <row r="21" spans="1:30" ht="12.75">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -10167,7 +10169,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="12.5">
+    <row r="22" spans="1:30" ht="12.75">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -10264,7 +10266,7 @@
         <v>7734</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="12.5">
+    <row r="23" spans="1:30" ht="12.75">
       <c r="A23" s="1" t="s">
         <v>106</v>
       </c>
@@ -10361,7 +10363,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="12.5">
+    <row r="24" spans="1:30" ht="12.75">
       <c r="A24" s="1" t="s">
         <v>111</v>
       </c>
@@ -10458,7 +10460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="12.5">
+    <row r="25" spans="1:30" ht="12.75">
       <c r="A25" s="1" t="s">
         <v>114</v>
       </c>
@@ -10555,7 +10557,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="12.5">
+    <row r="26" spans="1:30" ht="12.75">
       <c r="A26" s="1" t="s">
         <v>118</v>
       </c>
@@ -10652,7 +10654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="12.5">
+    <row r="27" spans="1:30" ht="12.75">
       <c r="A27" s="1" t="s">
         <v>122</v>
       </c>
@@ -10749,7 +10751,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="12.5">
+    <row r="28" spans="1:30" ht="12.75">
       <c r="A28" s="1" t="s">
         <v>125</v>
       </c>
@@ -10846,7 +10848,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="12.5">
+    <row r="29" spans="1:30" ht="12.75">
       <c r="A29" s="1" t="s">
         <v>128</v>
       </c>
@@ -10943,7 +10945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="12.5">
+    <row r="30" spans="1:30" ht="12.75">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -11040,7 +11042,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="12.5">
+    <row r="31" spans="1:30" ht="12.75">
       <c r="A31" s="1" t="s">
         <v>132</v>
       </c>
@@ -11137,7 +11139,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="12.5">
+    <row r="32" spans="1:30" ht="12.75">
       <c r="A32" s="1" t="s">
         <v>134</v>
       </c>
@@ -11234,7 +11236,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="12.5">
+    <row r="33" spans="1:30" ht="12.75">
       <c r="A33" s="1" t="s">
         <v>137</v>
       </c>
@@ -11331,7 +11333,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="12.5">
+    <row r="34" spans="1:30" ht="12.75">
       <c r="A34" s="1" t="s">
         <v>139</v>
       </c>
@@ -11428,7 +11430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="12.5">
+    <row r="35" spans="1:30" ht="12.75">
       <c r="A35" s="1" t="s">
         <v>142</v>
       </c>
@@ -11525,7 +11527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="12.5">
+    <row r="36" spans="1:30" ht="12.75">
       <c r="A36" s="1" t="s">
         <v>144</v>
       </c>
@@ -11622,7 +11624,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="12.5">
+    <row r="37" spans="1:30" ht="12.75">
       <c r="A37" s="1" t="s">
         <v>146</v>
       </c>
@@ -11719,7 +11721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="12.5">
+    <row r="38" spans="1:30" ht="12.75">
       <c r="A38" s="1" t="s">
         <v>148</v>
       </c>
@@ -11816,7 +11818,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="12.5">
+    <row r="39" spans="1:30" ht="12.75">
       <c r="A39" s="1" t="s">
         <v>150</v>
       </c>
@@ -11913,7 +11915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="12.5">
+    <row r="40" spans="1:30" ht="12.75">
       <c r="A40" s="1" t="s">
         <v>152</v>
       </c>
@@ -12010,7 +12012,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="12.5">
+    <row r="41" spans="1:30" ht="12.75">
       <c r="A41" s="1" t="s">
         <v>154</v>
       </c>
@@ -12107,7 +12109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="12.5">
+    <row r="42" spans="1:30" ht="12.75">
       <c r="A42" s="1" t="s">
         <v>156</v>
       </c>
@@ -12204,7 +12206,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="12.5">
+    <row r="43" spans="1:30" ht="12.75">
       <c r="A43" s="1" t="s">
         <v>158</v>
       </c>
@@ -12301,7 +12303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="12.5">
+    <row r="44" spans="1:30" ht="12.75">
       <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
@@ -12398,7 +12400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="12.5">
+    <row r="45" spans="1:30" ht="12.75">
       <c r="A45" s="1" t="s">
         <v>163</v>
       </c>
@@ -12495,7 +12497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="12.5">
+    <row r="46" spans="1:30" ht="12.75">
       <c r="A46" s="1" t="s">
         <v>165</v>
       </c>
@@ -12592,7 +12594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="12.5">
+    <row r="47" spans="1:30" ht="12.75">
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
@@ -12689,7 +12691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="12.5">
+    <row r="48" spans="1:30" ht="12.75">
       <c r="A48" s="1" t="s">
         <v>169</v>
       </c>
@@ -12786,7 +12788,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="12.5">
+    <row r="49" spans="1:30" ht="12.75">
       <c r="A49" s="1" t="s">
         <v>171</v>
       </c>
@@ -12883,7 +12885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="12.5">
+    <row r="50" spans="1:30" ht="12.75">
       <c r="A50" s="1" t="s">
         <v>173</v>
       </c>
@@ -12980,7 +12982,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="12.5">
+    <row r="51" spans="1:30" ht="12.75">
       <c r="A51" s="1" t="s">
         <v>175</v>
       </c>
@@ -13077,7 +13079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="12.5">
+    <row r="52" spans="1:30" ht="12.75">
       <c r="A52" s="1" t="s">
         <v>177</v>
       </c>
@@ -13174,7 +13176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="12.5">
+    <row r="53" spans="1:30" ht="12.75">
       <c r="A53" s="1" t="s">
         <v>179</v>
       </c>
@@ -13271,7 +13273,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="12.5">
+    <row r="54" spans="1:30" ht="12.75">
       <c r="A54" s="1" t="s">
         <v>181</v>
       </c>
@@ -13368,7 +13370,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="12.5">
+    <row r="55" spans="1:30" ht="12.75">
       <c r="A55" s="1" t="s">
         <v>183</v>
       </c>
@@ -13465,7 +13467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="12.5">
+    <row r="56" spans="1:30" ht="12.75">
       <c r="A56" s="1" t="s">
         <v>191</v>
       </c>
@@ -13562,7 +13564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="12.5">
+    <row r="57" spans="1:30" ht="12.75">
       <c r="A57" s="1" t="s">
         <v>194</v>
       </c>
@@ -13659,7 +13661,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="12.5">
+    <row r="58" spans="1:30" ht="12.75">
       <c r="A58" s="1" t="s">
         <v>196</v>
       </c>
@@ -13756,7 +13758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="12.5">
+    <row r="59" spans="1:30" ht="12.75">
       <c r="A59" s="1" t="s">
         <v>199</v>
       </c>
@@ -13853,7 +13855,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="12.5">
+    <row r="60" spans="1:30" ht="12.75">
       <c r="A60" s="1" t="s">
         <v>201</v>
       </c>
@@ -13950,7 +13952,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="12.5">
+    <row r="61" spans="1:30" ht="12.75">
       <c r="A61" s="1" t="s">
         <v>203</v>
       </c>
@@ -14047,7 +14049,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="12.5">
+    <row r="62" spans="1:30" ht="12.75">
       <c r="A62" s="1" t="s">
         <v>206</v>
       </c>
@@ -14144,7 +14146,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="12.5">
+    <row r="63" spans="1:30" ht="12.75">
       <c r="A63" s="1" t="s">
         <v>208</v>
       </c>
@@ -14241,7 +14243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="12.5">
+    <row r="64" spans="1:30" ht="12.75">
       <c r="A64" s="1" t="s">
         <v>211</v>
       </c>
@@ -14338,7 +14340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="12.5">
+    <row r="65" spans="1:30" ht="12.75">
       <c r="A65" s="1" t="s">
         <v>213</v>
       </c>
@@ -14435,7 +14437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="12.5">
+    <row r="66" spans="1:30" ht="12.75">
       <c r="A66" s="1" t="s">
         <v>215</v>
       </c>
@@ -14532,7 +14534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="12.5">
+    <row r="67" spans="1:30" ht="12.75">
       <c r="A67" s="1" t="s">
         <v>217</v>
       </c>
@@ -14629,7 +14631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="12.5">
+    <row r="68" spans="1:30" ht="12.75">
       <c r="A68" s="1" t="s">
         <v>219</v>
       </c>
@@ -14726,7 +14728,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="12.5">
+    <row r="69" spans="1:30" ht="12.75">
       <c r="A69" s="1" t="s">
         <v>221</v>
       </c>
@@ -14823,7 +14825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="12.5">
+    <row r="70" spans="1:30" ht="12.75">
       <c r="A70" s="1" t="s">
         <v>223</v>
       </c>
@@ -14920,7 +14922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="12.5">
+    <row r="71" spans="1:30" ht="12.75">
       <c r="A71" s="1" t="s">
         <v>225</v>
       </c>
@@ -15017,7 +15019,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="12.5">
+    <row r="72" spans="1:30" ht="12.75">
       <c r="A72" s="1" t="s">
         <v>227</v>
       </c>
@@ -15114,7 +15116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="12.5">
+    <row r="73" spans="1:30" ht="12.75">
       <c r="A73" s="1" t="s">
         <v>230</v>
       </c>
@@ -15211,7 +15213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="12.5">
+    <row r="74" spans="1:30" ht="12.75">
       <c r="A74" s="1" t="s">
         <v>232</v>
       </c>
@@ -15308,7 +15310,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="12.5">
+    <row r="75" spans="1:30" ht="12.75">
       <c r="A75" s="1" t="s">
         <v>235</v>
       </c>
@@ -15405,7 +15407,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="12.5">
+    <row r="76" spans="1:30" ht="12.75">
       <c r="A76" s="1" t="s">
         <v>237</v>
       </c>
@@ -15502,7 +15504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="12.5">
+    <row r="77" spans="1:30" ht="12.75">
       <c r="A77" s="1" t="s">
         <v>240</v>
       </c>
@@ -15599,7 +15601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="12.5">
+    <row r="78" spans="1:30" ht="12.75">
       <c r="A78" s="1" t="s">
         <v>242</v>
       </c>
@@ -15696,7 +15698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="12.5">
+    <row r="79" spans="1:30" ht="12.75">
       <c r="A79" s="1" t="s">
         <v>244</v>
       </c>
@@ -15793,7 +15795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="12.5">
+    <row r="80" spans="1:30" ht="12.75">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -15890,7 +15892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="12.5">
+    <row r="81" spans="1:30" ht="12.75">
       <c r="A81" s="1" t="s">
         <v>248</v>
       </c>
@@ -15987,7 +15989,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="12.5">
+    <row r="82" spans="1:30" ht="12.75">
       <c r="A82" s="1" t="s">
         <v>250</v>
       </c>
@@ -16084,7 +16086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="12.5">
+    <row r="83" spans="1:30" ht="12.75">
       <c r="A83" s="1" t="s">
         <v>252</v>
       </c>
@@ -16181,7 +16183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="12.5">
+    <row r="84" spans="1:30" ht="12.75">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -16278,7 +16280,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="12.5">
+    <row r="85" spans="1:30" ht="12.75">
       <c r="A85" s="1" t="s">
         <v>256</v>
       </c>
@@ -16375,7 +16377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="12.5">
+    <row r="86" spans="1:30" ht="12.75">
       <c r="A86" s="1" t="s">
         <v>258</v>
       </c>
@@ -16472,7 +16474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="12.5">
+    <row r="87" spans="1:30" ht="12.75">
       <c r="A87" s="1" t="s">
         <v>260</v>
       </c>
@@ -16569,7 +16571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="12.5">
+    <row r="88" spans="1:30" ht="12.75">
       <c r="A88" s="1" t="s">
         <v>262</v>
       </c>
@@ -16666,7 +16668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="12.5">
+    <row r="89" spans="1:30" ht="12.75">
       <c r="A89" s="1" t="s">
         <v>264</v>
       </c>
@@ -16763,7 +16765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="12.5">
+    <row r="90" spans="1:30" ht="12.75">
       <c r="A90" s="1" t="s">
         <v>266</v>
       </c>
@@ -16860,7 +16862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="12.5">
+    <row r="91" spans="1:30" ht="12.75">
       <c r="A91" s="1" t="s">
         <v>268</v>
       </c>
@@ -16957,7 +16959,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="12.5">
+    <row r="92" spans="1:30" ht="12.75">
       <c r="A92" s="1" t="s">
         <v>271</v>
       </c>
@@ -17054,7 +17056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="12.5">
+    <row r="93" spans="1:30" ht="12.75">
       <c r="A93" s="1" t="s">
         <v>273</v>
       </c>
@@ -17151,7 +17153,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="12.5">
+    <row r="94" spans="1:30" ht="12.75">
       <c r="A94" s="1" t="s">
         <v>275</v>
       </c>
@@ -17248,7 +17250,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="12.5">
+    <row r="95" spans="1:30" ht="12.75">
       <c r="A95" s="1" t="s">
         <v>278</v>
       </c>
@@ -17345,7 +17347,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="12.5">
+    <row r="96" spans="1:30" ht="12.75">
       <c r="A96" s="1" t="s">
         <v>280</v>
       </c>
@@ -17442,7 +17444,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="12.5">
+    <row r="97" spans="1:30" ht="12.75">
       <c r="A97" s="1" t="s">
         <v>282</v>
       </c>
@@ -17539,7 +17541,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="12.5">
+    <row r="98" spans="1:30" ht="12.75">
       <c r="A98" s="1" t="s">
         <v>285</v>
       </c>
@@ -17636,7 +17638,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="12.5">
+    <row r="99" spans="1:30" ht="12.75">
       <c r="A99" s="1" t="s">
         <v>287</v>
       </c>
@@ -17733,7 +17735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="12.5">
+    <row r="100" spans="1:30" ht="12.75">
       <c r="A100" s="1" t="s">
         <v>290</v>
       </c>
@@ -17830,7 +17832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="12.5">
+    <row r="101" spans="1:30" ht="12.75">
       <c r="A101" s="1" t="s">
         <v>292</v>
       </c>
@@ -17927,7 +17929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="12.5">
+    <row r="102" spans="1:30" ht="12.75">
       <c r="A102" s="1" t="s">
         <v>294</v>
       </c>
@@ -18024,7 +18026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="12.5">
+    <row r="103" spans="1:30" ht="12.75">
       <c r="A103" s="1" t="s">
         <v>297</v>
       </c>
@@ -18121,7 +18123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="12.5">
+    <row r="104" spans="1:30" ht="12.75">
       <c r="A104" s="1" t="s">
         <v>299</v>
       </c>
@@ -18218,7 +18220,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="12.5">
+    <row r="105" spans="1:30" ht="12.75">
       <c r="A105" s="1" t="s">
         <v>301</v>
       </c>
@@ -18315,7 +18317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="12.5">
+    <row r="106" spans="1:30" ht="12.75">
       <c r="A106" s="1" t="s">
         <v>304</v>
       </c>
@@ -18412,7 +18414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="12.5">
+    <row r="107" spans="1:30" ht="12.75">
       <c r="A107" s="1" t="s">
         <v>306</v>
       </c>
@@ -18509,7 +18511,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="12.5">
+    <row r="108" spans="1:30" ht="12.75">
       <c r="A108" s="1" t="s">
         <v>308</v>
       </c>
@@ -18606,7 +18608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="12.5">
+    <row r="109" spans="1:30" ht="12.75">
       <c r="A109" s="1" t="s">
         <v>311</v>
       </c>
@@ -18703,7 +18705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="12.5">
+    <row r="110" spans="1:30" ht="12.75">
       <c r="A110" s="1" t="s">
         <v>313</v>
       </c>
@@ -18800,7 +18802,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="12.5">
+    <row r="111" spans="1:30" ht="12.75">
       <c r="A111" s="1" t="s">
         <v>315</v>
       </c>
@@ -18897,7 +18899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="12.5">
+    <row r="112" spans="1:30" ht="12.75">
       <c r="A112" s="1" t="s">
         <v>318</v>
       </c>
@@ -18994,7 +18996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="12.5">
+    <row r="113" spans="1:30" ht="12.75">
       <c r="A113" s="1" t="s">
         <v>320</v>
       </c>
@@ -19091,7 +19093,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="12.5">
+    <row r="114" spans="1:30" ht="12.75">
       <c r="A114" s="1" t="s">
         <v>322</v>
       </c>
@@ -19188,7 +19190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="12.5">
+    <row r="115" spans="1:30" ht="12.75">
       <c r="A115" s="1" t="s">
         <v>325</v>
       </c>
@@ -19285,7 +19287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="12.5">
+    <row r="116" spans="1:30" ht="12.75">
       <c r="A116" s="1" t="s">
         <v>327</v>
       </c>
@@ -19382,7 +19384,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="12.5">
+    <row r="117" spans="1:30" ht="12.75">
       <c r="A117" s="1" t="s">
         <v>329</v>
       </c>
@@ -19479,7 +19481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="12.5">
+    <row r="118" spans="1:30" ht="12.75">
       <c r="A118" s="1" t="s">
         <v>332</v>
       </c>
@@ -19576,7 +19578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="12.5">
+    <row r="119" spans="1:30" ht="12.75">
       <c r="A119" s="1" t="s">
         <v>334</v>
       </c>
@@ -19673,7 +19675,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="12.5">
+    <row r="120" spans="1:30" ht="12.75">
       <c r="A120" s="1" t="s">
         <v>336</v>
       </c>
@@ -19770,7 +19772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:30" ht="12.5">
+    <row r="121" spans="1:30" ht="12.75">
       <c r="A121" s="1" t="s">
         <v>339</v>
       </c>
@@ -19867,7 +19869,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="12.5">
+    <row r="122" spans="1:30" ht="12.75">
       <c r="A122" s="1" t="s">
         <v>341</v>
       </c>
@@ -19964,7 +19966,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="12.5">
+    <row r="123" spans="1:30" ht="12.75">
       <c r="A123" s="1" t="s">
         <v>343</v>
       </c>
@@ -20061,7 +20063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="12.5">
+    <row r="124" spans="1:30" ht="12.75">
       <c r="A124" s="1" t="s">
         <v>346</v>
       </c>
@@ -20158,7 +20160,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="12.5">
+    <row r="125" spans="1:30" ht="12.75">
       <c r="A125" s="1" t="s">
         <v>348</v>
       </c>
@@ -20255,7 +20257,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="12.5">
+    <row r="126" spans="1:30" ht="12.75">
       <c r="A126" s="1" t="s">
         <v>350</v>
       </c>
@@ -20352,7 +20354,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:30" ht="12.5">
+    <row r="127" spans="1:30" ht="12.75">
       <c r="A127" s="1" t="s">
         <v>353</v>
       </c>
@@ -20449,7 +20451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="12.5">
+    <row r="128" spans="1:30" ht="12.75">
       <c r="A128" s="1" t="s">
         <v>355</v>
       </c>
@@ -20546,7 +20548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="12.5">
+    <row r="129" spans="1:30" ht="12.75">
       <c r="A129" s="1" t="s">
         <v>358</v>
       </c>
@@ -20643,7 +20645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="12.5">
+    <row r="130" spans="1:30" ht="12.75">
       <c r="A130" s="1" t="s">
         <v>44</v>
       </c>
@@ -20740,7 +20742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="12.5">
+    <row r="131" spans="1:30" ht="12.75">
       <c r="A131" s="1" t="s">
         <v>50</v>
       </c>
@@ -20837,7 +20839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="12.5">
+    <row r="132" spans="1:30" ht="12.75">
       <c r="A132" s="1" t="s">
         <v>361</v>
       </c>
@@ -20934,7 +20936,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="12.5">
+    <row r="133" spans="1:30" ht="12.75">
       <c r="A133" s="1" t="s">
         <v>364</v>
       </c>
@@ -21031,7 +21033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="12.5">
+    <row r="134" spans="1:30" ht="12.75">
       <c r="A134" s="1" t="s">
         <v>367</v>
       </c>
@@ -21128,7 +21130,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="12.5">
+    <row r="135" spans="1:30" ht="12.75">
       <c r="A135" s="1" t="s">
         <v>369</v>
       </c>
@@ -21225,7 +21227,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="12.5">
+    <row r="136" spans="1:30" ht="12.75">
       <c r="A136" s="1" t="s">
         <v>371</v>
       </c>
@@ -21322,7 +21324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="12.5">
+    <row r="137" spans="1:30" ht="12.75">
       <c r="A137" s="1" t="s">
         <v>374</v>
       </c>
@@ -21419,7 +21421,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="12.5">
+    <row r="138" spans="1:30" ht="12.75">
       <c r="A138" s="1" t="s">
         <v>376</v>
       </c>
@@ -21516,7 +21518,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="12.5">
+    <row r="139" spans="1:30" ht="12.75">
       <c r="A139" s="1" t="s">
         <v>378</v>
       </c>
@@ -21613,7 +21615,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="12.5">
+    <row r="140" spans="1:30" ht="12.75">
       <c r="A140" s="1" t="s">
         <v>381</v>
       </c>
@@ -21710,7 +21712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="12.5">
+    <row r="141" spans="1:30" ht="12.75">
       <c r="A141" s="1" t="s">
         <v>384</v>
       </c>
@@ -21807,7 +21809,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="12.5">
+    <row r="142" spans="1:30" ht="12.75">
       <c r="A142" s="1" t="s">
         <v>386</v>
       </c>
@@ -21904,7 +21906,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="12.5">
+    <row r="143" spans="1:30" ht="12.75">
       <c r="A143" s="1" t="s">
         <v>389</v>
       </c>
@@ -22001,7 +22003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="12.5">
+    <row r="144" spans="1:30" ht="12.75">
       <c r="A144" s="1" t="s">
         <v>392</v>
       </c>
@@ -22098,7 +22100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="12.5">
+    <row r="145" spans="1:30" ht="12.75">
       <c r="A145" s="1" t="s">
         <v>394</v>
       </c>
@@ -22195,7 +22197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:30" ht="12.5">
+    <row r="146" spans="1:30" ht="12.75">
       <c r="A146" s="1" t="s">
         <v>396</v>
       </c>
@@ -22292,7 +22294,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="12.5">
+    <row r="147" spans="1:30" ht="12.75">
       <c r="A147" s="1" t="s">
         <v>398</v>
       </c>
@@ -22389,7 +22391,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="12.5">
+    <row r="148" spans="1:30" ht="12.75">
       <c r="A148" s="1" t="s">
         <v>400</v>
       </c>
@@ -22486,7 +22488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="12.5">
+    <row r="149" spans="1:30" ht="12.75">
       <c r="A149" s="1" t="s">
         <v>402</v>
       </c>
@@ -22583,7 +22585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="12.5">
+    <row r="150" spans="1:30" ht="12.75">
       <c r="A150" s="1" t="s">
         <v>404</v>
       </c>
@@ -22680,7 +22682,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="12.5">
+    <row r="151" spans="1:30" ht="12.75">
       <c r="A151" s="1" t="s">
         <v>406</v>
       </c>
@@ -22777,7 +22779,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="12.5">
+    <row r="152" spans="1:30" ht="12.75">
       <c r="A152" s="1" t="s">
         <v>408</v>
       </c>
@@ -22874,7 +22876,7 @@
         <v>9646</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="12.5">
+    <row r="153" spans="1:30" ht="12.75">
       <c r="A153" s="1" t="s">
         <v>410</v>
       </c>
@@ -22971,7 +22973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="12.5">
+    <row r="154" spans="1:30" ht="12.75">
       <c r="A154" s="1" t="s">
         <v>412</v>
       </c>
@@ -23068,7 +23070,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="12.5">
+    <row r="155" spans="1:30" ht="12.75">
       <c r="A155" s="1" t="s">
         <v>414</v>
       </c>
@@ -23165,7 +23167,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="12.5">
+    <row r="156" spans="1:30" ht="12.75">
       <c r="A156" s="1" t="s">
         <v>416</v>
       </c>
@@ -23262,7 +23264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="12.5">
+    <row r="157" spans="1:30" ht="12.75">
       <c r="A157" s="1" t="s">
         <v>418</v>
       </c>
@@ -23359,7 +23361,7 @@
         <v>6459</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="12.5">
+    <row r="158" spans="1:30" ht="12.75">
       <c r="A158" s="1" t="s">
         <v>420</v>
       </c>
@@ -23456,7 +23458,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="12.5">
+    <row r="159" spans="1:30" ht="12.75">
       <c r="A159" s="1" t="s">
         <v>422</v>
       </c>
@@ -23553,7 +23555,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="12.5">
+    <row r="160" spans="1:30" ht="12.75">
       <c r="A160" s="1" t="s">
         <v>424</v>
       </c>
@@ -23650,7 +23652,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="12.5">
+    <row r="161" spans="1:30" ht="12.75">
       <c r="A161" s="1" t="s">
         <v>426</v>
       </c>
@@ -23747,7 +23749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="12.5">
+    <row r="162" spans="1:30" ht="12.75">
       <c r="A162" s="1" t="s">
         <v>428</v>
       </c>
@@ -23844,7 +23846,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="12.5">
+    <row r="163" spans="1:30" ht="12.75">
       <c r="A163" s="1" t="s">
         <v>430</v>
       </c>
@@ -23941,7 +23943,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="12.5">
+    <row r="164" spans="1:30" ht="12.75">
       <c r="A164" s="1" t="s">
         <v>432</v>
       </c>
@@ -24038,7 +24040,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="12.5">
+    <row r="165" spans="1:30" ht="12.75">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -24064,7 +24066,7 @@
       <c r="W165" s="1"/>
       <c r="X165" s="1"/>
     </row>
-    <row r="166" spans="1:30" ht="12.5">
+    <row r="166" spans="1:30" ht="12.75">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -24090,7 +24092,7 @@
       <c r="W166" s="1"/>
       <c r="X166" s="1"/>
     </row>
-    <row r="167" spans="1:30" ht="12.5">
+    <row r="167" spans="1:30" ht="12.75">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -24116,7 +24118,7 @@
       <c r="W167" s="1"/>
       <c r="X167" s="1"/>
     </row>
-    <row r="168" spans="1:30" ht="12.5">
+    <row r="168" spans="1:30" ht="12.75">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -24142,7 +24144,7 @@
       <c r="W168" s="1"/>
       <c r="X168" s="1"/>
     </row>
-    <row r="169" spans="1:30" ht="12.5">
+    <row r="169" spans="1:30" ht="12.75">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -24168,7 +24170,7 @@
       <c r="W169" s="1"/>
       <c r="X169" s="1"/>
     </row>
-    <row r="170" spans="1:30" ht="12.5">
+    <row r="170" spans="1:30" ht="12.75">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -24194,7 +24196,7 @@
       <c r="W170" s="1"/>
       <c r="X170" s="1"/>
     </row>
-    <row r="171" spans="1:30" ht="12.5">
+    <row r="171" spans="1:30" ht="12.75">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -24220,7 +24222,7 @@
       <c r="W171" s="1"/>
       <c r="X171" s="1"/>
     </row>
-    <row r="172" spans="1:30" ht="12.5">
+    <row r="172" spans="1:30" ht="12.75">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -24246,7 +24248,7 @@
       <c r="W172" s="1"/>
       <c r="X172" s="1"/>
     </row>
-    <row r="173" spans="1:30" ht="12.5">
+    <row r="173" spans="1:30" ht="12.75">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -24272,7 +24274,7 @@
       <c r="W173" s="1"/>
       <c r="X173" s="1"/>
     </row>
-    <row r="174" spans="1:30" ht="12.5">
+    <row r="174" spans="1:30" ht="12.75">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -24298,7 +24300,7 @@
       <c r="W174" s="1"/>
       <c r="X174" s="1"/>
     </row>
-    <row r="175" spans="1:30" ht="12.5">
+    <row r="175" spans="1:30" ht="12.75">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -24324,7 +24326,7 @@
       <c r="W175" s="1"/>
       <c r="X175" s="1"/>
     </row>
-    <row r="176" spans="1:30" ht="12.5">
+    <row r="176" spans="1:30" ht="12.75">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -24350,7 +24352,7 @@
       <c r="W176" s="1"/>
       <c r="X176" s="1"/>
     </row>
-    <row r="177" spans="1:24" ht="12.5">
+    <row r="177" spans="1:24" ht="12.75">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -24376,7 +24378,7 @@
       <c r="W177" s="1"/>
       <c r="X177" s="1"/>
     </row>
-    <row r="178" spans="1:24" ht="12.5">
+    <row r="178" spans="1:24" ht="12.75">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -24401,7 +24403,7 @@
       <c r="W178" s="1"/>
       <c r="X178" s="1"/>
     </row>
-    <row r="179" spans="1:24" ht="12.5">
+    <row r="179" spans="1:24" ht="12.75">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -24427,7 +24429,7 @@
       <c r="W179" s="1"/>
       <c r="X179" s="1"/>
     </row>
-    <row r="180" spans="1:24" ht="12.5">
+    <row r="180" spans="1:24" ht="12.75">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -24453,7 +24455,7 @@
       <c r="W180" s="1"/>
       <c r="X180" s="1"/>
     </row>
-    <row r="181" spans="1:24" ht="12.5">
+    <row r="181" spans="1:24" ht="12.75">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -24479,7 +24481,7 @@
       <c r="W181" s="1"/>
       <c r="X181" s="1"/>
     </row>
-    <row r="182" spans="1:24" ht="12.5">
+    <row r="182" spans="1:24" ht="12.75">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -24505,7 +24507,7 @@
       <c r="W182" s="1"/>
       <c r="X182" s="1"/>
     </row>
-    <row r="183" spans="1:24" ht="12.5">
+    <row r="183" spans="1:24" ht="12.75">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -24531,7 +24533,7 @@
       <c r="W183" s="1"/>
       <c r="X183" s="1"/>
     </row>
-    <row r="184" spans="1:24" ht="12.5">
+    <row r="184" spans="1:24" ht="12.75">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -24557,7 +24559,7 @@
       <c r="W184" s="1"/>
       <c r="X184" s="1"/>
     </row>
-    <row r="185" spans="1:24" ht="12.5">
+    <row r="185" spans="1:24" ht="12.75">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -24583,7 +24585,7 @@
       <c r="W185" s="1"/>
       <c r="X185" s="1"/>
     </row>
-    <row r="186" spans="1:24" ht="12.5">
+    <row r="186" spans="1:24" ht="12.75">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -24609,7 +24611,7 @@
       <c r="W186" s="1"/>
       <c r="X186" s="1"/>
     </row>
-    <row r="187" spans="1:24" ht="12.5">
+    <row r="187" spans="1:24" ht="12.75">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -24635,7 +24637,7 @@
       <c r="W187" s="1"/>
       <c r="X187" s="1"/>
     </row>
-    <row r="188" spans="1:24" ht="12.5">
+    <row r="188" spans="1:24" ht="12.75">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -24661,7 +24663,7 @@
       <c r="W188" s="1"/>
       <c r="X188" s="1"/>
     </row>
-    <row r="189" spans="1:24" ht="12.5">
+    <row r="189" spans="1:24" ht="12.75">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -24687,7 +24689,7 @@
       <c r="W189" s="1"/>
       <c r="X189" s="1"/>
     </row>
-    <row r="190" spans="1:24" ht="12.5">
+    <row r="190" spans="1:24" ht="12.75">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -24713,7 +24715,7 @@
       <c r="W190" s="1"/>
       <c r="X190" s="1"/>
     </row>
-    <row r="191" spans="1:24" ht="12.5">
+    <row r="191" spans="1:24" ht="12.75">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -24739,7 +24741,7 @@
       <c r="W191" s="1"/>
       <c r="X191" s="1"/>
     </row>
-    <row r="192" spans="1:24" ht="12.5">
+    <row r="192" spans="1:24" ht="12.75">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -24765,7 +24767,7 @@
       <c r="W192" s="1"/>
       <c r="X192" s="1"/>
     </row>
-    <row r="193" spans="1:24" ht="12.5">
+    <row r="193" spans="1:24" ht="12.75">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -24791,7 +24793,7 @@
       <c r="W193" s="1"/>
       <c r="X193" s="1"/>
     </row>
-    <row r="194" spans="1:24" ht="12.5">
+    <row r="194" spans="1:24" ht="12.75">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -24817,7 +24819,7 @@
       <c r="W194" s="1"/>
       <c r="X194" s="1"/>
     </row>
-    <row r="195" spans="1:24" ht="12.5">
+    <row r="195" spans="1:24" ht="12.75">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -24843,7 +24845,7 @@
       <c r="W195" s="1"/>
       <c r="X195" s="1"/>
     </row>
-    <row r="196" spans="1:24" ht="12.5">
+    <row r="196" spans="1:24" ht="12.75">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -24869,7 +24871,7 @@
       <c r="W196" s="1"/>
       <c r="X196" s="1"/>
     </row>
-    <row r="197" spans="1:24" ht="12.5">
+    <row r="197" spans="1:24" ht="12.75">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -24895,7 +24897,7 @@
       <c r="W197" s="1"/>
       <c r="X197" s="1"/>
     </row>
-    <row r="198" spans="1:24" ht="12.5">
+    <row r="198" spans="1:24" ht="12.75">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -24921,7 +24923,7 @@
       <c r="W198" s="1"/>
       <c r="X198" s="1"/>
     </row>
-    <row r="199" spans="1:24" ht="12.5">
+    <row r="199" spans="1:24" ht="12.75">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -24947,7 +24949,7 @@
       <c r="W199" s="1"/>
       <c r="X199" s="1"/>
     </row>
-    <row r="200" spans="1:24" ht="12.5">
+    <row r="200" spans="1:24" ht="12.75">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -24973,7 +24975,7 @@
       <c r="W200" s="1"/>
       <c r="X200" s="1"/>
     </row>
-    <row r="201" spans="1:24" ht="12.5">
+    <row r="201" spans="1:24" ht="12.75">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -24999,7 +25001,7 @@
       <c r="W201" s="1"/>
       <c r="X201" s="1"/>
     </row>
-    <row r="202" spans="1:24" ht="12.5">
+    <row r="202" spans="1:24" ht="12.75">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -25025,7 +25027,7 @@
       <c r="W202" s="1"/>
       <c r="X202" s="1"/>
     </row>
-    <row r="203" spans="1:24" ht="12.5">
+    <row r="203" spans="1:24" ht="12.75">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -25051,7 +25053,7 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
     </row>
-    <row r="204" spans="1:24" ht="12.5">
+    <row r="204" spans="1:24" ht="12.75">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -25077,7 +25079,7 @@
       <c r="W204" s="1"/>
       <c r="X204" s="1"/>
     </row>
-    <row r="205" spans="1:24" ht="12.5">
+    <row r="205" spans="1:24" ht="12.75">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -25103,7 +25105,7 @@
       <c r="W205" s="1"/>
       <c r="X205" s="1"/>
     </row>
-    <row r="206" spans="1:24" ht="12.5">
+    <row r="206" spans="1:24" ht="12.75">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -25129,7 +25131,7 @@
       <c r="W206" s="1"/>
       <c r="X206" s="1"/>
     </row>
-    <row r="207" spans="1:24" ht="12.5">
+    <row r="207" spans="1:24" ht="12.75">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -25155,7 +25157,7 @@
       <c r="W207" s="1"/>
       <c r="X207" s="1"/>
     </row>
-    <row r="208" spans="1:24" ht="12.5">
+    <row r="208" spans="1:24" ht="12.75">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -25181,7 +25183,7 @@
       <c r="W208" s="1"/>
       <c r="X208" s="1"/>
     </row>
-    <row r="209" spans="1:24" ht="12.5">
+    <row r="209" spans="1:24" ht="12.75">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -25207,7 +25209,7 @@
       <c r="W209" s="1"/>
       <c r="X209" s="1"/>
     </row>
-    <row r="210" spans="1:24" ht="12.5">
+    <row r="210" spans="1:24" ht="12.75">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -25233,7 +25235,7 @@
       <c r="W210" s="1"/>
       <c r="X210" s="1"/>
     </row>
-    <row r="211" spans="1:24" ht="12.5">
+    <row r="211" spans="1:24" ht="12.75">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -25259,7 +25261,7 @@
       <c r="W211" s="1"/>
       <c r="X211" s="1"/>
     </row>
-    <row r="212" spans="1:24" ht="12.5">
+    <row r="212" spans="1:24" ht="12.75">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -25285,7 +25287,7 @@
       <c r="W212" s="1"/>
       <c r="X212" s="1"/>
     </row>
-    <row r="213" spans="1:24" ht="12.5">
+    <row r="213" spans="1:24" ht="12.75">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -25311,7 +25313,7 @@
       <c r="W213" s="1"/>
       <c r="X213" s="1"/>
     </row>
-    <row r="214" spans="1:24" ht="12.5">
+    <row r="214" spans="1:24" ht="12.75">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -25337,7 +25339,7 @@
       <c r="W214" s="1"/>
       <c r="X214" s="1"/>
     </row>
-    <row r="215" spans="1:24" ht="12.5">
+    <row r="215" spans="1:24" ht="12.75">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -25363,7 +25365,7 @@
       <c r="W215" s="1"/>
       <c r="X215" s="1"/>
     </row>
-    <row r="216" spans="1:24" ht="12.5">
+    <row r="216" spans="1:24" ht="12.75">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -25389,7 +25391,7 @@
       <c r="W216" s="1"/>
       <c r="X216" s="1"/>
     </row>
-    <row r="217" spans="1:24" ht="12.5">
+    <row r="217" spans="1:24" ht="12.75">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -25415,7 +25417,7 @@
       <c r="W217" s="1"/>
       <c r="X217" s="1"/>
     </row>
-    <row r="218" spans="1:24" ht="12.5">
+    <row r="218" spans="1:24" ht="12.75">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -25441,7 +25443,7 @@
       <c r="W218" s="1"/>
       <c r="X218" s="1"/>
     </row>
-    <row r="219" spans="1:24" ht="12.5">
+    <row r="219" spans="1:24" ht="12.75">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -25467,7 +25469,7 @@
       <c r="W219" s="1"/>
       <c r="X219" s="1"/>
     </row>
-    <row r="220" spans="1:24" ht="12.5">
+    <row r="220" spans="1:24" ht="12.75">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -25493,7 +25495,7 @@
       <c r="W220" s="1"/>
       <c r="X220" s="1"/>
     </row>
-    <row r="221" spans="1:24" ht="12.5">
+    <row r="221" spans="1:24" ht="12.75">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -25519,7 +25521,7 @@
       <c r="W221" s="1"/>
       <c r="X221" s="1"/>
     </row>
-    <row r="222" spans="1:24" ht="12.5">
+    <row r="222" spans="1:24" ht="12.75">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -25545,7 +25547,7 @@
       <c r="W222" s="1"/>
       <c r="X222" s="1"/>
     </row>
-    <row r="223" spans="1:24" ht="12.5">
+    <row r="223" spans="1:24" ht="12.75">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -25571,7 +25573,7 @@
       <c r="W223" s="1"/>
       <c r="X223" s="1"/>
     </row>
-    <row r="224" spans="1:24" ht="12.5">
+    <row r="224" spans="1:24" ht="12.75">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -25597,7 +25599,7 @@
       <c r="W224" s="1"/>
       <c r="X224" s="1"/>
     </row>
-    <row r="225" spans="1:24" ht="12.5">
+    <row r="225" spans="1:24" ht="12.75">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -25623,7 +25625,7 @@
       <c r="W225" s="1"/>
       <c r="X225" s="1"/>
     </row>
-    <row r="226" spans="1:24" ht="12.5">
+    <row r="226" spans="1:24" ht="12.75">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -25649,7 +25651,7 @@
       <c r="W226" s="1"/>
       <c r="X226" s="1"/>
     </row>
-    <row r="227" spans="1:24" ht="12.5">
+    <row r="227" spans="1:24" ht="12.75">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -25675,7 +25677,7 @@
       <c r="W227" s="1"/>
       <c r="X227" s="1"/>
     </row>
-    <row r="228" spans="1:24" ht="12.5">
+    <row r="228" spans="1:24" ht="12.75">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -25701,7 +25703,7 @@
       <c r="W228" s="1"/>
       <c r="X228" s="1"/>
     </row>
-    <row r="229" spans="1:24" ht="12.5">
+    <row r="229" spans="1:24" ht="12.75">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -25727,7 +25729,7 @@
       <c r="W229" s="1"/>
       <c r="X229" s="1"/>
     </row>
-    <row r="230" spans="1:24" ht="12.5">
+    <row r="230" spans="1:24" ht="12.75">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -25753,7 +25755,7 @@
       <c r="W230" s="1"/>
       <c r="X230" s="1"/>
     </row>
-    <row r="231" spans="1:24" ht="12.5">
+    <row r="231" spans="1:24" ht="12.75">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -25779,773 +25781,773 @@
       <c r="W231" s="1"/>
       <c r="X231" s="1"/>
     </row>
-    <row r="232" spans="1:24" ht="12.5"/>
-    <row r="233" spans="1:24" ht="12.5"/>
-    <row r="234" spans="1:24" ht="12.5"/>
-    <row r="235" spans="1:24" ht="12.5"/>
-    <row r="236" spans="1:24" ht="12.5"/>
-    <row r="237" spans="1:24" ht="12.5"/>
-    <row r="238" spans="1:24" ht="12.5"/>
-    <row r="239" spans="1:24" ht="12.5"/>
-    <row r="240" spans="1:24" ht="12.5"/>
-    <row r="241" ht="12.5"/>
-    <row r="242" ht="12.5"/>
-    <row r="243" ht="12.5"/>
-    <row r="244" ht="12.5"/>
-    <row r="245" ht="12.5"/>
-    <row r="246" ht="12.5"/>
-    <row r="247" ht="12.5"/>
-    <row r="248" ht="12.5"/>
-    <row r="249" ht="12.5"/>
-    <row r="250" ht="12.5"/>
-    <row r="251" ht="12.5"/>
-    <row r="252" ht="12.5"/>
-    <row r="253" ht="12.5"/>
-    <row r="254" ht="12.5"/>
-    <row r="255" ht="12.5"/>
-    <row r="256" ht="12.5"/>
-    <row r="257" ht="12.5"/>
-    <row r="258" ht="12.5"/>
-    <row r="259" ht="12.5"/>
-    <row r="260" ht="12.5"/>
-    <row r="261" ht="12.5"/>
-    <row r="262" ht="12.5"/>
-    <row r="263" ht="12.5"/>
-    <row r="264" ht="12.5"/>
-    <row r="265" ht="12.5"/>
-    <row r="266" ht="12.5"/>
-    <row r="267" ht="12.5"/>
-    <row r="268" ht="12.5"/>
-    <row r="269" ht="12.5"/>
-    <row r="270" ht="12.5"/>
-    <row r="271" ht="12.5"/>
-    <row r="272" ht="12.5"/>
-    <row r="273" ht="12.5"/>
-    <row r="274" ht="12.5"/>
-    <row r="275" ht="12.5"/>
-    <row r="276" ht="12.5"/>
-    <row r="277" ht="12.5"/>
-    <row r="278" ht="12.5"/>
-    <row r="279" ht="12.5"/>
-    <row r="280" ht="12.5"/>
-    <row r="281" ht="12.5"/>
-    <row r="282" ht="12.5"/>
-    <row r="283" ht="12.5"/>
-    <row r="284" ht="12.5"/>
-    <row r="285" ht="12.5"/>
-    <row r="286" ht="12.5"/>
-    <row r="287" ht="12.5"/>
-    <row r="288" ht="12.5"/>
-    <row r="289" ht="12.5"/>
-    <row r="290" ht="12.5"/>
-    <row r="291" ht="12.5"/>
-    <row r="292" ht="12.5"/>
-    <row r="293" ht="12.5"/>
-    <row r="294" ht="12.5"/>
-    <row r="295" ht="12.5"/>
-    <row r="296" ht="12.5"/>
-    <row r="297" ht="12.5"/>
-    <row r="298" ht="12.5"/>
-    <row r="299" ht="12.5"/>
-    <row r="300" ht="12.5"/>
-    <row r="301" ht="12.5"/>
-    <row r="302" ht="12.5"/>
-    <row r="303" ht="12.5"/>
-    <row r="304" ht="12.5"/>
-    <row r="305" ht="12.5"/>
-    <row r="306" ht="12.5"/>
-    <row r="307" ht="12.5"/>
-    <row r="308" ht="12.5"/>
-    <row r="309" ht="12.5"/>
-    <row r="310" ht="12.5"/>
-    <row r="311" ht="12.5"/>
-    <row r="312" ht="12.5"/>
-    <row r="313" ht="12.5"/>
-    <row r="314" ht="12.5"/>
-    <row r="315" ht="12.5"/>
-    <row r="316" ht="12.5"/>
-    <row r="317" ht="12.5"/>
-    <row r="318" ht="12.5"/>
-    <row r="319" ht="12.5"/>
-    <row r="320" ht="12.5"/>
-    <row r="321" ht="12.5"/>
-    <row r="322" ht="12.5"/>
-    <row r="323" ht="12.5"/>
-    <row r="324" ht="12.5"/>
-    <row r="325" ht="12.5"/>
-    <row r="326" ht="12.5"/>
-    <row r="327" ht="12.5"/>
-    <row r="328" ht="12.5"/>
-    <row r="329" ht="12.5"/>
-    <row r="330" ht="12.5"/>
-    <row r="331" ht="12.5"/>
-    <row r="332" ht="12.5"/>
-    <row r="333" ht="12.5"/>
-    <row r="334" ht="12.5"/>
-    <row r="335" ht="12.5"/>
-    <row r="336" ht="12.5"/>
-    <row r="337" ht="12.5"/>
-    <row r="338" ht="12.5"/>
-    <row r="339" ht="12.5"/>
-    <row r="340" ht="12.5"/>
-    <row r="341" ht="12.5"/>
-    <row r="342" ht="12.5"/>
-    <row r="343" ht="12.5"/>
-    <row r="344" ht="12.5"/>
-    <row r="345" ht="12.5"/>
-    <row r="346" ht="12.5"/>
-    <row r="347" ht="12.5"/>
-    <row r="348" ht="12.5"/>
-    <row r="349" ht="12.5"/>
-    <row r="350" ht="12.5"/>
-    <row r="351" ht="12.5"/>
-    <row r="352" ht="12.5"/>
-    <row r="353" ht="12.5"/>
-    <row r="354" ht="12.5"/>
-    <row r="355" ht="12.5"/>
-    <row r="356" ht="12.5"/>
-    <row r="357" ht="12.5"/>
-    <row r="358" ht="12.5"/>
-    <row r="359" ht="12.5"/>
-    <row r="360" ht="12.5"/>
-    <row r="361" ht="12.5"/>
-    <row r="362" ht="12.5"/>
-    <row r="363" ht="12.5"/>
-    <row r="364" ht="12.5"/>
-    <row r="365" ht="12.5"/>
-    <row r="366" ht="12.5"/>
-    <row r="367" ht="12.5"/>
-    <row r="368" ht="12.5"/>
-    <row r="369" ht="12.5"/>
-    <row r="370" ht="12.5"/>
-    <row r="371" ht="12.5"/>
-    <row r="372" ht="12.5"/>
-    <row r="373" ht="12.5"/>
-    <row r="374" ht="12.5"/>
-    <row r="375" ht="12.5"/>
-    <row r="376" ht="12.5"/>
-    <row r="377" ht="12.5"/>
-    <row r="378" ht="12.5"/>
-    <row r="379" ht="12.5"/>
-    <row r="380" ht="12.5"/>
-    <row r="381" ht="12.5"/>
-    <row r="382" ht="12.5"/>
-    <row r="383" ht="12.5"/>
-    <row r="384" ht="12.5"/>
-    <row r="385" ht="12.5"/>
-    <row r="386" ht="12.5"/>
-    <row r="387" ht="12.5"/>
-    <row r="388" ht="12.5"/>
-    <row r="389" ht="12.5"/>
-    <row r="390" ht="12.5"/>
-    <row r="391" ht="12.5"/>
-    <row r="392" ht="12.5"/>
-    <row r="393" ht="12.5"/>
-    <row r="394" ht="12.5"/>
-    <row r="395" ht="12.5"/>
-    <row r="396" ht="12.5"/>
-    <row r="397" ht="12.5"/>
-    <row r="398" ht="12.5"/>
-    <row r="399" ht="12.5"/>
-    <row r="400" ht="12.5"/>
-    <row r="401" ht="12.5"/>
-    <row r="402" ht="12.5"/>
-    <row r="403" ht="12.5"/>
-    <row r="404" ht="12.5"/>
-    <row r="405" ht="12.5"/>
-    <row r="406" ht="12.5"/>
-    <row r="407" ht="12.5"/>
-    <row r="408" ht="12.5"/>
-    <row r="409" ht="12.5"/>
-    <row r="410" ht="12.5"/>
-    <row r="411" ht="12.5"/>
-    <row r="412" ht="12.5"/>
-    <row r="413" ht="12.5"/>
-    <row r="414" ht="12.5"/>
-    <row r="415" ht="12.5"/>
-    <row r="416" ht="12.5"/>
-    <row r="417" ht="12.5"/>
-    <row r="418" ht="12.5"/>
-    <row r="419" ht="12.5"/>
-    <row r="420" ht="12.5"/>
-    <row r="421" ht="12.5"/>
-    <row r="422" ht="12.5"/>
-    <row r="423" ht="12.5"/>
-    <row r="424" ht="12.5"/>
-    <row r="425" ht="12.5"/>
-    <row r="426" ht="12.5"/>
-    <row r="427" ht="12.5"/>
-    <row r="428" ht="12.5"/>
-    <row r="429" ht="12.5"/>
-    <row r="430" ht="12.5"/>
-    <row r="431" ht="12.5"/>
-    <row r="432" ht="12.5"/>
-    <row r="433" ht="12.5"/>
-    <row r="434" ht="12.5"/>
-    <row r="435" ht="12.5"/>
-    <row r="436" ht="12.5"/>
-    <row r="437" ht="12.5"/>
-    <row r="438" ht="12.5"/>
-    <row r="439" ht="12.5"/>
-    <row r="440" ht="12.5"/>
-    <row r="441" ht="12.5"/>
-    <row r="442" ht="12.5"/>
-    <row r="443" ht="12.5"/>
-    <row r="444" ht="12.5"/>
-    <row r="445" ht="12.5"/>
-    <row r="446" ht="12.5"/>
-    <row r="447" ht="12.5"/>
-    <row r="448" ht="12.5"/>
-    <row r="449" ht="12.5"/>
-    <row r="450" ht="12.5"/>
-    <row r="451" ht="12.5"/>
-    <row r="452" ht="12.5"/>
-    <row r="453" ht="12.5"/>
-    <row r="454" ht="12.5"/>
-    <row r="455" ht="12.5"/>
-    <row r="456" ht="12.5"/>
-    <row r="457" ht="12.5"/>
-    <row r="458" ht="12.5"/>
-    <row r="459" ht="12.5"/>
-    <row r="460" ht="12.5"/>
-    <row r="461" ht="12.5"/>
-    <row r="462" ht="12.5"/>
-    <row r="463" ht="12.5"/>
-    <row r="464" ht="12.5"/>
-    <row r="465" ht="12.5"/>
-    <row r="466" ht="12.5"/>
-    <row r="467" ht="12.5"/>
-    <row r="468" ht="12.5"/>
-    <row r="469" ht="12.5"/>
-    <row r="470" ht="12.5"/>
-    <row r="471" ht="12.5"/>
-    <row r="472" ht="12.5"/>
-    <row r="473" ht="12.5"/>
-    <row r="474" ht="12.5"/>
-    <row r="475" ht="12.5"/>
-    <row r="476" ht="12.5"/>
-    <row r="477" ht="12.5"/>
-    <row r="478" ht="12.5"/>
-    <row r="479" ht="12.5"/>
-    <row r="480" ht="12.5"/>
-    <row r="481" ht="12.5"/>
-    <row r="482" ht="12.5"/>
-    <row r="483" ht="12.5"/>
-    <row r="484" ht="12.5"/>
-    <row r="485" ht="12.5"/>
-    <row r="486" ht="12.5"/>
-    <row r="487" ht="12.5"/>
-    <row r="488" ht="12.5"/>
-    <row r="489" ht="12.5"/>
-    <row r="490" ht="12.5"/>
-    <row r="491" ht="12.5"/>
-    <row r="492" ht="12.5"/>
-    <row r="493" ht="12.5"/>
-    <row r="494" ht="12.5"/>
-    <row r="495" ht="12.5"/>
-    <row r="496" ht="12.5"/>
-    <row r="497" ht="12.5"/>
-    <row r="498" ht="12.5"/>
-    <row r="499" ht="12.5"/>
-    <row r="500" ht="12.5"/>
-    <row r="501" ht="12.5"/>
-    <row r="502" ht="12.5"/>
-    <row r="503" ht="12.5"/>
-    <row r="504" ht="12.5"/>
-    <row r="505" ht="12.5"/>
-    <row r="506" ht="12.5"/>
-    <row r="507" ht="12.5"/>
-    <row r="508" ht="12.5"/>
-    <row r="509" ht="12.5"/>
-    <row r="510" ht="12.5"/>
-    <row r="511" ht="12.5"/>
-    <row r="512" ht="12.5"/>
-    <row r="513" ht="12.5"/>
-    <row r="514" ht="12.5"/>
-    <row r="515" ht="12.5"/>
-    <row r="516" ht="12.5"/>
-    <row r="517" ht="12.5"/>
-    <row r="518" ht="12.5"/>
-    <row r="519" ht="12.5"/>
-    <row r="520" ht="12.5"/>
-    <row r="521" ht="12.5"/>
-    <row r="522" ht="12.5"/>
-    <row r="523" ht="12.5"/>
-    <row r="524" ht="12.5"/>
-    <row r="525" ht="12.5"/>
-    <row r="526" ht="12.5"/>
-    <row r="527" ht="12.5"/>
-    <row r="528" ht="12.5"/>
-    <row r="529" ht="12.5"/>
-    <row r="530" ht="12.5"/>
-    <row r="531" ht="12.5"/>
-    <row r="532" ht="12.5"/>
-    <row r="533" ht="12.5"/>
-    <row r="534" ht="12.5"/>
-    <row r="535" ht="12.5"/>
-    <row r="536" ht="12.5"/>
-    <row r="537" ht="12.5"/>
-    <row r="538" ht="12.5"/>
-    <row r="539" ht="12.5"/>
-    <row r="540" ht="12.5"/>
-    <row r="541" ht="12.5"/>
-    <row r="542" ht="12.5"/>
-    <row r="543" ht="12.5"/>
-    <row r="544" ht="12.5"/>
-    <row r="545" ht="12.5"/>
-    <row r="546" ht="12.5"/>
-    <row r="547" ht="12.5"/>
-    <row r="548" ht="12.5"/>
-    <row r="549" ht="12.5"/>
-    <row r="550" ht="12.5"/>
-    <row r="551" ht="12.5"/>
-    <row r="552" ht="12.5"/>
-    <row r="553" ht="12.5"/>
-    <row r="554" ht="12.5"/>
-    <row r="555" ht="12.5"/>
-    <row r="556" ht="12.5"/>
-    <row r="557" ht="12.5"/>
-    <row r="558" ht="12.5"/>
-    <row r="559" ht="12.5"/>
-    <row r="560" ht="12.5"/>
-    <row r="561" ht="12.5"/>
-    <row r="562" ht="12.5"/>
-    <row r="563" ht="12.5"/>
-    <row r="564" ht="12.5"/>
-    <row r="565" ht="12.5"/>
-    <row r="566" ht="12.5"/>
-    <row r="567" ht="12.5"/>
-    <row r="568" ht="12.5"/>
-    <row r="569" ht="12.5"/>
-    <row r="570" ht="12.5"/>
-    <row r="571" ht="12.5"/>
-    <row r="572" ht="12.5"/>
-    <row r="573" ht="12.5"/>
-    <row r="574" ht="12.5"/>
-    <row r="575" ht="12.5"/>
-    <row r="576" ht="12.5"/>
-    <row r="577" ht="12.5"/>
-    <row r="578" ht="12.5"/>
-    <row r="579" ht="12.5"/>
-    <row r="580" ht="12.5"/>
-    <row r="581" ht="12.5"/>
-    <row r="582" ht="12.5"/>
-    <row r="583" ht="12.5"/>
-    <row r="584" ht="12.5"/>
-    <row r="585" ht="12.5"/>
-    <row r="586" ht="12.5"/>
-    <row r="587" ht="12.5"/>
-    <row r="588" ht="12.5"/>
-    <row r="589" ht="12.5"/>
-    <row r="590" ht="12.5"/>
-    <row r="591" ht="12.5"/>
-    <row r="592" ht="12.5"/>
-    <row r="593" ht="12.5"/>
-    <row r="594" ht="12.5"/>
-    <row r="595" ht="12.5"/>
-    <row r="596" ht="12.5"/>
-    <row r="597" ht="12.5"/>
-    <row r="598" ht="12.5"/>
-    <row r="599" ht="12.5"/>
-    <row r="600" ht="12.5"/>
-    <row r="601" ht="12.5"/>
-    <row r="602" ht="12.5"/>
-    <row r="603" ht="12.5"/>
-    <row r="604" ht="12.5"/>
-    <row r="605" ht="12.5"/>
-    <row r="606" ht="12.5"/>
-    <row r="607" ht="12.5"/>
-    <row r="608" ht="12.5"/>
-    <row r="609" ht="12.5"/>
-    <row r="610" ht="12.5"/>
-    <row r="611" ht="12.5"/>
-    <row r="612" ht="12.5"/>
-    <row r="613" ht="12.5"/>
-    <row r="614" ht="12.5"/>
-    <row r="615" ht="12.5"/>
-    <row r="616" ht="12.5"/>
-    <row r="617" ht="12.5"/>
-    <row r="618" ht="12.5"/>
-    <row r="619" ht="12.5"/>
-    <row r="620" ht="12.5"/>
-    <row r="621" ht="12.5"/>
-    <row r="622" ht="12.5"/>
-    <row r="623" ht="12.5"/>
-    <row r="624" ht="12.5"/>
-    <row r="625" ht="12.5"/>
-    <row r="626" ht="12.5"/>
-    <row r="627" ht="12.5"/>
-    <row r="628" ht="12.5"/>
-    <row r="629" ht="12.5"/>
-    <row r="630" ht="12.5"/>
-    <row r="631" ht="12.5"/>
-    <row r="632" ht="12.5"/>
-    <row r="633" ht="12.5"/>
-    <row r="634" ht="12.5"/>
-    <row r="635" ht="12.5"/>
-    <row r="636" ht="12.5"/>
-    <row r="637" ht="12.5"/>
-    <row r="638" ht="12.5"/>
-    <row r="639" ht="12.5"/>
-    <row r="640" ht="12.5"/>
-    <row r="641" ht="12.5"/>
-    <row r="642" ht="12.5"/>
-    <row r="643" ht="12.5"/>
-    <row r="644" ht="12.5"/>
-    <row r="645" ht="12.5"/>
-    <row r="646" ht="12.5"/>
-    <row r="647" ht="12.5"/>
-    <row r="648" ht="12.5"/>
-    <row r="649" ht="12.5"/>
-    <row r="650" ht="12.5"/>
-    <row r="651" ht="12.5"/>
-    <row r="652" ht="12.5"/>
-    <row r="653" ht="12.5"/>
-    <row r="654" ht="12.5"/>
-    <row r="655" ht="12.5"/>
-    <row r="656" ht="12.5"/>
-    <row r="657" ht="12.5"/>
-    <row r="658" ht="12.5"/>
-    <row r="659" ht="12.5"/>
-    <row r="660" ht="12.5"/>
-    <row r="661" ht="12.5"/>
-    <row r="662" ht="12.5"/>
-    <row r="663" ht="12.5"/>
-    <row r="664" ht="12.5"/>
-    <row r="665" ht="12.5"/>
-    <row r="666" ht="12.5"/>
-    <row r="667" ht="12.5"/>
-    <row r="668" ht="12.5"/>
-    <row r="669" ht="12.5"/>
-    <row r="670" ht="12.5"/>
-    <row r="671" ht="12.5"/>
-    <row r="672" ht="12.5"/>
-    <row r="673" ht="12.5"/>
-    <row r="674" ht="12.5"/>
-    <row r="675" ht="12.5"/>
-    <row r="676" ht="12.5"/>
-    <row r="677" ht="12.5"/>
-    <row r="678" ht="12.5"/>
-    <row r="679" ht="12.5"/>
-    <row r="680" ht="12.5"/>
-    <row r="681" ht="12.5"/>
-    <row r="682" ht="12.5"/>
-    <row r="683" ht="12.5"/>
-    <row r="684" ht="12.5"/>
-    <row r="685" ht="12.5"/>
-    <row r="686" ht="12.5"/>
-    <row r="687" ht="12.5"/>
-    <row r="688" ht="12.5"/>
-    <row r="689" ht="12.5"/>
-    <row r="690" ht="12.5"/>
-    <row r="691" ht="12.5"/>
-    <row r="692" ht="12.5"/>
-    <row r="693" ht="12.5"/>
-    <row r="694" ht="12.5"/>
-    <row r="695" ht="12.5"/>
-    <row r="696" ht="12.5"/>
-    <row r="697" ht="12.5"/>
-    <row r="698" ht="12.5"/>
-    <row r="699" ht="12.5"/>
-    <row r="700" ht="12.5"/>
-    <row r="701" ht="12.5"/>
-    <row r="702" ht="12.5"/>
-    <row r="703" ht="12.5"/>
-    <row r="704" ht="12.5"/>
-    <row r="705" ht="12.5"/>
-    <row r="706" ht="12.5"/>
-    <row r="707" ht="12.5"/>
-    <row r="708" ht="12.5"/>
-    <row r="709" ht="12.5"/>
-    <row r="710" ht="12.5"/>
-    <row r="711" ht="12.5"/>
-    <row r="712" ht="12.5"/>
-    <row r="713" ht="12.5"/>
-    <row r="714" ht="12.5"/>
-    <row r="715" ht="12.5"/>
-    <row r="716" ht="12.5"/>
-    <row r="717" ht="12.5"/>
-    <row r="718" ht="12.5"/>
-    <row r="719" ht="12.5"/>
-    <row r="720" ht="12.5"/>
-    <row r="721" ht="12.5"/>
-    <row r="722" ht="12.5"/>
-    <row r="723" ht="12.5"/>
-    <row r="724" ht="12.5"/>
-    <row r="725" ht="12.5"/>
-    <row r="726" ht="12.5"/>
-    <row r="727" ht="12.5"/>
-    <row r="728" ht="12.5"/>
-    <row r="729" ht="12.5"/>
-    <row r="730" ht="12.5"/>
-    <row r="731" ht="12.5"/>
-    <row r="732" ht="12.5"/>
-    <row r="733" ht="12.5"/>
-    <row r="734" ht="12.5"/>
-    <row r="735" ht="12.5"/>
-    <row r="736" ht="12.5"/>
-    <row r="737" ht="12.5"/>
-    <row r="738" ht="12.5"/>
-    <row r="739" ht="12.5"/>
-    <row r="740" ht="12.5"/>
-    <row r="741" ht="12.5"/>
-    <row r="742" ht="12.5"/>
-    <row r="743" ht="12.5"/>
-    <row r="744" ht="12.5"/>
-    <row r="745" ht="12.5"/>
-    <row r="746" ht="12.5"/>
-    <row r="747" ht="12.5"/>
-    <row r="748" ht="12.5"/>
-    <row r="749" ht="12.5"/>
-    <row r="750" ht="12.5"/>
-    <row r="751" ht="12.5"/>
-    <row r="752" ht="12.5"/>
-    <row r="753" ht="12.5"/>
-    <row r="754" ht="12.5"/>
-    <row r="755" ht="12.5"/>
-    <row r="756" ht="12.5"/>
-    <row r="757" ht="12.5"/>
-    <row r="758" ht="12.5"/>
-    <row r="759" ht="12.5"/>
-    <row r="760" ht="12.5"/>
-    <row r="761" ht="12.5"/>
-    <row r="762" ht="12.5"/>
-    <row r="763" ht="12.5"/>
-    <row r="764" ht="12.5"/>
-    <row r="765" ht="12.5"/>
-    <row r="766" ht="12.5"/>
-    <row r="767" ht="12.5"/>
-    <row r="768" ht="12.5"/>
-    <row r="769" ht="12.5"/>
-    <row r="770" ht="12.5"/>
-    <row r="771" ht="12.5"/>
-    <row r="772" ht="12.5"/>
-    <row r="773" ht="12.5"/>
-    <row r="774" ht="12.5"/>
-    <row r="775" ht="12.5"/>
-    <row r="776" ht="12.5"/>
-    <row r="777" ht="12.5"/>
-    <row r="778" ht="12.5"/>
-    <row r="779" ht="12.5"/>
-    <row r="780" ht="12.5"/>
-    <row r="781" ht="12.5"/>
-    <row r="782" ht="12.5"/>
-    <row r="783" ht="12.5"/>
-    <row r="784" ht="12.5"/>
-    <row r="785" ht="12.5"/>
-    <row r="786" ht="12.5"/>
-    <row r="787" ht="12.5"/>
-    <row r="788" ht="12.5"/>
-    <row r="789" ht="12.5"/>
-    <row r="790" ht="12.5"/>
-    <row r="791" ht="12.5"/>
-    <row r="792" ht="12.5"/>
-    <row r="793" ht="12.5"/>
-    <row r="794" ht="12.5"/>
-    <row r="795" ht="12.5"/>
-    <row r="796" ht="12.5"/>
-    <row r="797" ht="12.5"/>
-    <row r="798" ht="12.5"/>
-    <row r="799" ht="12.5"/>
-    <row r="800" ht="12.5"/>
-    <row r="801" ht="12.5"/>
-    <row r="802" ht="12.5"/>
-    <row r="803" ht="12.5"/>
-    <row r="804" ht="12.5"/>
-    <row r="805" ht="12.5"/>
-    <row r="806" ht="12.5"/>
-    <row r="807" ht="12.5"/>
-    <row r="808" ht="12.5"/>
-    <row r="809" ht="12.5"/>
-    <row r="810" ht="12.5"/>
-    <row r="811" ht="12.5"/>
-    <row r="812" ht="12.5"/>
-    <row r="813" ht="12.5"/>
-    <row r="814" ht="12.5"/>
-    <row r="815" ht="12.5"/>
-    <row r="816" ht="12.5"/>
-    <row r="817" ht="12.5"/>
-    <row r="818" ht="12.5"/>
-    <row r="819" ht="12.5"/>
-    <row r="820" ht="12.5"/>
-    <row r="821" ht="12.5"/>
-    <row r="822" ht="12.5"/>
-    <row r="823" ht="12.5"/>
-    <row r="824" ht="12.5"/>
-    <row r="825" ht="12.5"/>
-    <row r="826" ht="12.5"/>
-    <row r="827" ht="12.5"/>
-    <row r="828" ht="12.5"/>
-    <row r="829" ht="12.5"/>
-    <row r="830" ht="12.5"/>
-    <row r="831" ht="12.5"/>
-    <row r="832" ht="12.5"/>
-    <row r="833" ht="12.5"/>
-    <row r="834" ht="12.5"/>
-    <row r="835" ht="12.5"/>
-    <row r="836" ht="12.5"/>
-    <row r="837" ht="12.5"/>
-    <row r="838" ht="12.5"/>
-    <row r="839" ht="12.5"/>
-    <row r="840" ht="12.5"/>
-    <row r="841" ht="12.5"/>
-    <row r="842" ht="12.5"/>
-    <row r="843" ht="12.5"/>
-    <row r="844" ht="12.5"/>
-    <row r="845" ht="12.5"/>
-    <row r="846" ht="12.5"/>
-    <row r="847" ht="12.5"/>
-    <row r="848" ht="12.5"/>
-    <row r="849" ht="12.5"/>
-    <row r="850" ht="12.5"/>
-    <row r="851" ht="12.5"/>
-    <row r="852" ht="12.5"/>
-    <row r="853" ht="12.5"/>
-    <row r="854" ht="12.5"/>
-    <row r="855" ht="12.5"/>
-    <row r="856" ht="12.5"/>
-    <row r="857" ht="12.5"/>
-    <row r="858" ht="12.5"/>
-    <row r="859" ht="12.5"/>
-    <row r="860" ht="12.5"/>
-    <row r="861" ht="12.5"/>
-    <row r="862" ht="12.5"/>
-    <row r="863" ht="12.5"/>
-    <row r="864" ht="12.5"/>
-    <row r="865" ht="12.5"/>
-    <row r="866" ht="12.5"/>
-    <row r="867" ht="12.5"/>
-    <row r="868" ht="12.5"/>
-    <row r="869" ht="12.5"/>
-    <row r="870" ht="12.5"/>
-    <row r="871" ht="12.5"/>
-    <row r="872" ht="12.5"/>
-    <row r="873" ht="12.5"/>
-    <row r="874" ht="12.5"/>
-    <row r="875" ht="12.5"/>
-    <row r="876" ht="12.5"/>
-    <row r="877" ht="12.5"/>
-    <row r="878" ht="12.5"/>
-    <row r="879" ht="12.5"/>
-    <row r="880" ht="12.5"/>
-    <row r="881" ht="12.5"/>
-    <row r="882" ht="12.5"/>
-    <row r="883" ht="12.5"/>
-    <row r="884" ht="12.5"/>
-    <row r="885" ht="12.5"/>
-    <row r="886" ht="12.5"/>
-    <row r="887" ht="12.5"/>
-    <row r="888" ht="12.5"/>
-    <row r="889" ht="12.5"/>
-    <row r="890" ht="12.5"/>
-    <row r="891" ht="12.5"/>
-    <row r="892" ht="12.5"/>
-    <row r="893" ht="12.5"/>
-    <row r="894" ht="12.5"/>
-    <row r="895" ht="12.5"/>
-    <row r="896" ht="12.5"/>
-    <row r="897" ht="12.5"/>
-    <row r="898" ht="12.5"/>
-    <row r="899" ht="12.5"/>
-    <row r="900" ht="12.5"/>
-    <row r="901" ht="12.5"/>
-    <row r="902" ht="12.5"/>
-    <row r="903" ht="12.5"/>
-    <row r="904" ht="12.5"/>
-    <row r="905" ht="12.5"/>
-    <row r="906" ht="12.5"/>
-    <row r="907" ht="12.5"/>
-    <row r="908" ht="12.5"/>
-    <row r="909" ht="12.5"/>
-    <row r="910" ht="12.5"/>
-    <row r="911" ht="12.5"/>
-    <row r="912" ht="12.5"/>
-    <row r="913" ht="12.5"/>
-    <row r="914" ht="12.5"/>
-    <row r="915" ht="12.5"/>
-    <row r="916" ht="12.5"/>
-    <row r="917" ht="12.5"/>
-    <row r="918" ht="12.5"/>
-    <row r="919" ht="12.5"/>
-    <row r="920" ht="12.5"/>
-    <row r="921" ht="12.5"/>
-    <row r="922" ht="12.5"/>
-    <row r="923" ht="12.5"/>
-    <row r="924" ht="12.5"/>
-    <row r="925" ht="12.5"/>
-    <row r="926" ht="12.5"/>
-    <row r="927" ht="12.5"/>
-    <row r="928" ht="12.5"/>
-    <row r="929" ht="12.5"/>
-    <row r="930" ht="12.5"/>
-    <row r="931" ht="12.5"/>
-    <row r="932" ht="12.5"/>
-    <row r="933" ht="12.5"/>
-    <row r="934" ht="12.5"/>
-    <row r="935" ht="12.5"/>
-    <row r="936" ht="12.5"/>
-    <row r="937" ht="12.5"/>
-    <row r="938" ht="12.5"/>
-    <row r="939" ht="12.5"/>
-    <row r="940" ht="12.5"/>
-    <row r="941" ht="12.5"/>
-    <row r="942" ht="12.5"/>
-    <row r="943" ht="12.5"/>
-    <row r="944" ht="12.5"/>
-    <row r="945" ht="12.5"/>
-    <row r="946" ht="12.5"/>
-    <row r="947" ht="12.5"/>
-    <row r="948" ht="12.5"/>
-    <row r="949" ht="12.5"/>
-    <row r="950" ht="12.5"/>
-    <row r="951" ht="12.5"/>
-    <row r="952" ht="12.5"/>
-    <row r="953" ht="12.5"/>
-    <row r="954" ht="12.5"/>
-    <row r="955" ht="12.5"/>
-    <row r="956" ht="12.5"/>
-    <row r="957" ht="12.5"/>
-    <row r="958" ht="12.5"/>
-    <row r="959" ht="12.5"/>
-    <row r="960" ht="12.5"/>
-    <row r="961" ht="12.5"/>
-    <row r="962" ht="12.5"/>
-    <row r="963" ht="12.5"/>
-    <row r="964" ht="12.5"/>
-    <row r="965" ht="12.5"/>
-    <row r="966" ht="12.5"/>
-    <row r="967" ht="12.5"/>
-    <row r="968" ht="12.5"/>
-    <row r="969" ht="12.5"/>
-    <row r="970" ht="12.5"/>
-    <row r="971" ht="12.5"/>
-    <row r="972" ht="12.5"/>
-    <row r="973" ht="12.5"/>
-    <row r="974" ht="12.5"/>
-    <row r="975" ht="12.5"/>
-    <row r="976" ht="12.5"/>
-    <row r="977" ht="12.5"/>
-    <row r="978" ht="12.5"/>
-    <row r="979" ht="12.5"/>
-    <row r="980" ht="12.5"/>
-    <row r="981" ht="12.5"/>
-    <row r="982" ht="12.5"/>
-    <row r="983" ht="12.5"/>
-    <row r="984" ht="12.5"/>
-    <row r="985" ht="12.5"/>
-    <row r="986" ht="12.5"/>
-    <row r="987" ht="12.5"/>
-    <row r="988" ht="12.5"/>
-    <row r="989" ht="12.5"/>
-    <row r="990" ht="12.5"/>
-    <row r="991" ht="12.5"/>
-    <row r="992" ht="12.5"/>
-    <row r="993" ht="12.5"/>
-    <row r="994" ht="12.5"/>
-    <row r="995" ht="12.5"/>
-    <row r="996" ht="12.5"/>
-    <row r="997" ht="12.5"/>
-    <row r="998" ht="12.5"/>
+    <row r="232" spans="1:24" ht="12.75"/>
+    <row r="233" spans="1:24" ht="12.75"/>
+    <row r="234" spans="1:24" ht="12.75"/>
+    <row r="235" spans="1:24" ht="12.75"/>
+    <row r="236" spans="1:24" ht="12.75"/>
+    <row r="237" spans="1:24" ht="12.75"/>
+    <row r="238" spans="1:24" ht="12.75"/>
+    <row r="239" spans="1:24" ht="12.75"/>
+    <row r="240" spans="1:24" ht="12.75"/>
+    <row r="241" ht="12.75"/>
+    <row r="242" ht="12.75"/>
+    <row r="243" ht="12.75"/>
+    <row r="244" ht="12.75"/>
+    <row r="245" ht="12.75"/>
+    <row r="246" ht="12.75"/>
+    <row r="247" ht="12.75"/>
+    <row r="248" ht="12.75"/>
+    <row r="249" ht="12.75"/>
+    <row r="250" ht="12.75"/>
+    <row r="251" ht="12.75"/>
+    <row r="252" ht="12.75"/>
+    <row r="253" ht="12.75"/>
+    <row r="254" ht="12.75"/>
+    <row r="255" ht="12.75"/>
+    <row r="256" ht="12.75"/>
+    <row r="257" ht="12.75"/>
+    <row r="258" ht="12.75"/>
+    <row r="259" ht="12.75"/>
+    <row r="260" ht="12.75"/>
+    <row r="261" ht="12.75"/>
+    <row r="262" ht="12.75"/>
+    <row r="263" ht="12.75"/>
+    <row r="264" ht="12.75"/>
+    <row r="265" ht="12.75"/>
+    <row r="266" ht="12.75"/>
+    <row r="267" ht="12.75"/>
+    <row r="268" ht="12.75"/>
+    <row r="269" ht="12.75"/>
+    <row r="270" ht="12.75"/>
+    <row r="271" ht="12.75"/>
+    <row r="272" ht="12.75"/>
+    <row r="273" ht="12.75"/>
+    <row r="274" ht="12.75"/>
+    <row r="275" ht="12.75"/>
+    <row r="276" ht="12.75"/>
+    <row r="277" ht="12.75"/>
+    <row r="278" ht="12.75"/>
+    <row r="279" ht="12.75"/>
+    <row r="280" ht="12.75"/>
+    <row r="281" ht="12.75"/>
+    <row r="282" ht="12.75"/>
+    <row r="283" ht="12.75"/>
+    <row r="284" ht="12.75"/>
+    <row r="285" ht="12.75"/>
+    <row r="286" ht="12.75"/>
+    <row r="287" ht="12.75"/>
+    <row r="288" ht="12.75"/>
+    <row r="289" ht="12.75"/>
+    <row r="290" ht="12.75"/>
+    <row r="291" ht="12.75"/>
+    <row r="292" ht="12.75"/>
+    <row r="293" ht="12.75"/>
+    <row r="294" ht="12.75"/>
+    <row r="295" ht="12.75"/>
+    <row r="296" ht="12.75"/>
+    <row r="297" ht="12.75"/>
+    <row r="298" ht="12.75"/>
+    <row r="299" ht="12.75"/>
+    <row r="300" ht="12.75"/>
+    <row r="301" ht="12.75"/>
+    <row r="302" ht="12.75"/>
+    <row r="303" ht="12.75"/>
+    <row r="304" ht="12.75"/>
+    <row r="305" ht="12.75"/>
+    <row r="306" ht="12.75"/>
+    <row r="307" ht="12.75"/>
+    <row r="308" ht="12.75"/>
+    <row r="309" ht="12.75"/>
+    <row r="310" ht="12.75"/>
+    <row r="311" ht="12.75"/>
+    <row r="312" ht="12.75"/>
+    <row r="313" ht="12.75"/>
+    <row r="314" ht="12.75"/>
+    <row r="315" ht="12.75"/>
+    <row r="316" ht="12.75"/>
+    <row r="317" ht="12.75"/>
+    <row r="318" ht="12.75"/>
+    <row r="319" ht="12.75"/>
+    <row r="320" ht="12.75"/>
+    <row r="321" ht="12.75"/>
+    <row r="322" ht="12.75"/>
+    <row r="323" ht="12.75"/>
+    <row r="324" ht="12.75"/>
+    <row r="325" ht="12.75"/>
+    <row r="326" ht="12.75"/>
+    <row r="327" ht="12.75"/>
+    <row r="328" ht="12.75"/>
+    <row r="329" ht="12.75"/>
+    <row r="330" ht="12.75"/>
+    <row r="331" ht="12.75"/>
+    <row r="332" ht="12.75"/>
+    <row r="333" ht="12.75"/>
+    <row r="334" ht="12.75"/>
+    <row r="335" ht="12.75"/>
+    <row r="336" ht="12.75"/>
+    <row r="337" ht="12.75"/>
+    <row r="338" ht="12.75"/>
+    <row r="339" ht="12.75"/>
+    <row r="340" ht="12.75"/>
+    <row r="341" ht="12.75"/>
+    <row r="342" ht="12.75"/>
+    <row r="343" ht="12.75"/>
+    <row r="344" ht="12.75"/>
+    <row r="345" ht="12.75"/>
+    <row r="346" ht="12.75"/>
+    <row r="347" ht="12.75"/>
+    <row r="348" ht="12.75"/>
+    <row r="349" ht="12.75"/>
+    <row r="350" ht="12.75"/>
+    <row r="351" ht="12.75"/>
+    <row r="352" ht="12.75"/>
+    <row r="353" ht="12.75"/>
+    <row r="354" ht="12.75"/>
+    <row r="355" ht="12.75"/>
+    <row r="356" ht="12.75"/>
+    <row r="357" ht="12.75"/>
+    <row r="358" ht="12.75"/>
+    <row r="359" ht="12.75"/>
+    <row r="360" ht="12.75"/>
+    <row r="361" ht="12.75"/>
+    <row r="362" ht="12.75"/>
+    <row r="363" ht="12.75"/>
+    <row r="364" ht="12.75"/>
+    <row r="365" ht="12.75"/>
+    <row r="366" ht="12.75"/>
+    <row r="367" ht="12.75"/>
+    <row r="368" ht="12.75"/>
+    <row r="369" ht="12.75"/>
+    <row r="370" ht="12.75"/>
+    <row r="371" ht="12.75"/>
+    <row r="372" ht="12.75"/>
+    <row r="373" ht="12.75"/>
+    <row r="374" ht="12.75"/>
+    <row r="375" ht="12.75"/>
+    <row r="376" ht="12.75"/>
+    <row r="377" ht="12.75"/>
+    <row r="378" ht="12.75"/>
+    <row r="379" ht="12.75"/>
+    <row r="380" ht="12.75"/>
+    <row r="381" ht="12.75"/>
+    <row r="382" ht="12.75"/>
+    <row r="383" ht="12.75"/>
+    <row r="384" ht="12.75"/>
+    <row r="385" ht="12.75"/>
+    <row r="386" ht="12.75"/>
+    <row r="387" ht="12.75"/>
+    <row r="388" ht="12.75"/>
+    <row r="389" ht="12.75"/>
+    <row r="390" ht="12.75"/>
+    <row r="391" ht="12.75"/>
+    <row r="392" ht="12.75"/>
+    <row r="393" ht="12.75"/>
+    <row r="394" ht="12.75"/>
+    <row r="395" ht="12.75"/>
+    <row r="396" ht="12.75"/>
+    <row r="397" ht="12.75"/>
+    <row r="398" ht="12.75"/>
+    <row r="399" ht="12.75"/>
+    <row r="400" ht="12.75"/>
+    <row r="401" ht="12.75"/>
+    <row r="402" ht="12.75"/>
+    <row r="403" ht="12.75"/>
+    <row r="404" ht="12.75"/>
+    <row r="405" ht="12.75"/>
+    <row r="406" ht="12.75"/>
+    <row r="407" ht="12.75"/>
+    <row r="408" ht="12.75"/>
+    <row r="409" ht="12.75"/>
+    <row r="410" ht="12.75"/>
+    <row r="411" ht="12.75"/>
+    <row r="412" ht="12.75"/>
+    <row r="413" ht="12.75"/>
+    <row r="414" ht="12.75"/>
+    <row r="415" ht="12.75"/>
+    <row r="416" ht="12.75"/>
+    <row r="417" ht="12.75"/>
+    <row r="418" ht="12.75"/>
+    <row r="419" ht="12.75"/>
+    <row r="420" ht="12.75"/>
+    <row r="421" ht="12.75"/>
+    <row r="422" ht="12.75"/>
+    <row r="423" ht="12.75"/>
+    <row r="424" ht="12.75"/>
+    <row r="425" ht="12.75"/>
+    <row r="426" ht="12.75"/>
+    <row r="427" ht="12.75"/>
+    <row r="428" ht="12.75"/>
+    <row r="429" ht="12.75"/>
+    <row r="430" ht="12.75"/>
+    <row r="431" ht="12.75"/>
+    <row r="432" ht="12.75"/>
+    <row r="433" ht="12.75"/>
+    <row r="434" ht="12.75"/>
+    <row r="435" ht="12.75"/>
+    <row r="436" ht="12.75"/>
+    <row r="437" ht="12.75"/>
+    <row r="438" ht="12.75"/>
+    <row r="439" ht="12.75"/>
+    <row r="440" ht="12.75"/>
+    <row r="441" ht="12.75"/>
+    <row r="442" ht="12.75"/>
+    <row r="443" ht="12.75"/>
+    <row r="444" ht="12.75"/>
+    <row r="445" ht="12.75"/>
+    <row r="446" ht="12.75"/>
+    <row r="447" ht="12.75"/>
+    <row r="448" ht="12.75"/>
+    <row r="449" ht="12.75"/>
+    <row r="450" ht="12.75"/>
+    <row r="451" ht="12.75"/>
+    <row r="452" ht="12.75"/>
+    <row r="453" ht="12.75"/>
+    <row r="454" ht="12.75"/>
+    <row r="455" ht="12.75"/>
+    <row r="456" ht="12.75"/>
+    <row r="457" ht="12.75"/>
+    <row r="458" ht="12.75"/>
+    <row r="459" ht="12.75"/>
+    <row r="460" ht="12.75"/>
+    <row r="461" ht="12.75"/>
+    <row r="462" ht="12.75"/>
+    <row r="463" ht="12.75"/>
+    <row r="464" ht="12.75"/>
+    <row r="465" ht="12.75"/>
+    <row r="466" ht="12.75"/>
+    <row r="467" ht="12.75"/>
+    <row r="468" ht="12.75"/>
+    <row r="469" ht="12.75"/>
+    <row r="470" ht="12.75"/>
+    <row r="471" ht="12.75"/>
+    <row r="472" ht="12.75"/>
+    <row r="473" ht="12.75"/>
+    <row r="474" ht="12.75"/>
+    <row r="475" ht="12.75"/>
+    <row r="476" ht="12.75"/>
+    <row r="477" ht="12.75"/>
+    <row r="478" ht="12.75"/>
+    <row r="479" ht="12.75"/>
+    <row r="480" ht="12.75"/>
+    <row r="481" ht="12.75"/>
+    <row r="482" ht="12.75"/>
+    <row r="483" ht="12.75"/>
+    <row r="484" ht="12.75"/>
+    <row r="485" ht="12.75"/>
+    <row r="486" ht="12.75"/>
+    <row r="487" ht="12.75"/>
+    <row r="488" ht="12.75"/>
+    <row r="489" ht="12.75"/>
+    <row r="490" ht="12.75"/>
+    <row r="491" ht="12.75"/>
+    <row r="492" ht="12.75"/>
+    <row r="493" ht="12.75"/>
+    <row r="494" ht="12.75"/>
+    <row r="495" ht="12.75"/>
+    <row r="496" ht="12.75"/>
+    <row r="497" ht="12.75"/>
+    <row r="498" ht="12.75"/>
+    <row r="499" ht="12.75"/>
+    <row r="500" ht="12.75"/>
+    <row r="501" ht="12.75"/>
+    <row r="502" ht="12.75"/>
+    <row r="503" ht="12.75"/>
+    <row r="504" ht="12.75"/>
+    <row r="505" ht="12.75"/>
+    <row r="506" ht="12.75"/>
+    <row r="507" ht="12.75"/>
+    <row r="508" ht="12.75"/>
+    <row r="509" ht="12.75"/>
+    <row r="510" ht="12.75"/>
+    <row r="511" ht="12.75"/>
+    <row r="512" ht="12.75"/>
+    <row r="513" ht="12.75"/>
+    <row r="514" ht="12.75"/>
+    <row r="515" ht="12.75"/>
+    <row r="516" ht="12.75"/>
+    <row r="517" ht="12.75"/>
+    <row r="518" ht="12.75"/>
+    <row r="519" ht="12.75"/>
+    <row r="520" ht="12.75"/>
+    <row r="521" ht="12.75"/>
+    <row r="522" ht="12.75"/>
+    <row r="523" ht="12.75"/>
+    <row r="524" ht="12.75"/>
+    <row r="525" ht="12.75"/>
+    <row r="526" ht="12.75"/>
+    <row r="527" ht="12.75"/>
+    <row r="528" ht="12.75"/>
+    <row r="529" ht="12.75"/>
+    <row r="530" ht="12.75"/>
+    <row r="531" ht="12.75"/>
+    <row r="532" ht="12.75"/>
+    <row r="533" ht="12.75"/>
+    <row r="534" ht="12.75"/>
+    <row r="535" ht="12.75"/>
+    <row r="536" ht="12.75"/>
+    <row r="537" ht="12.75"/>
+    <row r="538" ht="12.75"/>
+    <row r="539" ht="12.75"/>
+    <row r="540" ht="12.75"/>
+    <row r="541" ht="12.75"/>
+    <row r="542" ht="12.75"/>
+    <row r="543" ht="12.75"/>
+    <row r="544" ht="12.75"/>
+    <row r="545" ht="12.75"/>
+    <row r="546" ht="12.75"/>
+    <row r="547" ht="12.75"/>
+    <row r="548" ht="12.75"/>
+    <row r="549" ht="12.75"/>
+    <row r="550" ht="12.75"/>
+    <row r="551" ht="12.75"/>
+    <row r="552" ht="12.75"/>
+    <row r="553" ht="12.75"/>
+    <row r="554" ht="12.75"/>
+    <row r="555" ht="12.75"/>
+    <row r="556" ht="12.75"/>
+    <row r="557" ht="12.75"/>
+    <row r="558" ht="12.75"/>
+    <row r="559" ht="12.75"/>
+    <row r="560" ht="12.75"/>
+    <row r="561" ht="12.75"/>
+    <row r="562" ht="12.75"/>
+    <row r="563" ht="12.75"/>
+    <row r="564" ht="12.75"/>
+    <row r="565" ht="12.75"/>
+    <row r="566" ht="12.75"/>
+    <row r="567" ht="12.75"/>
+    <row r="568" ht="12.75"/>
+    <row r="569" ht="12.75"/>
+    <row r="570" ht="12.75"/>
+    <row r="571" ht="12.75"/>
+    <row r="572" ht="12.75"/>
+    <row r="573" ht="12.75"/>
+    <row r="574" ht="12.75"/>
+    <row r="575" ht="12.75"/>
+    <row r="576" ht="12.75"/>
+    <row r="577" ht="12.75"/>
+    <row r="578" ht="12.75"/>
+    <row r="579" ht="12.75"/>
+    <row r="580" ht="12.75"/>
+    <row r="581" ht="12.75"/>
+    <row r="582" ht="12.75"/>
+    <row r="583" ht="12.75"/>
+    <row r="584" ht="12.75"/>
+    <row r="585" ht="12.75"/>
+    <row r="586" ht="12.75"/>
+    <row r="587" ht="12.75"/>
+    <row r="588" ht="12.75"/>
+    <row r="589" ht="12.75"/>
+    <row r="590" ht="12.75"/>
+    <row r="591" ht="12.75"/>
+    <row r="592" ht="12.75"/>
+    <row r="593" ht="12.75"/>
+    <row r="594" ht="12.75"/>
+    <row r="595" ht="12.75"/>
+    <row r="596" ht="12.75"/>
+    <row r="597" ht="12.75"/>
+    <row r="598" ht="12.75"/>
+    <row r="599" ht="12.75"/>
+    <row r="600" ht="12.75"/>
+    <row r="601" ht="12.75"/>
+    <row r="602" ht="12.75"/>
+    <row r="603" ht="12.75"/>
+    <row r="604" ht="12.75"/>
+    <row r="605" ht="12.75"/>
+    <row r="606" ht="12.75"/>
+    <row r="607" ht="12.75"/>
+    <row r="608" ht="12.75"/>
+    <row r="609" ht="12.75"/>
+    <row r="610" ht="12.75"/>
+    <row r="611" ht="12.75"/>
+    <row r="612" ht="12.75"/>
+    <row r="613" ht="12.75"/>
+    <row r="614" ht="12.75"/>
+    <row r="615" ht="12.75"/>
+    <row r="616" ht="12.75"/>
+    <row r="617" ht="12.75"/>
+    <row r="618" ht="12.75"/>
+    <row r="619" ht="12.75"/>
+    <row r="620" ht="12.75"/>
+    <row r="621" ht="12.75"/>
+    <row r="622" ht="12.75"/>
+    <row r="623" ht="12.75"/>
+    <row r="624" ht="12.75"/>
+    <row r="625" ht="12.75"/>
+    <row r="626" ht="12.75"/>
+    <row r="627" ht="12.75"/>
+    <row r="628" ht="12.75"/>
+    <row r="629" ht="12.75"/>
+    <row r="630" ht="12.75"/>
+    <row r="631" ht="12.75"/>
+    <row r="632" ht="12.75"/>
+    <row r="633" ht="12.75"/>
+    <row r="634" ht="12.75"/>
+    <row r="635" ht="12.75"/>
+    <row r="636" ht="12.75"/>
+    <row r="637" ht="12.75"/>
+    <row r="638" ht="12.75"/>
+    <row r="639" ht="12.75"/>
+    <row r="640" ht="12.75"/>
+    <row r="641" ht="12.75"/>
+    <row r="642" ht="12.75"/>
+    <row r="643" ht="12.75"/>
+    <row r="644" ht="12.75"/>
+    <row r="645" ht="12.75"/>
+    <row r="646" ht="12.75"/>
+    <row r="647" ht="12.75"/>
+    <row r="648" ht="12.75"/>
+    <row r="649" ht="12.75"/>
+    <row r="650" ht="12.75"/>
+    <row r="651" ht="12.75"/>
+    <row r="652" ht="12.75"/>
+    <row r="653" ht="12.75"/>
+    <row r="654" ht="12.75"/>
+    <row r="655" ht="12.75"/>
+    <row r="656" ht="12.75"/>
+    <row r="657" ht="12.75"/>
+    <row r="658" ht="12.75"/>
+    <row r="659" ht="12.75"/>
+    <row r="660" ht="12.75"/>
+    <row r="661" ht="12.75"/>
+    <row r="662" ht="12.75"/>
+    <row r="663" ht="12.75"/>
+    <row r="664" ht="12.75"/>
+    <row r="665" ht="12.75"/>
+    <row r="666" ht="12.75"/>
+    <row r="667" ht="12.75"/>
+    <row r="668" ht="12.75"/>
+    <row r="669" ht="12.75"/>
+    <row r="670" ht="12.75"/>
+    <row r="671" ht="12.75"/>
+    <row r="672" ht="12.75"/>
+    <row r="673" ht="12.75"/>
+    <row r="674" ht="12.75"/>
+    <row r="675" ht="12.75"/>
+    <row r="676" ht="12.75"/>
+    <row r="677" ht="12.75"/>
+    <row r="678" ht="12.75"/>
+    <row r="679" ht="12.75"/>
+    <row r="680" ht="12.75"/>
+    <row r="681" ht="12.75"/>
+    <row r="682" ht="12.75"/>
+    <row r="683" ht="12.75"/>
+    <row r="684" ht="12.75"/>
+    <row r="685" ht="12.75"/>
+    <row r="686" ht="12.75"/>
+    <row r="687" ht="12.75"/>
+    <row r="688" ht="12.75"/>
+    <row r="689" ht="12.75"/>
+    <row r="690" ht="12.75"/>
+    <row r="691" ht="12.75"/>
+    <row r="692" ht="12.75"/>
+    <row r="693" ht="12.75"/>
+    <row r="694" ht="12.75"/>
+    <row r="695" ht="12.75"/>
+    <row r="696" ht="12.75"/>
+    <row r="697" ht="12.75"/>
+    <row r="698" ht="12.75"/>
+    <row r="699" ht="12.75"/>
+    <row r="700" ht="12.75"/>
+    <row r="701" ht="12.75"/>
+    <row r="702" ht="12.75"/>
+    <row r="703" ht="12.75"/>
+    <row r="704" ht="12.75"/>
+    <row r="705" ht="12.75"/>
+    <row r="706" ht="12.75"/>
+    <row r="707" ht="12.75"/>
+    <row r="708" ht="12.75"/>
+    <row r="709" ht="12.75"/>
+    <row r="710" ht="12.75"/>
+    <row r="711" ht="12.75"/>
+    <row r="712" ht="12.75"/>
+    <row r="713" ht="12.75"/>
+    <row r="714" ht="12.75"/>
+    <row r="715" ht="12.75"/>
+    <row r="716" ht="12.75"/>
+    <row r="717" ht="12.75"/>
+    <row r="718" ht="12.75"/>
+    <row r="719" ht="12.75"/>
+    <row r="720" ht="12.75"/>
+    <row r="721" ht="12.75"/>
+    <row r="722" ht="12.75"/>
+    <row r="723" ht="12.75"/>
+    <row r="724" ht="12.75"/>
+    <row r="725" ht="12.75"/>
+    <row r="726" ht="12.75"/>
+    <row r="727" ht="12.75"/>
+    <row r="728" ht="12.75"/>
+    <row r="729" ht="12.75"/>
+    <row r="730" ht="12.75"/>
+    <row r="731" ht="12.75"/>
+    <row r="732" ht="12.75"/>
+    <row r="733" ht="12.75"/>
+    <row r="734" ht="12.75"/>
+    <row r="735" ht="12.75"/>
+    <row r="736" ht="12.75"/>
+    <row r="737" ht="12.75"/>
+    <row r="738" ht="12.75"/>
+    <row r="739" ht="12.75"/>
+    <row r="740" ht="12.75"/>
+    <row r="741" ht="12.75"/>
+    <row r="742" ht="12.75"/>
+    <row r="743" ht="12.75"/>
+    <row r="744" ht="12.75"/>
+    <row r="745" ht="12.75"/>
+    <row r="746" ht="12.75"/>
+    <row r="747" ht="12.75"/>
+    <row r="748" ht="12.75"/>
+    <row r="749" ht="12.75"/>
+    <row r="750" ht="12.75"/>
+    <row r="751" ht="12.75"/>
+    <row r="752" ht="12.75"/>
+    <row r="753" ht="12.75"/>
+    <row r="754" ht="12.75"/>
+    <row r="755" ht="12.75"/>
+    <row r="756" ht="12.75"/>
+    <row r="757" ht="12.75"/>
+    <row r="758" ht="12.75"/>
+    <row r="759" ht="12.75"/>
+    <row r="760" ht="12.75"/>
+    <row r="761" ht="12.75"/>
+    <row r="762" ht="12.75"/>
+    <row r="763" ht="12.75"/>
+    <row r="764" ht="12.75"/>
+    <row r="765" ht="12.75"/>
+    <row r="766" ht="12.75"/>
+    <row r="767" ht="12.75"/>
+    <row r="768" ht="12.75"/>
+    <row r="769" ht="12.75"/>
+    <row r="770" ht="12.75"/>
+    <row r="771" ht="12.75"/>
+    <row r="772" ht="12.75"/>
+    <row r="773" ht="12.75"/>
+    <row r="774" ht="12.75"/>
+    <row r="775" ht="12.75"/>
+    <row r="776" ht="12.75"/>
+    <row r="777" ht="12.75"/>
+    <row r="778" ht="12.75"/>
+    <row r="779" ht="12.75"/>
+    <row r="780" ht="12.75"/>
+    <row r="781" ht="12.75"/>
+    <row r="782" ht="12.75"/>
+    <row r="783" ht="12.75"/>
+    <row r="784" ht="12.75"/>
+    <row r="785" ht="12.75"/>
+    <row r="786" ht="12.75"/>
+    <row r="787" ht="12.75"/>
+    <row r="788" ht="12.75"/>
+    <row r="789" ht="12.75"/>
+    <row r="790" ht="12.75"/>
+    <row r="791" ht="12.75"/>
+    <row r="792" ht="12.75"/>
+    <row r="793" ht="12.75"/>
+    <row r="794" ht="12.75"/>
+    <row r="795" ht="12.75"/>
+    <row r="796" ht="12.75"/>
+    <row r="797" ht="12.75"/>
+    <row r="798" ht="12.75"/>
+    <row r="799" ht="12.75"/>
+    <row r="800" ht="12.75"/>
+    <row r="801" ht="12.75"/>
+    <row r="802" ht="12.75"/>
+    <row r="803" ht="12.75"/>
+    <row r="804" ht="12.75"/>
+    <row r="805" ht="12.75"/>
+    <row r="806" ht="12.75"/>
+    <row r="807" ht="12.75"/>
+    <row r="808" ht="12.75"/>
+    <row r="809" ht="12.75"/>
+    <row r="810" ht="12.75"/>
+    <row r="811" ht="12.75"/>
+    <row r="812" ht="12.75"/>
+    <row r="813" ht="12.75"/>
+    <row r="814" ht="12.75"/>
+    <row r="815" ht="12.75"/>
+    <row r="816" ht="12.75"/>
+    <row r="817" ht="12.75"/>
+    <row r="818" ht="12.75"/>
+    <row r="819" ht="12.75"/>
+    <row r="820" ht="12.75"/>
+    <row r="821" ht="12.75"/>
+    <row r="822" ht="12.75"/>
+    <row r="823" ht="12.75"/>
+    <row r="824" ht="12.75"/>
+    <row r="825" ht="12.75"/>
+    <row r="826" ht="12.75"/>
+    <row r="827" ht="12.75"/>
+    <row r="828" ht="12.75"/>
+    <row r="829" ht="12.75"/>
+    <row r="830" ht="12.75"/>
+    <row r="831" ht="12.75"/>
+    <row r="832" ht="12.75"/>
+    <row r="833" ht="12.75"/>
+    <row r="834" ht="12.75"/>
+    <row r="835" ht="12.75"/>
+    <row r="836" ht="12.75"/>
+    <row r="837" ht="12.75"/>
+    <row r="838" ht="12.75"/>
+    <row r="839" ht="12.75"/>
+    <row r="840" ht="12.75"/>
+    <row r="841" ht="12.75"/>
+    <row r="842" ht="12.75"/>
+    <row r="843" ht="12.75"/>
+    <row r="844" ht="12.75"/>
+    <row r="845" ht="12.75"/>
+    <row r="846" ht="12.75"/>
+    <row r="847" ht="12.75"/>
+    <row r="848" ht="12.75"/>
+    <row r="849" ht="12.75"/>
+    <row r="850" ht="12.75"/>
+    <row r="851" ht="12.75"/>
+    <row r="852" ht="12.75"/>
+    <row r="853" ht="12.75"/>
+    <row r="854" ht="12.75"/>
+    <row r="855" ht="12.75"/>
+    <row r="856" ht="12.75"/>
+    <row r="857" ht="12.75"/>
+    <row r="858" ht="12.75"/>
+    <row r="859" ht="12.75"/>
+    <row r="860" ht="12.75"/>
+    <row r="861" ht="12.75"/>
+    <row r="862" ht="12.75"/>
+    <row r="863" ht="12.75"/>
+    <row r="864" ht="12.75"/>
+    <row r="865" ht="12.75"/>
+    <row r="866" ht="12.75"/>
+    <row r="867" ht="12.75"/>
+    <row r="868" ht="12.75"/>
+    <row r="869" ht="12.75"/>
+    <row r="870" ht="12.75"/>
+    <row r="871" ht="12.75"/>
+    <row r="872" ht="12.75"/>
+    <row r="873" ht="12.75"/>
+    <row r="874" ht="12.75"/>
+    <row r="875" ht="12.75"/>
+    <row r="876" ht="12.75"/>
+    <row r="877" ht="12.75"/>
+    <row r="878" ht="12.75"/>
+    <row r="879" ht="12.75"/>
+    <row r="880" ht="12.75"/>
+    <row r="881" ht="12.75"/>
+    <row r="882" ht="12.75"/>
+    <row r="883" ht="12.75"/>
+    <row r="884" ht="12.75"/>
+    <row r="885" ht="12.75"/>
+    <row r="886" ht="12.75"/>
+    <row r="887" ht="12.75"/>
+    <row r="888" ht="12.75"/>
+    <row r="889" ht="12.75"/>
+    <row r="890" ht="12.75"/>
+    <row r="891" ht="12.75"/>
+    <row r="892" ht="12.75"/>
+    <row r="893" ht="12.75"/>
+    <row r="894" ht="12.75"/>
+    <row r="895" ht="12.75"/>
+    <row r="896" ht="12.75"/>
+    <row r="897" ht="12.75"/>
+    <row r="898" ht="12.75"/>
+    <row r="899" ht="12.75"/>
+    <row r="900" ht="12.75"/>
+    <row r="901" ht="12.75"/>
+    <row r="902" ht="12.75"/>
+    <row r="903" ht="12.75"/>
+    <row r="904" ht="12.75"/>
+    <row r="905" ht="12.75"/>
+    <row r="906" ht="12.75"/>
+    <row r="907" ht="12.75"/>
+    <row r="908" ht="12.75"/>
+    <row r="909" ht="12.75"/>
+    <row r="910" ht="12.75"/>
+    <row r="911" ht="12.75"/>
+    <row r="912" ht="12.75"/>
+    <row r="913" ht="12.75"/>
+    <row r="914" ht="12.75"/>
+    <row r="915" ht="12.75"/>
+    <row r="916" ht="12.75"/>
+    <row r="917" ht="12.75"/>
+    <row r="918" ht="12.75"/>
+    <row r="919" ht="12.75"/>
+    <row r="920" ht="12.75"/>
+    <row r="921" ht="12.75"/>
+    <row r="922" ht="12.75"/>
+    <row r="923" ht="12.75"/>
+    <row r="924" ht="12.75"/>
+    <row r="925" ht="12.75"/>
+    <row r="926" ht="12.75"/>
+    <row r="927" ht="12.75"/>
+    <row r="928" ht="12.75"/>
+    <row r="929" ht="12.75"/>
+    <row r="930" ht="12.75"/>
+    <row r="931" ht="12.75"/>
+    <row r="932" ht="12.75"/>
+    <row r="933" ht="12.75"/>
+    <row r="934" ht="12.75"/>
+    <row r="935" ht="12.75"/>
+    <row r="936" ht="12.75"/>
+    <row r="937" ht="12.75"/>
+    <row r="938" ht="12.75"/>
+    <row r="939" ht="12.75"/>
+    <row r="940" ht="12.75"/>
+    <row r="941" ht="12.75"/>
+    <row r="942" ht="12.75"/>
+    <row r="943" ht="12.75"/>
+    <row r="944" ht="12.75"/>
+    <row r="945" ht="12.75"/>
+    <row r="946" ht="12.75"/>
+    <row r="947" ht="12.75"/>
+    <row r="948" ht="12.75"/>
+    <row r="949" ht="12.75"/>
+    <row r="950" ht="12.75"/>
+    <row r="951" ht="12.75"/>
+    <row r="952" ht="12.75"/>
+    <row r="953" ht="12.75"/>
+    <row r="954" ht="12.75"/>
+    <row r="955" ht="12.75"/>
+    <row r="956" ht="12.75"/>
+    <row r="957" ht="12.75"/>
+    <row r="958" ht="12.75"/>
+    <row r="959" ht="12.75"/>
+    <row r="960" ht="12.75"/>
+    <row r="961" ht="12.75"/>
+    <row r="962" ht="12.75"/>
+    <row r="963" ht="12.75"/>
+    <row r="964" ht="12.75"/>
+    <row r="965" ht="12.75"/>
+    <row r="966" ht="12.75"/>
+    <row r="967" ht="12.75"/>
+    <row r="968" ht="12.75"/>
+    <row r="969" ht="12.75"/>
+    <row r="970" ht="12.75"/>
+    <row r="971" ht="12.75"/>
+    <row r="972" ht="12.75"/>
+    <row r="973" ht="12.75"/>
+    <row r="974" ht="12.75"/>
+    <row r="975" ht="12.75"/>
+    <row r="976" ht="12.75"/>
+    <row r="977" ht="12.75"/>
+    <row r="978" ht="12.75"/>
+    <row r="979" ht="12.75"/>
+    <row r="980" ht="12.75"/>
+    <row r="981" ht="12.75"/>
+    <row r="982" ht="12.75"/>
+    <row r="983" ht="12.75"/>
+    <row r="984" ht="12.75"/>
+    <row r="985" ht="12.75"/>
+    <row r="986" ht="12.75"/>
+    <row r="987" ht="12.75"/>
+    <row r="988" ht="12.75"/>
+    <row r="989" ht="12.75"/>
+    <row r="990" ht="12.75"/>
+    <row r="991" ht="12.75"/>
+    <row r="992" ht="12.75"/>
+    <row r="993" ht="12.75"/>
+    <row r="994" ht="12.75"/>
+    <row r="995" ht="12.75"/>
+    <row r="996" ht="12.75"/>
+    <row r="997" ht="12.75"/>
+    <row r="998" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -26566,26 +26568,26 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="48.26953125" customWidth="1"/>
-    <col min="2" max="2" width="48.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" customWidth="1"/>
-    <col min="5" max="5" width="5.36328125" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.08984375" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" customWidth="1"/>
-    <col min="12" max="12" width="13.08984375" customWidth="1"/>
-    <col min="13" max="13" width="17.54296875" customWidth="1"/>
-    <col min="14" max="14" width="18.08984375" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" customWidth="1"/>
-    <col min="16" max="16" width="12.7265625" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" customWidth="1"/>
-    <col min="18" max="18" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -26644,7 +26646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="14">
+    <row r="2" spans="1:18" ht="14.25">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -26710,7 +26712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14">
+    <row r="3" spans="1:18" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
@@ -26775,7 +26777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="14">
+    <row r="4" spans="1:18" ht="14.25">
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
@@ -26841,7 +26843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14">
+    <row r="5" spans="1:18" ht="14.25">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -26906,7 +26908,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="14">
+    <row r="6" spans="1:18" ht="14.25">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -26971,7 +26973,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14">
+    <row r="7" spans="1:18" ht="14.25">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
@@ -27036,7 +27038,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14">
+    <row r="8" spans="1:18" ht="14.25">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -27102,7 +27104,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14">
+    <row r="9" spans="1:18" ht="14.25">
       <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
@@ -27167,7 +27169,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="14">
+    <row r="10" spans="1:18" ht="14.25">
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
@@ -27232,7 +27234,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14">
+    <row r="11" spans="1:18" ht="14.25">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -27297,7 +27299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14">
+    <row r="12" spans="1:18" ht="14.25">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -27362,7 +27364,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="14">
+    <row r="13" spans="1:18" ht="14.25">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
@@ -27428,7 +27430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="14">
+    <row r="14" spans="1:18" ht="14.25">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -27494,7 +27496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14">
+    <row r="15" spans="1:18" ht="14.25">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -27560,7 +27562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="14">
+    <row r="16" spans="1:18" ht="14.25">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -27626,7 +27628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14">
+    <row r="17" spans="1:18" ht="14.25">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -27692,7 +27694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="14">
+    <row r="18" spans="1:18" ht="14.25">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -27758,7 +27760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="14">
+    <row r="19" spans="1:18" ht="14.25">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
@@ -27824,7 +27826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="14">
+    <row r="20" spans="1:18" ht="14.25">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -27892,7 +27894,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="14">
+    <row r="21" spans="1:18" ht="14.25">
       <c r="A21" s="1" t="s">
         <v>99</v>
       </c>
@@ -27958,7 +27960,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14">
+    <row r="22" spans="1:18" ht="14.25">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -28026,7 +28028,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="14">
+    <row r="23" spans="1:18" ht="14.25">
       <c r="A23" s="1" t="s">
         <v>106</v>
       </c>
@@ -28094,7 +28096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="14">
+    <row r="24" spans="1:18" ht="14.25">
       <c r="A24" s="1" t="s">
         <v>111</v>
       </c>
@@ -28162,7 +28164,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="14">
+    <row r="25" spans="1:18" ht="14.25">
       <c r="A25" s="1" t="s">
         <v>114</v>
       </c>
@@ -28230,7 +28232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="14">
+    <row r="26" spans="1:18" ht="14.25">
       <c r="A26" s="1" t="s">
         <v>118</v>
       </c>
@@ -28296,7 +28298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="14">
+    <row r="27" spans="1:18" ht="14.25">
       <c r="A27" s="1" t="s">
         <v>122</v>
       </c>
@@ -28362,7 +28364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="14">
+    <row r="28" spans="1:18" ht="14.25">
       <c r="A28" s="1" t="s">
         <v>125</v>
       </c>
@@ -28428,7 +28430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="14">
+    <row r="29" spans="1:18" ht="14.25">
       <c r="A29" s="1" t="s">
         <v>128</v>
       </c>
@@ -28494,7 +28496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="14">
+    <row r="30" spans="1:18" ht="14.25">
       <c r="A30" s="1" t="s">
         <v>130</v>
       </c>
@@ -28560,7 +28562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="14">
+    <row r="31" spans="1:18" ht="14.25">
       <c r="A31" s="1" t="s">
         <v>132</v>
       </c>
@@ -28626,7 +28628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="14">
+    <row r="32" spans="1:18" ht="14.25">
       <c r="A32" s="1" t="s">
         <v>134</v>
       </c>
@@ -28694,7 +28696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="14">
+    <row r="33" spans="1:18" ht="14.25">
       <c r="A33" s="1" t="s">
         <v>137</v>
       </c>
@@ -28760,7 +28762,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="14">
+    <row r="34" spans="1:18" ht="14.25">
       <c r="A34" s="1" t="s">
         <v>139</v>
       </c>
@@ -28828,7 +28830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="14">
+    <row r="35" spans="1:18" ht="14.25">
       <c r="A35" s="1" t="s">
         <v>142</v>
       </c>
@@ -28896,7 +28898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="14">
+    <row r="36" spans="1:18" ht="14.25">
       <c r="A36" s="1" t="s">
         <v>144</v>
       </c>
@@ -28964,7 +28966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="14">
+    <row r="37" spans="1:18" ht="14.25">
       <c r="A37" s="1" t="s">
         <v>146</v>
       </c>
@@ -29030,7 +29032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="14">
+    <row r="38" spans="1:18" ht="14.25">
       <c r="A38" s="1" t="s">
         <v>148</v>
       </c>
@@ -29096,7 +29098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="14">
+    <row r="39" spans="1:18" ht="14.25">
       <c r="A39" s="1" t="s">
         <v>150</v>
       </c>
@@ -29162,7 +29164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="14">
+    <row r="40" spans="1:18" ht="14.25">
       <c r="A40" s="1" t="s">
         <v>152</v>
       </c>
@@ -29228,7 +29230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14">
+    <row r="41" spans="1:18" ht="14.25">
       <c r="A41" s="1" t="s">
         <v>154</v>
       </c>
@@ -29294,7 +29296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="14">
+    <row r="42" spans="1:18" ht="14.25">
       <c r="A42" s="1" t="s">
         <v>156</v>
       </c>
@@ -29359,7 +29361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="14">
+    <row r="43" spans="1:18" ht="14.25">
       <c r="A43" s="1" t="s">
         <v>158</v>
       </c>
@@ -29424,7 +29426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="14">
+    <row r="44" spans="1:18" ht="14.25">
       <c r="A44" s="1" t="s">
         <v>161</v>
       </c>
@@ -29489,7 +29491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="14">
+    <row r="45" spans="1:18" ht="14.25">
       <c r="A45" s="1" t="s">
         <v>163</v>
       </c>
@@ -29554,7 +29556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="14">
+    <row r="46" spans="1:18" ht="14.25">
       <c r="A46" s="1" t="s">
         <v>165</v>
       </c>
@@ -29619,7 +29621,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14">
+    <row r="47" spans="1:18" ht="14.25">
       <c r="A47" s="1" t="s">
         <v>167</v>
       </c>
@@ -29684,7 +29686,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="14">
+    <row r="48" spans="1:18" ht="14.25">
       <c r="A48" s="1" t="s">
         <v>169</v>
       </c>
@@ -29749,7 +29751,7 @@
         <v>-32</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="14">
+    <row r="49" spans="1:18" ht="14.25">
       <c r="A49" s="1" t="s">
         <v>171</v>
       </c>
@@ -29814,7 +29816,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="14">
+    <row r="50" spans="1:18" ht="14.25">
       <c r="A50" s="1" t="s">
         <v>173</v>
       </c>
@@ -29879,7 +29881,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="14">
+    <row r="51" spans="1:18" ht="14.25">
       <c r="A51" s="1" t="s">
         <v>175</v>
       </c>
@@ -29945,7 +29947,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="14">
+    <row r="52" spans="1:18" ht="14.25">
       <c r="A52" s="1" t="s">
         <v>177</v>
       </c>
@@ -30011,7 +30013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="14">
+    <row r="53" spans="1:18" ht="14.25">
       <c r="A53" s="1" t="s">
         <v>179</v>
       </c>
@@ -30077,7 +30079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="14">
+    <row r="54" spans="1:18" ht="14.25">
       <c r="A54" s="1" t="s">
         <v>181</v>
       </c>
@@ -30143,7 +30145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="14">
+    <row r="55" spans="1:18" ht="14.25">
       <c r="A55" s="1" t="s">
         <v>183</v>
       </c>
@@ -30209,7 +30211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="14">
+    <row r="56" spans="1:18" ht="14.25">
       <c r="A56" s="1" t="s">
         <v>191</v>
       </c>
@@ -30275,7 +30277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="14">
+    <row r="57" spans="1:18" ht="14.25">
       <c r="A57" s="1" t="s">
         <v>194</v>
       </c>
@@ -30341,7 +30343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="14">
+    <row r="58" spans="1:18" ht="14.25">
       <c r="A58" s="1" t="s">
         <v>196</v>
       </c>
@@ -30407,7 +30409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="14">
+    <row r="59" spans="1:18" ht="14.25">
       <c r="A59" s="1" t="s">
         <v>199</v>
       </c>
@@ -30473,7 +30475,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="14">
+    <row r="60" spans="1:18" ht="14.25">
       <c r="A60" s="1" t="s">
         <v>201</v>
       </c>
@@ -30539,7 +30541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="14">
+    <row r="61" spans="1:18" ht="14.25">
       <c r="A61" s="1" t="s">
         <v>203</v>
       </c>
@@ -30607,7 +30609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="14">
+    <row r="62" spans="1:18" ht="14.25">
       <c r="A62" s="1" t="s">
         <v>206</v>
       </c>
@@ -30672,7 +30674,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="14">
+    <row r="63" spans="1:18" ht="14.25">
       <c r="A63" s="1" t="s">
         <v>208</v>
       </c>
@@ -30740,7 +30742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="14">
+    <row r="64" spans="1:18" ht="14.25">
       <c r="A64" s="1" t="s">
         <v>211</v>
       </c>
@@ -30808,7 +30810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="14">
+    <row r="65" spans="1:18" ht="14.25">
       <c r="A65" s="1" t="s">
         <v>213</v>
       </c>
@@ -30876,7 +30878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="14">
+    <row r="66" spans="1:18" ht="14.25">
       <c r="A66" s="1" t="s">
         <v>215</v>
       </c>
@@ -30941,7 +30943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="14">
+    <row r="67" spans="1:18" ht="14.25">
       <c r="A67" s="1" t="s">
         <v>217</v>
       </c>
@@ -31007,7 +31009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="14">
+    <row r="68" spans="1:18" ht="14.25">
       <c r="A68" s="1" t="s">
         <v>219</v>
       </c>
@@ -31072,7 +31074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="14">
+    <row r="69" spans="1:18" ht="14.25">
       <c r="A69" s="1" t="s">
         <v>221</v>
       </c>
@@ -31137,7 +31139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="14">
+    <row r="70" spans="1:18" ht="14.25">
       <c r="A70" s="1" t="s">
         <v>223</v>
       </c>
@@ -31202,7 +31204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="14">
+    <row r="71" spans="1:18" ht="14.25">
       <c r="A71" s="1" t="s">
         <v>225</v>
       </c>
@@ -31267,7 +31269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="14">
+    <row r="72" spans="1:18" ht="14.25">
       <c r="A72" s="1" t="s">
         <v>227</v>
       </c>
@@ -31335,7 +31337,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="14">
+    <row r="73" spans="1:18" ht="14.25">
       <c r="A73" s="1" t="s">
         <v>230</v>
       </c>
@@ -31400,7 +31402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="14">
+    <row r="74" spans="1:18" ht="14.25">
       <c r="A74" s="1" t="s">
         <v>232</v>
       </c>
@@ -31468,7 +31470,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="14">
+    <row r="75" spans="1:18" ht="14.25">
       <c r="A75" s="1" t="s">
         <v>235</v>
       </c>
@@ -31533,7 +31535,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="14">
+    <row r="76" spans="1:18" ht="14.25">
       <c r="A76" s="1" t="s">
         <v>237</v>
       </c>
@@ -31598,7 +31600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="14">
+    <row r="77" spans="1:18" ht="14.25">
       <c r="A77" s="1" t="s">
         <v>240</v>
       </c>
@@ -31663,7 +31665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="14">
+    <row r="78" spans="1:18" ht="14.25">
       <c r="A78" s="1" t="s">
         <v>242</v>
       </c>
@@ -31728,7 +31730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="14">
+    <row r="79" spans="1:18" ht="14.25">
       <c r="A79" s="1" t="s">
         <v>244</v>
       </c>
@@ -31793,7 +31795,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="14">
+    <row r="80" spans="1:18" ht="14.25">
       <c r="A80" s="1" t="s">
         <v>246</v>
       </c>
@@ -31859,7 +31861,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="14">
+    <row r="81" spans="1:18" ht="14.25">
       <c r="A81" s="1" t="s">
         <v>248</v>
       </c>
@@ -31925,7 +31927,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="14">
+    <row r="82" spans="1:18" ht="14.25">
       <c r="A82" s="1" t="s">
         <v>250</v>
       </c>
@@ -31990,7 +31992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="14">
+    <row r="83" spans="1:18" ht="14.25">
       <c r="A83" s="1" t="s">
         <v>252</v>
       </c>
@@ -32055,7 +32057,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="14">
+    <row r="84" spans="1:18" ht="14.25">
       <c r="A84" s="1" t="s">
         <v>254</v>
       </c>
@@ -32120,7 +32122,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="14">
+    <row r="85" spans="1:18" ht="14.25">
       <c r="A85" s="1" t="s">
         <v>256</v>
       </c>
@@ -32185,7 +32187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="14">
+    <row r="86" spans="1:18" ht="14.25">
       <c r="A86" s="1" t="s">
         <v>258</v>
       </c>
@@ -32250,7 +32252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="14">
+    <row r="87" spans="1:18" ht="14.25">
       <c r="A87" s="1" t="s">
         <v>260</v>
       </c>
@@ -32315,7 +32317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="14">
+    <row r="88" spans="1:18" ht="14.25">
       <c r="A88" s="1" t="s">
         <v>262</v>
       </c>
@@ -32380,7 +32382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="14">
+    <row r="89" spans="1:18" ht="14.25">
       <c r="A89" s="1" t="s">
         <v>264</v>
       </c>
@@ -32445,7 +32447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="14">
+    <row r="90" spans="1:18" ht="14.25">
       <c r="A90" s="1" t="s">
         <v>266</v>
       </c>
@@ -32510,7 +32512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="14">
+    <row r="91" spans="1:18" ht="14.25">
       <c r="A91" s="1" t="s">
         <v>268</v>
       </c>
@@ -32576,7 +32578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="14">
+    <row r="92" spans="1:18" ht="14.25">
       <c r="A92" s="1" t="s">
         <v>271</v>
       </c>
@@ -32641,7 +32643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="14">
+    <row r="93" spans="1:18" ht="14.25">
       <c r="A93" s="1" t="s">
         <v>273</v>
       </c>
@@ -32706,7 +32708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="14">
+    <row r="94" spans="1:18" ht="14.25">
       <c r="A94" s="1" t="s">
         <v>275</v>
       </c>
@@ -32774,7 +32776,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="14">
+    <row r="95" spans="1:18" ht="14.25">
       <c r="A95" s="1" t="s">
         <v>278</v>
       </c>
@@ -32839,7 +32841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="14">
+    <row r="96" spans="1:18" ht="14.25">
       <c r="A96" s="1" t="s">
         <v>280</v>
       </c>
@@ -32904,7 +32906,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="14">
+    <row r="97" spans="1:18" ht="14.25">
       <c r="A97" s="1" t="s">
         <v>282</v>
       </c>
@@ -32972,7 +32974,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="14">
+    <row r="98" spans="1:18" ht="14.25">
       <c r="A98" s="1" t="s">
         <v>285</v>
       </c>
@@ -33037,7 +33039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="14">
+    <row r="99" spans="1:18" ht="14.25">
       <c r="A99" s="1" t="s">
         <v>287</v>
       </c>
@@ -33105,7 +33107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="14">
+    <row r="100" spans="1:18" ht="14.25">
       <c r="A100" s="1" t="s">
         <v>290</v>
       </c>
@@ -33170,7 +33172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="14">
+    <row r="101" spans="1:18" ht="14.25">
       <c r="A101" s="1" t="s">
         <v>292</v>
       </c>
@@ -33235,7 +33237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="14">
+    <row r="102" spans="1:18" ht="14.25">
       <c r="A102" s="1" t="s">
         <v>294</v>
       </c>
@@ -33300,7 +33302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="14">
+    <row r="103" spans="1:18" ht="14.25">
       <c r="A103" s="1" t="s">
         <v>297</v>
       </c>
@@ -33366,7 +33368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="14">
+    <row r="104" spans="1:18" ht="14.25">
       <c r="A104" s="1" t="s">
         <v>299</v>
       </c>
@@ -33431,7 +33433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="14">
+    <row r="105" spans="1:18" ht="14.25">
       <c r="A105" s="1" t="s">
         <v>301</v>
       </c>
@@ -33496,7 +33498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="14">
+    <row r="106" spans="1:18" ht="14.25">
       <c r="A106" s="1" t="s">
         <v>304</v>
       </c>
@@ -33562,7 +33564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="14">
+    <row r="107" spans="1:18" ht="14.25">
       <c r="A107" s="1" t="s">
         <v>306</v>
       </c>
@@ -33628,7 +33630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="14">
+    <row r="108" spans="1:18" ht="14.25">
       <c r="A108" s="1" t="s">
         <v>308</v>
       </c>
@@ -33693,7 +33695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="14">
+    <row r="109" spans="1:18" ht="14.25">
       <c r="A109" s="1" t="s">
         <v>311</v>
       </c>
@@ -33758,7 +33760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="14">
+    <row r="110" spans="1:18" ht="14.25">
       <c r="A110" s="1" t="s">
         <v>313</v>
       </c>
@@ -33823,7 +33825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="14">
+    <row r="111" spans="1:18" ht="14.25">
       <c r="A111" s="1" t="s">
         <v>315</v>
       </c>
@@ -33888,7 +33890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="14">
+    <row r="112" spans="1:18" ht="14.25">
       <c r="A112" s="1" t="s">
         <v>318</v>
       </c>
@@ -33953,7 +33955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="14">
+    <row r="113" spans="1:18" ht="14.25">
       <c r="A113" s="1" t="s">
         <v>320</v>
       </c>
@@ -34019,7 +34021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="14">
+    <row r="114" spans="1:18" ht="14.25">
       <c r="A114" s="1" t="s">
         <v>322</v>
       </c>
@@ -34087,7 +34089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="14">
+    <row r="115" spans="1:18" ht="14.25">
       <c r="A115" s="1" t="s">
         <v>325</v>
       </c>
@@ -34155,7 +34157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="14">
+    <row r="116" spans="1:18" ht="14.25">
       <c r="A116" s="1" t="s">
         <v>327</v>
       </c>
@@ -34223,7 +34225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="14">
+    <row r="117" spans="1:18" ht="14.25">
       <c r="A117" s="1" t="s">
         <v>329</v>
       </c>
@@ -34291,7 +34293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="14">
+    <row r="118" spans="1:18" ht="14.25">
       <c r="A118" s="1" t="s">
         <v>332</v>
       </c>
@@ -34359,7 +34361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="14">
+    <row r="119" spans="1:18" ht="14.25">
       <c r="A119" s="1" t="s">
         <v>334</v>
       </c>
@@ -34427,7 +34429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="14">
+    <row r="120" spans="1:18" ht="14.25">
       <c r="A120" s="1" t="s">
         <v>336</v>
       </c>
@@ -34495,7 +34497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="14">
+    <row r="121" spans="1:18" ht="14.25">
       <c r="A121" s="1" t="s">
         <v>339</v>
       </c>
@@ -34563,7 +34565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="14">
+    <row r="122" spans="1:18" ht="14.25">
       <c r="A122" s="1" t="s">
         <v>341</v>
       </c>
@@ -34631,7 +34633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="14">
+    <row r="123" spans="1:18" ht="14.25">
       <c r="A123" s="1" t="s">
         <v>343</v>
       </c>
@@ -34699,7 +34701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="14">
+    <row r="124" spans="1:18" ht="14.25">
       <c r="A124" s="1" t="s">
         <v>346</v>
       </c>
@@ -34767,7 +34769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="14">
+    <row r="125" spans="1:18" ht="14.25">
       <c r="A125" s="1" t="s">
         <v>348</v>
       </c>
@@ -34835,7 +34837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="14">
+    <row r="126" spans="1:18" ht="14.25">
       <c r="A126" s="1" t="s">
         <v>350</v>
       </c>
@@ -34900,7 +34902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="14">
+    <row r="127" spans="1:18" ht="14.25">
       <c r="A127" s="1" t="s">
         <v>353</v>
       </c>
@@ -34965,7 +34967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="14">
+    <row r="128" spans="1:18" ht="14.25">
       <c r="A128" s="1" t="s">
         <v>355</v>
       </c>
@@ -35031,7 +35033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="14">
+    <row r="129" spans="1:18" ht="14.25">
       <c r="A129" s="1" t="s">
         <v>358</v>
       </c>
@@ -35097,7 +35099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="14">
+    <row r="130" spans="1:18" ht="14.25">
       <c r="A130" s="1" t="s">
         <v>44</v>
       </c>
@@ -35163,7 +35165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="14">
+    <row r="131" spans="1:18" ht="14.25">
       <c r="A131" s="1" t="s">
         <v>50</v>
       </c>
@@ -35229,7 +35231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="14">
+    <row r="132" spans="1:18" ht="14.25">
       <c r="A132" s="1" t="s">
         <v>361</v>
       </c>
@@ -35297,7 +35299,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="14">
+    <row r="133" spans="1:18" ht="14.25">
       <c r="A133" s="1" t="s">
         <v>364</v>
       </c>
@@ -35365,7 +35367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="14">
+    <row r="134" spans="1:18" ht="14.25">
       <c r="A134" s="1" t="s">
         <v>367</v>
       </c>
@@ -35433,7 +35435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="14">
+    <row r="135" spans="1:18" ht="14.25">
       <c r="A135" s="1" t="s">
         <v>369</v>
       </c>
@@ -35501,7 +35503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="14">
+    <row r="136" spans="1:18" ht="14.25">
       <c r="A136" s="1" t="s">
         <v>371</v>
       </c>
@@ -35569,7 +35571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="14">
+    <row r="137" spans="1:18" ht="14.25">
       <c r="A137" s="1" t="s">
         <v>374</v>
       </c>
@@ -35637,7 +35639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="14">
+    <row r="138" spans="1:18" ht="14.25">
       <c r="A138" s="1" t="s">
         <v>376</v>
       </c>
@@ -35705,7 +35707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="14">
+    <row r="139" spans="1:18" ht="14.25">
       <c r="A139" s="1" t="s">
         <v>378</v>
       </c>
@@ -35773,7 +35775,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="14">
+    <row r="140" spans="1:18" ht="14.25">
       <c r="A140" s="1" t="s">
         <v>381</v>
       </c>
@@ -35841,7 +35843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="14">
+    <row r="141" spans="1:18" ht="14.25">
       <c r="A141" s="1" t="s">
         <v>384</v>
       </c>
@@ -35909,7 +35911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="14">
+    <row r="142" spans="1:18" ht="14.25">
       <c r="A142" s="1" t="s">
         <v>386</v>
       </c>
@@ -35977,7 +35979,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="14">
+    <row r="143" spans="1:18" ht="14.25">
       <c r="A143" s="1" t="s">
         <v>389</v>
       </c>
@@ -36045,7 +36047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="14">
+    <row r="144" spans="1:18" ht="14.25">
       <c r="A144" s="1" t="s">
         <v>392</v>
       </c>
@@ -36111,7 +36113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="14">
+    <row r="145" spans="1:18" ht="14.25">
       <c r="A145" s="1" t="s">
         <v>394</v>
       </c>
@@ -36176,7 +36178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="14">
+    <row r="146" spans="1:18" ht="14.25">
       <c r="A146" s="1" t="s">
         <v>396</v>
       </c>
@@ -36244,7 +36246,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="14">
+    <row r="147" spans="1:18" ht="14.25">
       <c r="A147" s="1" t="s">
         <v>398</v>
       </c>
@@ -36312,7 +36314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="14">
+    <row r="148" spans="1:18" ht="14.25">
       <c r="A148" s="1" t="s">
         <v>400</v>
       </c>
@@ -36380,7 +36382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="14">
+    <row r="149" spans="1:18" ht="14.25">
       <c r="A149" s="1" t="s">
         <v>402</v>
       </c>
@@ -36448,7 +36450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="14">
+    <row r="150" spans="1:18" ht="14.25">
       <c r="A150" s="1" t="s">
         <v>404</v>
       </c>
@@ -36516,7 +36518,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="14">
+    <row r="151" spans="1:18" ht="14.25">
       <c r="A151" s="1" t="s">
         <v>406</v>
       </c>
@@ -36584,7 +36586,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="14">
+    <row r="152" spans="1:18" ht="14.25">
       <c r="A152" s="1" t="s">
         <v>408</v>
       </c>
@@ -36652,7 +36654,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="14">
+    <row r="153" spans="1:18" ht="14.25">
       <c r="A153" s="1" t="s">
         <v>410</v>
       </c>
@@ -36720,7 +36722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="14">
+    <row r="154" spans="1:18" ht="14.25">
       <c r="A154" s="1" t="s">
         <v>412</v>
       </c>
@@ -36788,7 +36790,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="14">
+    <row r="155" spans="1:18" ht="14.25">
       <c r="A155" s="1" t="s">
         <v>414</v>
       </c>
@@ -36856,7 +36858,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="14">
+    <row r="156" spans="1:18" ht="14.25">
       <c r="A156" s="1" t="s">
         <v>416</v>
       </c>
@@ -36924,7 +36926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="14">
+    <row r="157" spans="1:18" ht="14.25">
       <c r="A157" s="1" t="s">
         <v>418</v>
       </c>
@@ -36992,7 +36994,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="14">
+    <row r="158" spans="1:18" ht="14.25">
       <c r="A158" s="1" t="s">
         <v>420</v>
       </c>
@@ -37060,7 +37062,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="14">
+    <row r="159" spans="1:18" ht="14.25">
       <c r="A159" s="1" t="s">
         <v>422</v>
       </c>
@@ -37128,7 +37130,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="14">
+    <row r="160" spans="1:18" ht="14.25">
       <c r="A160" s="1" t="s">
         <v>424</v>
       </c>
@@ -37196,7 +37198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="14">
+    <row r="161" spans="1:18" ht="14.25">
       <c r="A161" s="1" t="s">
         <v>426</v>
       </c>
@@ -37262,7 +37264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="14">
+    <row r="162" spans="1:18" ht="14.25">
       <c r="A162" s="1" t="s">
         <v>428</v>
       </c>
@@ -37330,7 +37332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="14">
+    <row r="163" spans="1:18" ht="14.25">
       <c r="A163" s="1" t="s">
         <v>430</v>
       </c>
@@ -37398,7 +37400,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="14">
+    <row r="164" spans="1:18" ht="14.25">
       <c r="A164" s="1" t="s">
         <v>432</v>
       </c>
@@ -37466,7 +37468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="14">
+    <row r="165" spans="1:18" ht="14.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -37478,7 +37480,7 @@
       <c r="L165" s="4"/>
       <c r="M165" s="4"/>
     </row>
-    <row r="166" spans="1:18" ht="14">
+    <row r="166" spans="1:18" ht="14.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -37490,7 +37492,7 @@
       <c r="L166" s="4"/>
       <c r="M166" s="4"/>
     </row>
-    <row r="167" spans="1:18" ht="14">
+    <row r="167" spans="1:18" ht="14.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -37502,7 +37504,7 @@
       <c r="L167" s="4"/>
       <c r="M167" s="4"/>
     </row>
-    <row r="168" spans="1:18" ht="14">
+    <row r="168" spans="1:18" ht="14.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -37514,7 +37516,7 @@
       <c r="L168" s="4"/>
       <c r="M168" s="4"/>
     </row>
-    <row r="169" spans="1:18" ht="14">
+    <row r="169" spans="1:18" ht="14.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -37526,7 +37528,7 @@
       <c r="L169" s="4"/>
       <c r="M169" s="4"/>
     </row>
-    <row r="170" spans="1:18" ht="14">
+    <row r="170" spans="1:18" ht="14.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -37538,7 +37540,7 @@
       <c r="L170" s="4"/>
       <c r="M170" s="4"/>
     </row>
-    <row r="171" spans="1:18" ht="14">
+    <row r="171" spans="1:18" ht="14.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -37550,7 +37552,7 @@
       <c r="L171" s="4"/>
       <c r="M171" s="4"/>
     </row>
-    <row r="172" spans="1:18" ht="14">
+    <row r="172" spans="1:18" ht="14.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -37562,7 +37564,7 @@
       <c r="L172" s="4"/>
       <c r="M172" s="4"/>
     </row>
-    <row r="173" spans="1:18" ht="14">
+    <row r="173" spans="1:18" ht="14.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -37574,7 +37576,7 @@
       <c r="L173" s="4"/>
       <c r="M173" s="4"/>
     </row>
-    <row r="174" spans="1:18" ht="14">
+    <row r="174" spans="1:18" ht="14.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -37586,7 +37588,7 @@
       <c r="L174" s="4"/>
       <c r="M174" s="4"/>
     </row>
-    <row r="175" spans="1:18" ht="14">
+    <row r="175" spans="1:18" ht="14.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -37598,7 +37600,7 @@
       <c r="L175" s="4"/>
       <c r="M175" s="4"/>
     </row>
-    <row r="176" spans="1:18" ht="14">
+    <row r="176" spans="1:18" ht="14.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -37610,7 +37612,7 @@
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
     </row>
-    <row r="177" spans="1:13" ht="14">
+    <row r="177" spans="1:13" ht="14.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -37622,7 +37624,7 @@
       <c r="L177" s="4"/>
       <c r="M177" s="4"/>
     </row>
-    <row r="178" spans="1:13" ht="14">
+    <row r="178" spans="1:13" ht="14.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -37634,7 +37636,7 @@
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
     </row>
-    <row r="179" spans="1:13" ht="14">
+    <row r="179" spans="1:13" ht="14.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -37646,7 +37648,7 @@
       <c r="L179" s="4"/>
       <c r="M179" s="4"/>
     </row>
-    <row r="180" spans="1:13" ht="14">
+    <row r="180" spans="1:13" ht="14.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -37658,7 +37660,7 @@
       <c r="L180" s="4"/>
       <c r="M180" s="4"/>
     </row>
-    <row r="181" spans="1:13" ht="14">
+    <row r="181" spans="1:13" ht="14.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -37670,7 +37672,7 @@
       <c r="L181" s="4"/>
       <c r="M181" s="4"/>
     </row>
-    <row r="182" spans="1:13" ht="14">
+    <row r="182" spans="1:13" ht="14.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -37682,7 +37684,7 @@
       <c r="L182" s="4"/>
       <c r="M182" s="4"/>
     </row>
-    <row r="183" spans="1:13" ht="14">
+    <row r="183" spans="1:13" ht="14.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -37694,7 +37696,7 @@
       <c r="L183" s="4"/>
       <c r="M183" s="4"/>
     </row>
-    <row r="184" spans="1:13" ht="14">
+    <row r="184" spans="1:13" ht="14.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -37706,7 +37708,7 @@
       <c r="L184" s="4"/>
       <c r="M184" s="4"/>
     </row>
-    <row r="185" spans="1:13" ht="14">
+    <row r="185" spans="1:13" ht="14.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -37718,7 +37720,7 @@
       <c r="L185" s="4"/>
       <c r="M185" s="4"/>
     </row>
-    <row r="186" spans="1:13" ht="14">
+    <row r="186" spans="1:13" ht="14.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -37730,7 +37732,7 @@
       <c r="L186" s="4"/>
       <c r="M186" s="4"/>
     </row>
-    <row r="187" spans="1:13" ht="14">
+    <row r="187" spans="1:13" ht="14.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -37742,7 +37744,7 @@
       <c r="L187" s="4"/>
       <c r="M187" s="4"/>
     </row>
-    <row r="188" spans="1:13" ht="14">
+    <row r="188" spans="1:13" ht="14.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -37754,7 +37756,7 @@
       <c r="L188" s="4"/>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="1:13" ht="14">
+    <row r="189" spans="1:13" ht="14.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -37766,7 +37768,7 @@
       <c r="L189" s="4"/>
       <c r="M189" s="4"/>
     </row>
-    <row r="190" spans="1:13" ht="14">
+    <row r="190" spans="1:13" ht="14.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -37778,7 +37780,7 @@
       <c r="L190" s="4"/>
       <c r="M190" s="4"/>
     </row>
-    <row r="191" spans="1:13" ht="14">
+    <row r="191" spans="1:13" ht="14.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -37790,7 +37792,7 @@
       <c r="L191" s="4"/>
       <c r="M191" s="4"/>
     </row>
-    <row r="192" spans="1:13" ht="14">
+    <row r="192" spans="1:13" ht="14.25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -37802,7 +37804,7 @@
       <c r="L192" s="4"/>
       <c r="M192" s="4"/>
     </row>
-    <row r="193" spans="1:13" ht="14">
+    <row r="193" spans="1:13" ht="14.25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -37814,7 +37816,7 @@
       <c r="L193" s="4"/>
       <c r="M193" s="4"/>
     </row>
-    <row r="194" spans="1:13" ht="14">
+    <row r="194" spans="1:13" ht="14.25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -37826,7 +37828,7 @@
       <c r="L194" s="4"/>
       <c r="M194" s="4"/>
     </row>
-    <row r="195" spans="1:13" ht="14">
+    <row r="195" spans="1:13" ht="14.25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -37838,7 +37840,7 @@
       <c r="L195" s="4"/>
       <c r="M195" s="4"/>
     </row>
-    <row r="196" spans="1:13" ht="14">
+    <row r="196" spans="1:13" ht="14.25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -37850,7 +37852,7 @@
       <c r="L196" s="4"/>
       <c r="M196" s="4"/>
     </row>
-    <row r="197" spans="1:13" ht="14">
+    <row r="197" spans="1:13" ht="14.25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -37862,7 +37864,7 @@
       <c r="L197" s="4"/>
       <c r="M197" s="4"/>
     </row>
-    <row r="198" spans="1:13" ht="14">
+    <row r="198" spans="1:13" ht="14.25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -37874,7 +37876,7 @@
       <c r="L198" s="4"/>
       <c r="M198" s="4"/>
     </row>
-    <row r="199" spans="1:13" ht="14">
+    <row r="199" spans="1:13" ht="14.25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -37886,7 +37888,7 @@
       <c r="L199" s="4"/>
       <c r="M199" s="4"/>
     </row>
-    <row r="200" spans="1:13" ht="14">
+    <row r="200" spans="1:13" ht="14.25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -37898,7 +37900,7 @@
       <c r="L200" s="4"/>
       <c r="M200" s="4"/>
     </row>
-    <row r="201" spans="1:13" ht="14">
+    <row r="201" spans="1:13" ht="14.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -37910,7 +37912,7 @@
       <c r="L201" s="4"/>
       <c r="M201" s="4"/>
     </row>
-    <row r="202" spans="1:13" ht="14">
+    <row r="202" spans="1:13" ht="14.25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -37922,7 +37924,7 @@
       <c r="L202" s="4"/>
       <c r="M202" s="4"/>
     </row>
-    <row r="203" spans="1:13" ht="14">
+    <row r="203" spans="1:13" ht="14.25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -37934,7 +37936,7 @@
       <c r="L203" s="4"/>
       <c r="M203" s="4"/>
     </row>
-    <row r="204" spans="1:13" ht="14">
+    <row r="204" spans="1:13" ht="14.25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -37946,7 +37948,7 @@
       <c r="L204" s="4"/>
       <c r="M204" s="4"/>
     </row>
-    <row r="205" spans="1:13" ht="14">
+    <row r="205" spans="1:13" ht="14.25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -37958,7 +37960,7 @@
       <c r="L205" s="4"/>
       <c r="M205" s="4"/>
     </row>
-    <row r="206" spans="1:13" ht="14">
+    <row r="206" spans="1:13" ht="14.25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -37970,7 +37972,7 @@
       <c r="L206" s="4"/>
       <c r="M206" s="4"/>
     </row>
-    <row r="207" spans="1:13" ht="14">
+    <row r="207" spans="1:13" ht="14.25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -37982,7 +37984,7 @@
       <c r="L207" s="4"/>
       <c r="M207" s="4"/>
     </row>
-    <row r="208" spans="1:13" ht="14">
+    <row r="208" spans="1:13" ht="14.25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -37994,7 +37996,7 @@
       <c r="L208" s="4"/>
       <c r="M208" s="4"/>
     </row>
-    <row r="209" spans="1:13" ht="14">
+    <row r="209" spans="1:13" ht="14.25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -38006,7 +38008,7 @@
       <c r="L209" s="4"/>
       <c r="M209" s="4"/>
     </row>
-    <row r="210" spans="1:13" ht="14">
+    <row r="210" spans="1:13" ht="14.25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -38018,7 +38020,7 @@
       <c r="L210" s="4"/>
       <c r="M210" s="4"/>
     </row>
-    <row r="211" spans="1:13" ht="14">
+    <row r="211" spans="1:13" ht="14.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -38030,7 +38032,7 @@
       <c r="L211" s="4"/>
       <c r="M211" s="4"/>
     </row>
-    <row r="212" spans="1:13" ht="14">
+    <row r="212" spans="1:13" ht="14.25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -38042,7 +38044,7 @@
       <c r="L212" s="4"/>
       <c r="M212" s="4"/>
     </row>
-    <row r="213" spans="1:13" ht="14">
+    <row r="213" spans="1:13" ht="14.25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -38054,7 +38056,7 @@
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:13" ht="14">
+    <row r="214" spans="1:13" ht="14.25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -38066,7 +38068,7 @@
       <c r="L214" s="4"/>
       <c r="M214" s="4"/>
     </row>
-    <row r="215" spans="1:13" ht="14">
+    <row r="215" spans="1:13" ht="14.25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -38078,7 +38080,7 @@
       <c r="L215" s="4"/>
       <c r="M215" s="4"/>
     </row>
-    <row r="216" spans="1:13" ht="14">
+    <row r="216" spans="1:13" ht="14.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -38090,7 +38092,7 @@
       <c r="L216" s="4"/>
       <c r="M216" s="4"/>
     </row>
-    <row r="217" spans="1:13" ht="14">
+    <row r="217" spans="1:13" ht="14.25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -38102,7 +38104,7 @@
       <c r="L217" s="4"/>
       <c r="M217" s="4"/>
     </row>
-    <row r="218" spans="1:13" ht="14">
+    <row r="218" spans="1:13" ht="14.25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -38114,7 +38116,7 @@
       <c r="L218" s="4"/>
       <c r="M218" s="4"/>
     </row>
-    <row r="219" spans="1:13" ht="14">
+    <row r="219" spans="1:13" ht="14.25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -38126,7 +38128,7 @@
       <c r="L219" s="4"/>
       <c r="M219" s="4"/>
     </row>
-    <row r="220" spans="1:13" ht="14">
+    <row r="220" spans="1:13" ht="14.25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -38138,7 +38140,7 @@
       <c r="L220" s="4"/>
       <c r="M220" s="4"/>
     </row>
-    <row r="221" spans="1:13" ht="14">
+    <row r="221" spans="1:13" ht="14.25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -38150,7 +38152,7 @@
       <c r="L221" s="4"/>
       <c r="M221" s="4"/>
     </row>
-    <row r="222" spans="1:13" ht="14">
+    <row r="222" spans="1:13" ht="14.25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -38162,7 +38164,7 @@
       <c r="L222" s="4"/>
       <c r="M222" s="4"/>
     </row>
-    <row r="223" spans="1:13" ht="14">
+    <row r="223" spans="1:13" ht="14.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -38174,7 +38176,7 @@
       <c r="L223" s="4"/>
       <c r="M223" s="4"/>
     </row>
-    <row r="224" spans="1:13" ht="14">
+    <row r="224" spans="1:13" ht="14.25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -38186,7 +38188,7 @@
       <c r="L224" s="4"/>
       <c r="M224" s="4"/>
     </row>
-    <row r="225" spans="1:13" ht="14">
+    <row r="225" spans="1:13" ht="14.25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -38198,7 +38200,7 @@
       <c r="L225" s="4"/>
       <c r="M225" s="4"/>
     </row>
-    <row r="226" spans="1:13" ht="14">
+    <row r="226" spans="1:13" ht="14.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -38210,7 +38212,7 @@
       <c r="L226" s="4"/>
       <c r="M226" s="4"/>
     </row>
-    <row r="227" spans="1:13" ht="14">
+    <row r="227" spans="1:13" ht="14.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -38222,7 +38224,7 @@
       <c r="L227" s="4"/>
       <c r="M227" s="4"/>
     </row>
-    <row r="228" spans="1:13" ht="14">
+    <row r="228" spans="1:13" ht="14.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -38234,7 +38236,7 @@
       <c r="L228" s="4"/>
       <c r="M228" s="4"/>
     </row>
-    <row r="229" spans="1:13" ht="14">
+    <row r="229" spans="1:13" ht="14.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -38246,7 +38248,7 @@
       <c r="L229" s="4"/>
       <c r="M229" s="4"/>
     </row>
-    <row r="230" spans="1:13" ht="14">
+    <row r="230" spans="1:13" ht="14.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -38258,7 +38260,7 @@
       <c r="L230" s="4"/>
       <c r="M230" s="4"/>
     </row>
-    <row r="231" spans="1:13" ht="14">
+    <row r="231" spans="1:13" ht="14.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -38270,7 +38272,7 @@
       <c r="L231" s="4"/>
       <c r="M231" s="4"/>
     </row>
-    <row r="232" spans="1:13" ht="14">
+    <row r="232" spans="1:13" ht="14.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -38282,7 +38284,7 @@
       <c r="L232" s="4"/>
       <c r="M232" s="4"/>
     </row>
-    <row r="233" spans="1:13" ht="14">
+    <row r="233" spans="1:13" ht="14.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -38311,10 +38313,10 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="48.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -40131,35 +40133,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="69.453125" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="69.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="60.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13">
+    <row r="1" spans="1:21">
       <c r="A1" s="31" t="s">
         <v>563</v>
       </c>
@@ -40184,7 +40186,7 @@
       <c r="T1" s="32"/>
       <c r="U1" s="31"/>
     </row>
-    <row r="2" spans="1:21" ht="13">
+    <row r="2" spans="1:21">
       <c r="A2" s="31" t="s">
         <v>564</v>
       </c>
@@ -40209,7 +40211,7 @@
       <c r="T2" s="32"/>
       <c r="U2" s="31"/>
     </row>
-    <row r="3" spans="1:21" ht="13">
+    <row r="3" spans="1:21">
       <c r="A3" s="31" t="s">
         <v>565</v>
       </c>
@@ -40238,7 +40240,7 @@
       <c r="T3" s="35"/>
       <c r="U3" s="31"/>
     </row>
-    <row r="4" spans="1:21" ht="13">
+    <row r="4" spans="1:21">
       <c r="A4" s="31" t="s">
         <v>565</v>
       </c>
@@ -40273,7 +40275,7 @@
       <c r="T4" s="32"/>
       <c r="U4" s="31"/>
     </row>
-    <row r="5" spans="1:21" ht="13">
+    <row r="5" spans="1:21">
       <c r="A5" s="31" t="s">
         <v>565</v>
       </c>
@@ -40306,7 +40308,7 @@
       <c r="T5" s="32"/>
       <c r="U5" s="31"/>
     </row>
-    <row r="6" spans="1:21" ht="13">
+    <row r="6" spans="1:21" ht="25.5">
       <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
@@ -40371,7 +40373,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="13">
+    <row r="7" spans="1:21">
       <c r="A7" s="26" t="s">
         <v>575</v>
       </c>
@@ -40396,7 +40398,7 @@
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:21" ht="13">
+    <row r="8" spans="1:21">
       <c r="A8" s="11" t="s">
         <v>46</v>
       </c>
@@ -40477,7 +40479,7 @@
       </c>
       <c r="U8" s="27"/>
     </row>
-    <row r="9" spans="1:21" ht="13">
+    <row r="9" spans="1:21">
       <c r="A9" s="11" t="s">
         <v>51</v>
       </c>
@@ -40558,7 +40560,7 @@
       </c>
       <c r="U9" s="27"/>
     </row>
-    <row r="10" spans="1:21" ht="13">
+    <row r="10" spans="1:21">
       <c r="A10" s="11" t="s">
         <v>54</v>
       </c>
@@ -40639,7 +40641,7 @@
       </c>
       <c r="U10" s="27"/>
     </row>
-    <row r="11" spans="1:21" ht="13">
+    <row r="11" spans="1:21">
       <c r="A11" s="11" t="s">
         <v>57</v>
       </c>
@@ -40720,7 +40722,7 @@
       </c>
       <c r="U11" s="27"/>
     </row>
-    <row r="12" spans="1:21" ht="13">
+    <row r="12" spans="1:21">
       <c r="A12" s="11" t="s">
         <v>59</v>
       </c>
@@ -40801,7 +40803,7 @@
       </c>
       <c r="U12" s="27"/>
     </row>
-    <row r="13" spans="1:21" ht="13">
+    <row r="13" spans="1:21">
       <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
@@ -40882,7 +40884,7 @@
       </c>
       <c r="U13" s="27"/>
     </row>
-    <row r="14" spans="1:21" ht="13">
+    <row r="14" spans="1:21">
       <c r="A14" s="11" t="s">
         <v>65</v>
       </c>
@@ -40963,7 +40965,7 @@
       </c>
       <c r="U14" s="27"/>
     </row>
-    <row r="15" spans="1:21" ht="13">
+    <row r="15" spans="1:21">
       <c r="A15" s="11" t="s">
         <v>68</v>
       </c>
@@ -41044,7 +41046,7 @@
       </c>
       <c r="U15" s="27"/>
     </row>
-    <row r="16" spans="1:21" ht="13">
+    <row r="16" spans="1:21">
       <c r="A16" s="11" t="s">
         <v>71</v>
       </c>
@@ -41125,7 +41127,7 @@
       </c>
       <c r="U16" s="27"/>
     </row>
-    <row r="17" spans="1:21" ht="13">
+    <row r="17" spans="1:21">
       <c r="A17" s="11" t="s">
         <v>74</v>
       </c>
@@ -41206,7 +41208,7 @@
       </c>
       <c r="U17" s="27"/>
     </row>
-    <row r="18" spans="1:21" ht="13">
+    <row r="18" spans="1:21">
       <c r="A18" s="11" t="s">
         <v>77</v>
       </c>
@@ -41287,7 +41289,7 @@
       </c>
       <c r="U18" s="27"/>
     </row>
-    <row r="19" spans="1:21" ht="13">
+    <row r="19" spans="1:21">
       <c r="A19" s="11" t="s">
         <v>79</v>
       </c>
@@ -41368,7 +41370,7 @@
       </c>
       <c r="U19" s="27"/>
     </row>
-    <row r="20" spans="1:21" ht="13">
+    <row r="20" spans="1:21">
       <c r="A20" s="11" t="s">
         <v>81</v>
       </c>
@@ -41449,7 +41451,7 @@
       </c>
       <c r="U20" s="27"/>
     </row>
-    <row r="21" spans="1:21" ht="13">
+    <row r="21" spans="1:21">
       <c r="A21" s="11" t="s">
         <v>83</v>
       </c>
@@ -41530,7 +41532,7 @@
       </c>
       <c r="U21" s="27"/>
     </row>
-    <row r="22" spans="1:21" ht="13">
+    <row r="22" spans="1:21">
       <c r="A22" s="11" t="s">
         <v>85</v>
       </c>
@@ -41611,7 +41613,7 @@
       </c>
       <c r="U22" s="27"/>
     </row>
-    <row r="23" spans="1:21" ht="13">
+    <row r="23" spans="1:21">
       <c r="A23" s="26" t="s">
         <v>582</v>
       </c>
@@ -41690,7 +41692,7 @@
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="1:21" ht="13">
+    <row r="24" spans="1:21">
       <c r="A24" s="11" t="s">
         <v>87</v>
       </c>
@@ -41771,7 +41773,7 @@
       </c>
       <c r="U24" s="27"/>
     </row>
-    <row r="25" spans="1:21" ht="13">
+    <row r="25" spans="1:21">
       <c r="A25" s="11" t="s">
         <v>89</v>
       </c>
@@ -41852,7 +41854,7 @@
       </c>
       <c r="U25" s="27"/>
     </row>
-    <row r="26" spans="1:21" ht="13">
+    <row r="26" spans="1:21">
       <c r="A26" s="11" t="s">
         <v>91</v>
       </c>
@@ -41933,7 +41935,7 @@
       </c>
       <c r="U26" s="27"/>
     </row>
-    <row r="27" spans="1:21" ht="13">
+    <row r="27" spans="1:21">
       <c r="A27" s="26" t="s">
         <v>583</v>
       </c>
@@ -42012,7 +42014,7 @@
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="1:21" ht="13">
+    <row r="28" spans="1:21">
       <c r="A28" s="11" t="s">
         <v>95</v>
       </c>
@@ -42093,7 +42095,7 @@
       </c>
       <c r="U28" s="27"/>
     </row>
-    <row r="29" spans="1:21" ht="13">
+    <row r="29" spans="1:21">
       <c r="A29" s="11" t="s">
         <v>100</v>
       </c>
@@ -42174,7 +42176,7 @@
       </c>
       <c r="U29" s="27"/>
     </row>
-    <row r="30" spans="1:21" ht="13">
+    <row r="30" spans="1:21">
       <c r="A30" s="26" t="s">
         <v>585</v>
       </c>
@@ -42253,7 +42255,7 @@
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="1:21" ht="13">
+    <row r="31" spans="1:21">
       <c r="A31" s="11" t="s">
         <v>103</v>
       </c>
@@ -42334,7 +42336,7 @@
       </c>
       <c r="U31" s="27"/>
     </row>
-    <row r="32" spans="1:21" ht="13">
+    <row r="32" spans="1:21">
       <c r="A32" s="26" t="s">
         <v>586</v>
       </c>
@@ -42413,7 +42415,7 @@
       <c r="T32" s="7"/>
       <c r="U32" s="7"/>
     </row>
-    <row r="33" spans="1:21" ht="13">
+    <row r="33" spans="1:21">
       <c r="A33" s="11" t="s">
         <v>107</v>
       </c>
@@ -42494,7 +42496,7 @@
       </c>
       <c r="U33" s="27"/>
     </row>
-    <row r="34" spans="1:21" ht="13">
+    <row r="34" spans="1:21">
       <c r="A34" s="11" t="s">
         <v>113</v>
       </c>
@@ -42575,7 +42577,7 @@
       </c>
       <c r="U34" s="27"/>
     </row>
-    <row r="35" spans="1:21" ht="13">
+    <row r="35" spans="1:21">
       <c r="A35" s="11" t="s">
         <v>116</v>
       </c>
@@ -42656,7 +42658,7 @@
       </c>
       <c r="U35" s="27"/>
     </row>
-    <row r="36" spans="1:21" ht="13">
+    <row r="36" spans="1:21">
       <c r="A36" s="11" t="s">
         <v>119</v>
       </c>
@@ -42737,7 +42739,7 @@
       </c>
       <c r="U36" s="27"/>
     </row>
-    <row r="37" spans="1:21" ht="13">
+    <row r="37" spans="1:21">
       <c r="A37" s="11" t="s">
         <v>123</v>
       </c>
@@ -42818,7 +42820,7 @@
       </c>
       <c r="U37" s="27"/>
     </row>
-    <row r="38" spans="1:21" ht="13">
+    <row r="38" spans="1:21">
       <c r="A38" s="11" t="s">
         <v>126</v>
       </c>
@@ -42899,7 +42901,7 @@
       </c>
       <c r="U38" s="27"/>
     </row>
-    <row r="39" spans="1:21" ht="13">
+    <row r="39" spans="1:21">
       <c r="A39" s="11" t="s">
         <v>129</v>
       </c>
@@ -42980,7 +42982,7 @@
       </c>
       <c r="U39" s="27"/>
     </row>
-    <row r="40" spans="1:21" ht="13">
+    <row r="40" spans="1:21">
       <c r="A40" s="11" t="s">
         <v>131</v>
       </c>
@@ -43061,7 +43063,7 @@
       </c>
       <c r="U40" s="27"/>
     </row>
-    <row r="41" spans="1:21" ht="13">
+    <row r="41" spans="1:21">
       <c r="A41" s="11" t="s">
         <v>133</v>
       </c>
@@ -43142,7 +43144,7 @@
       </c>
       <c r="U41" s="27"/>
     </row>
-    <row r="42" spans="1:21" ht="13">
+    <row r="42" spans="1:21">
       <c r="A42" s="26" t="s">
         <v>587</v>
       </c>
@@ -43221,7 +43223,7 @@
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
     </row>
-    <row r="43" spans="1:21" ht="13">
+    <row r="43" spans="1:21">
       <c r="A43" s="11" t="s">
         <v>135</v>
       </c>
@@ -43302,7 +43304,7 @@
       </c>
       <c r="U43" s="27"/>
     </row>
-    <row r="44" spans="1:21" ht="13">
+    <row r="44" spans="1:21">
       <c r="A44" s="11" t="s">
         <v>138</v>
       </c>
@@ -43383,7 +43385,7 @@
       </c>
       <c r="U44" s="27"/>
     </row>
-    <row r="45" spans="1:21" ht="13">
+    <row r="45" spans="1:21">
       <c r="A45" s="26" t="s">
         <v>588</v>
       </c>
@@ -43462,7 +43464,7 @@
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
     </row>
-    <row r="46" spans="1:21" ht="13">
+    <row r="46" spans="1:21">
       <c r="A46" s="11" t="s">
         <v>140</v>
       </c>
@@ -43543,7 +43545,7 @@
       </c>
       <c r="U46" s="27"/>
     </row>
-    <row r="47" spans="1:21" ht="13">
+    <row r="47" spans="1:21">
       <c r="A47" s="11" t="s">
         <v>143</v>
       </c>
@@ -43624,7 +43626,7 @@
       </c>
       <c r="U47" s="27"/>
     </row>
-    <row r="48" spans="1:21" ht="13">
+    <row r="48" spans="1:21">
       <c r="A48" s="11" t="s">
         <v>145</v>
       </c>
@@ -43705,7 +43707,7 @@
       </c>
       <c r="U48" s="27"/>
     </row>
-    <row r="49" spans="1:21" ht="13">
+    <row r="49" spans="1:21">
       <c r="A49" s="11" t="s">
         <v>147</v>
       </c>
@@ -43786,7 +43788,7 @@
       </c>
       <c r="U49" s="27"/>
     </row>
-    <row r="50" spans="1:21" ht="13">
+    <row r="50" spans="1:21">
       <c r="A50" s="11" t="s">
         <v>149</v>
       </c>
@@ -43867,7 +43869,7 @@
       </c>
       <c r="U50" s="27"/>
     </row>
-    <row r="51" spans="1:21" ht="13">
+    <row r="51" spans="1:21">
       <c r="A51" s="11" t="s">
         <v>151</v>
       </c>
@@ -43948,7 +43950,7 @@
       </c>
       <c r="U51" s="27"/>
     </row>
-    <row r="52" spans="1:21" ht="13">
+    <row r="52" spans="1:21">
       <c r="A52" s="11" t="s">
         <v>153</v>
       </c>
@@ -44029,7 +44031,7 @@
       </c>
       <c r="U52" s="27"/>
     </row>
-    <row r="53" spans="1:21" ht="13">
+    <row r="53" spans="1:21">
       <c r="A53" s="11" t="s">
         <v>155</v>
       </c>
@@ -44110,7 +44112,7 @@
       </c>
       <c r="U53" s="27"/>
     </row>
-    <row r="54" spans="1:21" ht="13">
+    <row r="54" spans="1:21">
       <c r="A54" s="11" t="s">
         <v>157</v>
       </c>
@@ -44191,7 +44193,7 @@
       </c>
       <c r="U54" s="27"/>
     </row>
-    <row r="55" spans="1:21" ht="13">
+    <row r="55" spans="1:21">
       <c r="A55" s="26" t="s">
         <v>589</v>
       </c>
@@ -44270,7 +44272,7 @@
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
     </row>
-    <row r="56" spans="1:21" ht="13">
+    <row r="56" spans="1:21">
       <c r="A56" s="11" t="s">
         <v>159</v>
       </c>
@@ -44351,7 +44353,7 @@
       </c>
       <c r="U56" s="27"/>
     </row>
-    <row r="57" spans="1:21" ht="13">
+    <row r="57" spans="1:21">
       <c r="A57" s="11" t="s">
         <v>162</v>
       </c>
@@ -44432,7 +44434,7 @@
       </c>
       <c r="U57" s="27"/>
     </row>
-    <row r="58" spans="1:21" ht="13">
+    <row r="58" spans="1:21">
       <c r="A58" s="11" t="s">
         <v>164</v>
       </c>
@@ -44513,7 +44515,7 @@
       </c>
       <c r="U58" s="27"/>
     </row>
-    <row r="59" spans="1:21" ht="13">
+    <row r="59" spans="1:21">
       <c r="A59" s="11" t="s">
         <v>166</v>
       </c>
@@ -44594,7 +44596,7 @@
       </c>
       <c r="U59" s="27"/>
     </row>
-    <row r="60" spans="1:21" ht="13">
+    <row r="60" spans="1:21">
       <c r="A60" s="11" t="s">
         <v>168</v>
       </c>
@@ -44675,7 +44677,7 @@
       </c>
       <c r="U60" s="27"/>
     </row>
-    <row r="61" spans="1:21" ht="13">
+    <row r="61" spans="1:21">
       <c r="A61" s="11" t="s">
         <v>170</v>
       </c>
@@ -44756,7 +44758,7 @@
       </c>
       <c r="U61" s="27"/>
     </row>
-    <row r="62" spans="1:21" ht="13">
+    <row r="62" spans="1:21">
       <c r="A62" s="11" t="s">
         <v>172</v>
       </c>
@@ -44837,7 +44839,7 @@
       </c>
       <c r="U62" s="27"/>
     </row>
-    <row r="63" spans="1:21" ht="13">
+    <row r="63" spans="1:21">
       <c r="A63" s="11" t="s">
         <v>174</v>
       </c>
@@ -44918,7 +44920,7 @@
       </c>
       <c r="U63" s="27"/>
     </row>
-    <row r="64" spans="1:21" ht="13">
+    <row r="64" spans="1:21">
       <c r="A64" s="11" t="s">
         <v>176</v>
       </c>
@@ -44999,7 +45001,7 @@
       </c>
       <c r="U64" s="27"/>
     </row>
-    <row r="65" spans="1:21" ht="13">
+    <row r="65" spans="1:21">
       <c r="A65" s="11" t="s">
         <v>178</v>
       </c>
@@ -45080,7 +45082,7 @@
       </c>
       <c r="U65" s="27"/>
     </row>
-    <row r="66" spans="1:21" ht="13">
+    <row r="66" spans="1:21">
       <c r="A66" s="11" t="s">
         <v>180</v>
       </c>
@@ -45161,7 +45163,7 @@
       </c>
       <c r="U66" s="27"/>
     </row>
-    <row r="67" spans="1:21" ht="13">
+    <row r="67" spans="1:21">
       <c r="A67" s="11" t="s">
         <v>182</v>
       </c>
@@ -45242,7 +45244,7 @@
       </c>
       <c r="U67" s="27"/>
     </row>
-    <row r="68" spans="1:21" ht="13">
+    <row r="68" spans="1:21">
       <c r="A68" s="11" t="s">
         <v>184</v>
       </c>
@@ -45323,7 +45325,7 @@
       </c>
       <c r="U68" s="27"/>
     </row>
-    <row r="69" spans="1:21" ht="13">
+    <row r="69" spans="1:21">
       <c r="A69" s="11" t="s">
         <v>193</v>
       </c>
@@ -45404,7 +45406,7 @@
       </c>
       <c r="U69" s="27"/>
     </row>
-    <row r="70" spans="1:21" ht="13">
+    <row r="70" spans="1:21">
       <c r="A70" s="11" t="s">
         <v>195</v>
       </c>
@@ -45485,7 +45487,7 @@
       </c>
       <c r="U70" s="27"/>
     </row>
-    <row r="71" spans="1:21" ht="13">
+    <row r="71" spans="1:21">
       <c r="A71" s="26" t="s">
         <v>582</v>
       </c>
@@ -45564,7 +45566,7 @@
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
     </row>
-    <row r="72" spans="1:21" ht="13">
+    <row r="72" spans="1:21">
       <c r="A72" s="11" t="s">
         <v>197</v>
       </c>
@@ -45645,7 +45647,7 @@
       </c>
       <c r="U72" s="27"/>
     </row>
-    <row r="73" spans="1:21" ht="13">
+    <row r="73" spans="1:21">
       <c r="A73" s="11" t="s">
         <v>200</v>
       </c>
@@ -45726,7 +45728,7 @@
       </c>
       <c r="U73" s="27"/>
     </row>
-    <row r="74" spans="1:21" ht="13">
+    <row r="74" spans="1:21">
       <c r="A74" s="11" t="s">
         <v>202</v>
       </c>
@@ -45807,7 +45809,7 @@
       </c>
       <c r="U74" s="27"/>
     </row>
-    <row r="75" spans="1:21" ht="13">
+    <row r="75" spans="1:21">
       <c r="A75" s="26" t="s">
         <v>590</v>
       </c>
@@ -45886,7 +45888,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
     </row>
-    <row r="76" spans="1:21" ht="13">
+    <row r="76" spans="1:21">
       <c r="A76" s="11" t="s">
         <v>204</v>
       </c>
@@ -45967,7 +45969,7 @@
       </c>
       <c r="U76" s="27"/>
     </row>
-    <row r="77" spans="1:21" ht="13">
+    <row r="77" spans="1:21">
       <c r="A77" s="11" t="s">
         <v>207</v>
       </c>
@@ -46048,7 +46050,7 @@
       </c>
       <c r="U77" s="27"/>
     </row>
-    <row r="78" spans="1:21" ht="13">
+    <row r="78" spans="1:21">
       <c r="A78" s="26" t="s">
         <v>591</v>
       </c>
@@ -46127,7 +46129,7 @@
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
     </row>
-    <row r="79" spans="1:21" ht="13">
+    <row r="79" spans="1:21">
       <c r="A79" s="11" t="s">
         <v>209</v>
       </c>
@@ -46208,7 +46210,7 @@
       </c>
       <c r="U79" s="27"/>
     </row>
-    <row r="80" spans="1:21" ht="13">
+    <row r="80" spans="1:21">
       <c r="A80" s="11" t="s">
         <v>212</v>
       </c>
@@ -46289,7 +46291,7 @@
       </c>
       <c r="U80" s="27"/>
     </row>
-    <row r="81" spans="1:21" ht="13">
+    <row r="81" spans="1:21">
       <c r="A81" s="11" t="s">
         <v>214</v>
       </c>
@@ -46370,7 +46372,7 @@
       </c>
       <c r="U81" s="27"/>
     </row>
-    <row r="82" spans="1:21" ht="13">
+    <row r="82" spans="1:21">
       <c r="A82" s="11" t="s">
         <v>216</v>
       </c>
@@ -46451,7 +46453,7 @@
       </c>
       <c r="U82" s="27"/>
     </row>
-    <row r="83" spans="1:21" ht="13">
+    <row r="83" spans="1:21">
       <c r="A83" s="11" t="s">
         <v>218</v>
       </c>
@@ -46532,7 +46534,7 @@
       </c>
       <c r="U83" s="27"/>
     </row>
-    <row r="84" spans="1:21" ht="13">
+    <row r="84" spans="1:21">
       <c r="A84" s="11" t="s">
         <v>220</v>
       </c>
@@ -46613,7 +46615,7 @@
       </c>
       <c r="U84" s="27"/>
     </row>
-    <row r="85" spans="1:21" ht="13">
+    <row r="85" spans="1:21">
       <c r="A85" s="11" t="s">
         <v>222</v>
       </c>
@@ -46694,7 +46696,7 @@
       </c>
       <c r="U85" s="27"/>
     </row>
-    <row r="86" spans="1:21" ht="13">
+    <row r="86" spans="1:21">
       <c r="A86" s="11" t="s">
         <v>224</v>
       </c>
@@ -46775,7 +46777,7 @@
       </c>
       <c r="U86" s="27"/>
     </row>
-    <row r="87" spans="1:21" ht="13">
+    <row r="87" spans="1:21">
       <c r="A87" s="11" t="s">
         <v>226</v>
       </c>
@@ -46856,7 +46858,7 @@
       </c>
       <c r="U87" s="27"/>
     </row>
-    <row r="88" spans="1:21" ht="13">
+    <row r="88" spans="1:21">
       <c r="A88" s="26" t="s">
         <v>592</v>
       </c>
@@ -46935,7 +46937,7 @@
       <c r="T88" s="7"/>
       <c r="U88" s="7"/>
     </row>
-    <row r="89" spans="1:21" ht="13">
+    <row r="89" spans="1:21">
       <c r="A89" s="11" t="s">
         <v>228</v>
       </c>
@@ -47016,7 +47018,7 @@
       </c>
       <c r="U89" s="27"/>
     </row>
-    <row r="90" spans="1:21" ht="13">
+    <row r="90" spans="1:21">
       <c r="A90" s="11" t="s">
         <v>231</v>
       </c>
@@ -47097,7 +47099,7 @@
       </c>
       <c r="U90" s="27"/>
     </row>
-    <row r="91" spans="1:21" ht="13">
+    <row r="91" spans="1:21">
       <c r="A91" s="26" t="s">
         <v>593</v>
       </c>
@@ -47176,7 +47178,7 @@
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
     </row>
-    <row r="92" spans="1:21" ht="13">
+    <row r="92" spans="1:21">
       <c r="A92" s="11" t="s">
         <v>233</v>
       </c>
@@ -47257,7 +47259,7 @@
       </c>
       <c r="U92" s="28"/>
     </row>
-    <row r="93" spans="1:21" ht="13">
+    <row r="93" spans="1:21">
       <c r="A93" s="11" t="s">
         <v>236</v>
       </c>
@@ -47338,7 +47340,7 @@
       </c>
       <c r="U93" s="28"/>
     </row>
-    <row r="94" spans="1:21" ht="13">
+    <row r="94" spans="1:21">
       <c r="A94" s="26" t="s">
         <v>594</v>
       </c>
@@ -47417,7 +47419,7 @@
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
     </row>
-    <row r="95" spans="1:21" ht="13">
+    <row r="95" spans="1:21">
       <c r="A95" s="11" t="s">
         <v>238</v>
       </c>
@@ -47498,7 +47500,7 @@
       </c>
       <c r="U95" s="27"/>
     </row>
-    <row r="96" spans="1:21" ht="13">
+    <row r="96" spans="1:21">
       <c r="A96" s="11" t="s">
         <v>241</v>
       </c>
@@ -47579,7 +47581,7 @@
       </c>
       <c r="U96" s="27"/>
     </row>
-    <row r="97" spans="1:21" ht="13">
+    <row r="97" spans="1:21">
       <c r="A97" s="11" t="s">
         <v>243</v>
       </c>
@@ -47660,7 +47662,7 @@
       </c>
       <c r="U97" s="27"/>
     </row>
-    <row r="98" spans="1:21" ht="13">
+    <row r="98" spans="1:21">
       <c r="A98" s="11" t="s">
         <v>245</v>
       </c>
@@ -47741,7 +47743,7 @@
       </c>
       <c r="U98" s="27"/>
     </row>
-    <row r="99" spans="1:21" ht="13">
+    <row r="99" spans="1:21">
       <c r="A99" s="11" t="s">
         <v>247</v>
       </c>
@@ -47822,7 +47824,7 @@
       </c>
       <c r="U99" s="27"/>
     </row>
-    <row r="100" spans="1:21" ht="13">
+    <row r="100" spans="1:21">
       <c r="A100" s="11" t="s">
         <v>249</v>
       </c>
@@ -47903,7 +47905,7 @@
       </c>
       <c r="U100" s="27"/>
     </row>
-    <row r="101" spans="1:21" ht="13">
+    <row r="101" spans="1:21">
       <c r="A101" s="11" t="s">
         <v>251</v>
       </c>
@@ -47984,7 +47986,7 @@
       </c>
       <c r="U101" s="27"/>
     </row>
-    <row r="102" spans="1:21" ht="13">
+    <row r="102" spans="1:21">
       <c r="A102" s="11" t="s">
         <v>253</v>
       </c>
@@ -48065,7 +48067,7 @@
       </c>
       <c r="U102" s="27"/>
     </row>
-    <row r="103" spans="1:21" ht="13">
+    <row r="103" spans="1:21">
       <c r="A103" s="11" t="s">
         <v>255</v>
       </c>
@@ -48146,7 +48148,7 @@
       </c>
       <c r="U103" s="27"/>
     </row>
-    <row r="104" spans="1:21" ht="13">
+    <row r="104" spans="1:21">
       <c r="A104" s="11" t="s">
         <v>257</v>
       </c>
@@ -48227,7 +48229,7 @@
       </c>
       <c r="U104" s="27"/>
     </row>
-    <row r="105" spans="1:21" ht="13">
+    <row r="105" spans="1:21">
       <c r="A105" s="11" t="s">
         <v>259</v>
       </c>
@@ -48308,7 +48310,7 @@
       </c>
       <c r="U105" s="27"/>
     </row>
-    <row r="106" spans="1:21" ht="13">
+    <row r="106" spans="1:21">
       <c r="A106" s="11" t="s">
         <v>261</v>
       </c>
@@ -48389,7 +48391,7 @@
       </c>
       <c r="U106" s="27"/>
     </row>
-    <row r="107" spans="1:21" ht="13">
+    <row r="107" spans="1:21">
       <c r="A107" s="11" t="s">
         <v>263</v>
       </c>
@@ -48470,7 +48472,7 @@
       </c>
       <c r="U107" s="27"/>
     </row>
-    <row r="108" spans="1:21" ht="13">
+    <row r="108" spans="1:21">
       <c r="A108" s="11" t="s">
         <v>265</v>
       </c>
@@ -48551,7 +48553,7 @@
       </c>
       <c r="U108" s="27"/>
     </row>
-    <row r="109" spans="1:21" ht="13">
+    <row r="109" spans="1:21">
       <c r="A109" s="11" t="s">
         <v>267</v>
       </c>
@@ -48632,7 +48634,7 @@
       </c>
       <c r="U109" s="27"/>
     </row>
-    <row r="110" spans="1:21" ht="13">
+    <row r="110" spans="1:21">
       <c r="A110" s="26" t="s">
         <v>595</v>
       </c>
@@ -48711,7 +48713,7 @@
       <c r="T110" s="7"/>
       <c r="U110" s="7"/>
     </row>
-    <row r="111" spans="1:21" ht="13">
+    <row r="111" spans="1:21">
       <c r="A111" s="11" t="s">
         <v>269</v>
       </c>
@@ -48792,7 +48794,7 @@
       </c>
       <c r="U111" s="27"/>
     </row>
-    <row r="112" spans="1:21" ht="13">
+    <row r="112" spans="1:21">
       <c r="A112" s="11" t="s">
         <v>272</v>
       </c>
@@ -48873,7 +48875,7 @@
       </c>
       <c r="U112" s="27"/>
     </row>
-    <row r="113" spans="1:21" ht="13">
+    <row r="113" spans="1:21">
       <c r="A113" s="11" t="s">
         <v>274</v>
       </c>
@@ -48954,7 +48956,7 @@
       </c>
       <c r="U113" s="27"/>
     </row>
-    <row r="114" spans="1:21" ht="13">
+    <row r="114" spans="1:21">
       <c r="A114" s="26" t="s">
         <v>596</v>
       </c>
@@ -49033,7 +49035,7 @@
       <c r="T114" s="7"/>
       <c r="U114" s="7"/>
     </row>
-    <row r="115" spans="1:21" ht="13">
+    <row r="115" spans="1:21">
       <c r="A115" s="11" t="s">
         <v>276</v>
       </c>
@@ -49114,7 +49116,7 @@
       </c>
       <c r="U115" s="27"/>
     </row>
-    <row r="116" spans="1:21" ht="13">
+    <row r="116" spans="1:21">
       <c r="A116" s="11" t="s">
         <v>279</v>
       </c>
@@ -49195,7 +49197,7 @@
       </c>
       <c r="U116" s="27"/>
     </row>
-    <row r="117" spans="1:21" ht="13">
+    <row r="117" spans="1:21">
       <c r="A117" s="11" t="s">
         <v>281</v>
       </c>
@@ -49276,7 +49278,7 @@
       </c>
       <c r="U117" s="27"/>
     </row>
-    <row r="118" spans="1:21" ht="13">
+    <row r="118" spans="1:21">
       <c r="A118" s="26" t="s">
         <v>597</v>
       </c>
@@ -49355,7 +49357,7 @@
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
     </row>
-    <row r="119" spans="1:21" ht="13">
+    <row r="119" spans="1:21">
       <c r="A119" s="11" t="s">
         <v>283</v>
       </c>
@@ -49436,7 +49438,7 @@
       </c>
       <c r="U119" s="27"/>
     </row>
-    <row r="120" spans="1:21" ht="13">
+    <row r="120" spans="1:21">
       <c r="A120" s="11" t="s">
         <v>286</v>
       </c>
@@ -49517,7 +49519,7 @@
       </c>
       <c r="U120" s="27"/>
     </row>
-    <row r="121" spans="1:21" ht="13">
+    <row r="121" spans="1:21">
       <c r="A121" s="26" t="s">
         <v>598</v>
       </c>
@@ -49596,7 +49598,7 @@
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
     </row>
-    <row r="122" spans="1:21" ht="13">
+    <row r="122" spans="1:21">
       <c r="A122" s="11" t="s">
         <v>288</v>
       </c>
@@ -49677,7 +49679,7 @@
       </c>
       <c r="U122" s="27"/>
     </row>
-    <row r="123" spans="1:21" ht="13">
+    <row r="123" spans="1:21">
       <c r="A123" s="11" t="s">
         <v>291</v>
       </c>
@@ -49758,7 +49760,7 @@
       </c>
       <c r="U123" s="27"/>
     </row>
-    <row r="124" spans="1:21" ht="13">
+    <row r="124" spans="1:21">
       <c r="A124" s="26" t="s">
         <v>599</v>
       </c>
@@ -49837,7 +49839,7 @@
       <c r="T124" s="7"/>
       <c r="U124" s="7"/>
     </row>
-    <row r="125" spans="1:21" ht="13">
+    <row r="125" spans="1:21">
       <c r="A125" s="11" t="s">
         <v>293</v>
       </c>
@@ -49918,7 +49920,7 @@
       </c>
       <c r="U125" s="27"/>
     </row>
-    <row r="126" spans="1:21" ht="13">
+    <row r="126" spans="1:21">
       <c r="A126" s="26" t="s">
         <v>600</v>
       </c>
@@ -49997,7 +49999,7 @@
       <c r="T126" s="7"/>
       <c r="U126" s="7"/>
     </row>
-    <row r="127" spans="1:21" ht="13">
+    <row r="127" spans="1:21">
       <c r="A127" s="11" t="s">
         <v>295</v>
       </c>
@@ -50078,7 +50080,7 @@
       </c>
       <c r="U127" s="27"/>
     </row>
-    <row r="128" spans="1:21" ht="13">
+    <row r="128" spans="1:21">
       <c r="A128" s="11" t="s">
         <v>298</v>
       </c>
@@ -50159,7 +50161,7 @@
       </c>
       <c r="U128" s="27"/>
     </row>
-    <row r="129" spans="1:21" ht="13">
+    <row r="129" spans="1:21">
       <c r="A129" s="11" t="s">
         <v>300</v>
       </c>
@@ -50240,7 +50242,7 @@
       </c>
       <c r="U129" s="27"/>
     </row>
-    <row r="130" spans="1:21" ht="13">
+    <row r="130" spans="1:21">
       <c r="A130" s="11" t="s">
         <v>302</v>
       </c>
@@ -50321,7 +50323,7 @@
       </c>
       <c r="U130" s="27"/>
     </row>
-    <row r="131" spans="1:21" ht="13">
+    <row r="131" spans="1:21">
       <c r="A131" s="11" t="s">
         <v>305</v>
       </c>
@@ -50402,7 +50404,7 @@
       </c>
       <c r="U131" s="27"/>
     </row>
-    <row r="132" spans="1:21" ht="13">
+    <row r="132" spans="1:21">
       <c r="A132" s="11" t="s">
         <v>307</v>
       </c>
@@ -50483,7 +50485,7 @@
       </c>
       <c r="U132" s="27"/>
     </row>
-    <row r="133" spans="1:21" ht="13">
+    <row r="133" spans="1:21">
       <c r="A133" s="11" t="s">
         <v>309</v>
       </c>
@@ -50564,7 +50566,7 @@
       </c>
       <c r="U133" s="27"/>
     </row>
-    <row r="134" spans="1:21" ht="13">
+    <row r="134" spans="1:21">
       <c r="A134" s="11" t="s">
         <v>312</v>
       </c>
@@ -50645,7 +50647,7 @@
       </c>
       <c r="U134" s="27"/>
     </row>
-    <row r="135" spans="1:21" ht="13">
+    <row r="135" spans="1:21">
       <c r="A135" s="11" t="s">
         <v>314</v>
       </c>
@@ -50726,7 +50728,7 @@
       </c>
       <c r="U135" s="27"/>
     </row>
-    <row r="136" spans="1:21" ht="13">
+    <row r="136" spans="1:21">
       <c r="A136" s="11" t="s">
         <v>316</v>
       </c>
@@ -50807,7 +50809,7 @@
       </c>
       <c r="U136" s="27"/>
     </row>
-    <row r="137" spans="1:21" ht="13">
+    <row r="137" spans="1:21">
       <c r="A137" s="11" t="s">
         <v>319</v>
       </c>
@@ -50888,7 +50890,7 @@
       </c>
       <c r="U137" s="27"/>
     </row>
-    <row r="138" spans="1:21" ht="13">
+    <row r="138" spans="1:21">
       <c r="A138" s="11" t="s">
         <v>321</v>
       </c>
@@ -50969,7 +50971,7 @@
       </c>
       <c r="U138" s="27"/>
     </row>
-    <row r="139" spans="1:21" ht="13">
+    <row r="139" spans="1:21">
       <c r="A139" s="11" t="s">
         <v>323</v>
       </c>
@@ -51050,7 +51052,7 @@
       </c>
       <c r="U139" s="27"/>
     </row>
-    <row r="140" spans="1:21" ht="13">
+    <row r="140" spans="1:21">
       <c r="A140" s="11" t="s">
         <v>326</v>
       </c>
@@ -51131,7 +51133,7 @@
       </c>
       <c r="U140" s="27"/>
     </row>
-    <row r="141" spans="1:21" ht="13">
+    <row r="141" spans="1:21">
       <c r="A141" s="11" t="s">
         <v>328</v>
       </c>
@@ -51212,7 +51214,7 @@
       </c>
       <c r="U141" s="27"/>
     </row>
-    <row r="142" spans="1:21" ht="13">
+    <row r="142" spans="1:21">
       <c r="A142" s="11" t="s">
         <v>330</v>
       </c>
@@ -51293,7 +51295,7 @@
       </c>
       <c r="U142" s="27"/>
     </row>
-    <row r="143" spans="1:21" ht="13">
+    <row r="143" spans="1:21">
       <c r="A143" s="11" t="s">
         <v>333</v>
       </c>
@@ -51374,7 +51376,7 @@
       </c>
       <c r="U143" s="27"/>
     </row>
-    <row r="144" spans="1:21" ht="13">
+    <row r="144" spans="1:21">
       <c r="A144" s="11" t="s">
         <v>335</v>
       </c>
@@ -51455,7 +51457,7 @@
       </c>
       <c r="U144" s="27"/>
     </row>
-    <row r="145" spans="1:21" ht="13">
+    <row r="145" spans="1:21">
       <c r="A145" s="11" t="s">
         <v>337</v>
       </c>
@@ -51536,7 +51538,7 @@
       </c>
       <c r="U145" s="27"/>
     </row>
-    <row r="146" spans="1:21" ht="13">
+    <row r="146" spans="1:21">
       <c r="A146" s="11" t="s">
         <v>340</v>
       </c>
@@ -51617,7 +51619,7 @@
       </c>
       <c r="U146" s="27"/>
     </row>
-    <row r="147" spans="1:21" ht="13">
+    <row r="147" spans="1:21">
       <c r="A147" s="11" t="s">
         <v>342</v>
       </c>
@@ -51698,7 +51700,7 @@
       </c>
       <c r="U147" s="27"/>
     </row>
-    <row r="148" spans="1:21" ht="13">
+    <row r="148" spans="1:21">
       <c r="A148" s="11" t="s">
         <v>344</v>
       </c>
@@ -51779,7 +51781,7 @@
       </c>
       <c r="U148" s="27"/>
     </row>
-    <row r="149" spans="1:21" ht="13">
+    <row r="149" spans="1:21">
       <c r="A149" s="11" t="s">
         <v>347</v>
       </c>
@@ -51860,7 +51862,7 @@
       </c>
       <c r="U149" s="27"/>
     </row>
-    <row r="150" spans="1:21" ht="13">
+    <row r="150" spans="1:21">
       <c r="A150" s="11" t="s">
         <v>349</v>
       </c>
@@ -51941,7 +51943,7 @@
       </c>
       <c r="U150" s="27"/>
     </row>
-    <row r="151" spans="1:21" ht="13">
+    <row r="151" spans="1:21">
       <c r="A151" s="26" t="s">
         <v>601</v>
       </c>
@@ -52020,7 +52022,7 @@
       <c r="T151" s="7"/>
       <c r="U151" s="7"/>
     </row>
-    <row r="152" spans="1:21" ht="13">
+    <row r="152" spans="1:21">
       <c r="A152" s="11" t="s">
         <v>351</v>
       </c>
@@ -52101,7 +52103,7 @@
       </c>
       <c r="U152" s="27"/>
     </row>
-    <row r="153" spans="1:21" ht="13">
+    <row r="153" spans="1:21">
       <c r="A153" s="11" t="s">
         <v>354</v>
       </c>
@@ -52182,7 +52184,7 @@
       </c>
       <c r="U153" s="27"/>
     </row>
-    <row r="154" spans="1:21" ht="13">
+    <row r="154" spans="1:21">
       <c r="A154" s="11" t="s">
         <v>356</v>
       </c>
@@ -52263,7 +52265,7 @@
       </c>
       <c r="U154" s="27"/>
     </row>
-    <row r="155" spans="1:21" ht="13">
+    <row r="155" spans="1:21">
       <c r="A155" s="11" t="s">
         <v>357</v>
       </c>
@@ -52344,7 +52346,7 @@
       </c>
       <c r="U155" s="27"/>
     </row>
-    <row r="156" spans="1:21" ht="13">
+    <row r="156" spans="1:21">
       <c r="A156" s="11" t="s">
         <v>359</v>
       </c>
@@ -52425,7 +52427,7 @@
       </c>
       <c r="U156" s="27"/>
     </row>
-    <row r="157" spans="1:21" ht="13">
+    <row r="157" spans="1:21">
       <c r="A157" s="11" t="s">
         <v>360</v>
       </c>
@@ -52506,7 +52508,7 @@
       </c>
       <c r="U157" s="27"/>
     </row>
-    <row r="158" spans="1:21" ht="13">
+    <row r="158" spans="1:21">
       <c r="A158" s="11" t="s">
         <v>362</v>
       </c>
@@ -52587,7 +52589,7 @@
       </c>
       <c r="U158" s="27"/>
     </row>
-    <row r="159" spans="1:21" ht="13">
+    <row r="159" spans="1:21">
       <c r="A159" s="26" t="s">
         <v>602</v>
       </c>
@@ -52666,7 +52668,7 @@
       <c r="T159" s="7"/>
       <c r="U159" s="7"/>
     </row>
-    <row r="160" spans="1:21" ht="13">
+    <row r="160" spans="1:21">
       <c r="A160" s="11" t="s">
         <v>365</v>
       </c>
@@ -52747,7 +52749,7 @@
       </c>
       <c r="U160" s="27"/>
     </row>
-    <row r="161" spans="1:21" ht="13">
+    <row r="161" spans="1:21">
       <c r="A161" s="11" t="s">
         <v>368</v>
       </c>
@@ -52828,7 +52830,7 @@
       </c>
       <c r="U161" s="27"/>
     </row>
-    <row r="162" spans="1:21" ht="13">
+    <row r="162" spans="1:21">
       <c r="A162" s="11" t="s">
         <v>370</v>
       </c>
@@ -52909,7 +52911,7 @@
       </c>
       <c r="U162" s="27"/>
     </row>
-    <row r="163" spans="1:21" ht="13">
+    <row r="163" spans="1:21">
       <c r="A163" s="26" t="s">
         <v>603</v>
       </c>
@@ -52988,7 +52990,7 @@
       <c r="T163" s="7"/>
       <c r="U163" s="7"/>
     </row>
-    <row r="164" spans="1:21" ht="13">
+    <row r="164" spans="1:21">
       <c r="A164" s="11" t="s">
         <v>372</v>
       </c>
@@ -53069,7 +53071,7 @@
       </c>
       <c r="U164" s="27"/>
     </row>
-    <row r="165" spans="1:21" ht="13">
+    <row r="165" spans="1:21">
       <c r="A165" s="11" t="s">
         <v>375</v>
       </c>
@@ -53150,7 +53152,7 @@
       </c>
       <c r="U165" s="27"/>
     </row>
-    <row r="166" spans="1:21" ht="13">
+    <row r="166" spans="1:21">
       <c r="A166" s="11" t="s">
         <v>377</v>
       </c>
@@ -53231,7 +53233,7 @@
       </c>
       <c r="U166" s="27"/>
     </row>
-    <row r="167" spans="1:21" ht="13">
+    <row r="167" spans="1:21">
       <c r="A167" s="11" t="s">
         <v>379</v>
       </c>
@@ -53312,7 +53314,7 @@
       </c>
       <c r="U167" s="27"/>
     </row>
-    <row r="168" spans="1:21" ht="13">
+    <row r="168" spans="1:21">
       <c r="A168" s="11" t="s">
         <v>382</v>
       </c>
@@ -53393,7 +53395,7 @@
       </c>
       <c r="U168" s="27"/>
     </row>
-    <row r="169" spans="1:21" ht="13">
+    <row r="169" spans="1:21">
       <c r="A169" s="11" t="s">
         <v>385</v>
       </c>
@@ -53474,7 +53476,7 @@
       </c>
       <c r="U169" s="27"/>
     </row>
-    <row r="170" spans="1:21" ht="13">
+    <row r="170" spans="1:21">
       <c r="A170" s="26" t="s">
         <v>604</v>
       </c>
@@ -53553,7 +53555,7 @@
       <c r="T170" s="7"/>
       <c r="U170" s="7"/>
     </row>
-    <row r="171" spans="1:21" ht="13">
+    <row r="171" spans="1:21">
       <c r="A171" s="11" t="s">
         <v>387</v>
       </c>
@@ -53634,7 +53636,7 @@
       </c>
       <c r="U171" s="27"/>
     </row>
-    <row r="172" spans="1:21" ht="13">
+    <row r="172" spans="1:21">
       <c r="A172" s="26" t="s">
         <v>605</v>
       </c>
@@ -53713,7 +53715,7 @@
       <c r="T172" s="7"/>
       <c r="U172" s="36"/>
     </row>
-    <row r="173" spans="1:21" ht="13">
+    <row r="173" spans="1:21">
       <c r="A173" s="11" t="s">
         <v>390</v>
       </c>
@@ -53794,7 +53796,7 @@
       </c>
       <c r="U173" s="29"/>
     </row>
-    <row r="174" spans="1:21" ht="13">
+    <row r="174" spans="1:21">
       <c r="A174" s="11" t="s">
         <v>393</v>
       </c>
@@ -53875,7 +53877,7 @@
       </c>
       <c r="U174" s="29"/>
     </row>
-    <row r="175" spans="1:21" ht="13">
+    <row r="175" spans="1:21">
       <c r="A175" s="11" t="s">
         <v>395</v>
       </c>
@@ -53956,7 +53958,7 @@
       </c>
       <c r="U175" s="29"/>
     </row>
-    <row r="176" spans="1:21" ht="13">
+    <row r="176" spans="1:21">
       <c r="A176" s="30" t="s">
         <v>606</v>
       </c>
@@ -54035,7 +54037,7 @@
       <c r="T176" s="7"/>
       <c r="U176" s="36"/>
     </row>
-    <row r="177" spans="1:21" ht="13">
+    <row r="177" spans="1:21">
       <c r="A177" s="29" t="s">
         <v>397</v>
       </c>
@@ -54116,7 +54118,7 @@
       </c>
       <c r="U177" s="29"/>
     </row>
-    <row r="178" spans="1:21" ht="13">
+    <row r="178" spans="1:21">
       <c r="A178" s="29" t="s">
         <v>399</v>
       </c>
@@ -54197,7 +54199,7 @@
       </c>
       <c r="U178" s="29"/>
     </row>
-    <row r="179" spans="1:21" ht="13">
+    <row r="179" spans="1:21">
       <c r="A179" s="37" t="s">
         <v>401</v>
       </c>
@@ -54278,7 +54280,7 @@
       </c>
       <c r="U179" s="29"/>
     </row>
-    <row r="180" spans="1:21" ht="13">
+    <row r="180" spans="1:21">
       <c r="A180" s="37" t="s">
         <v>403</v>
       </c>
@@ -54359,7 +54361,7 @@
       </c>
       <c r="U180" s="29"/>
     </row>
-    <row r="181" spans="1:21" ht="13">
+    <row r="181" spans="1:21">
       <c r="A181" s="11" t="s">
         <v>405</v>
       </c>
@@ -54440,7 +54442,7 @@
       </c>
       <c r="U181" s="11"/>
     </row>
-    <row r="182" spans="1:21" ht="13">
+    <row r="182" spans="1:21">
       <c r="A182" s="37" t="s">
         <v>407</v>
       </c>
@@ -54521,7 +54523,7 @@
       </c>
       <c r="U182" s="29"/>
     </row>
-    <row r="183" spans="1:21" ht="13">
+    <row r="183" spans="1:21">
       <c r="A183" s="37" t="s">
         <v>409</v>
       </c>
@@ -54602,7 +54604,7 @@
       </c>
       <c r="U183" s="29"/>
     </row>
-    <row r="184" spans="1:21" ht="13">
+    <row r="184" spans="1:21">
       <c r="A184" s="29" t="s">
         <v>411</v>
       </c>
@@ -54683,7 +54685,7 @@
       </c>
       <c r="U184" s="29"/>
     </row>
-    <row r="185" spans="1:21" ht="13">
+    <row r="185" spans="1:21">
       <c r="A185" s="29" t="s">
         <v>413</v>
       </c>
@@ -54764,7 +54766,7 @@
       </c>
       <c r="U185" s="29"/>
     </row>
-    <row r="186" spans="1:21" ht="13">
+    <row r="186" spans="1:21">
       <c r="A186" s="29" t="s">
         <v>415</v>
       </c>
@@ -54845,7 +54847,7 @@
       </c>
       <c r="U186" s="29"/>
     </row>
-    <row r="187" spans="1:21" ht="13">
+    <row r="187" spans="1:21">
       <c r="A187" s="29" t="s">
         <v>417</v>
       </c>
@@ -54926,7 +54928,7 @@
       </c>
       <c r="U187" s="29"/>
     </row>
-    <row r="188" spans="1:21" ht="13">
+    <row r="188" spans="1:21">
       <c r="A188" s="29" t="s">
         <v>419</v>
       </c>
@@ -55007,7 +55009,7 @@
       </c>
       <c r="U188" s="29"/>
     </row>
-    <row r="189" spans="1:21" ht="13">
+    <row r="189" spans="1:21">
       <c r="A189" s="28" t="s">
         <v>421</v>
       </c>
@@ -55088,7 +55090,7 @@
       </c>
       <c r="U189" s="29"/>
     </row>
-    <row r="190" spans="1:21" ht="13">
+    <row r="190" spans="1:21">
       <c r="A190" s="28" t="s">
         <v>423</v>
       </c>
@@ -55169,7 +55171,7 @@
       </c>
       <c r="U190" s="29"/>
     </row>
-    <row r="191" spans="1:21" ht="13">
+    <row r="191" spans="1:21">
       <c r="A191" s="28" t="s">
         <v>425</v>
       </c>
@@ -55250,7 +55252,7 @@
       </c>
       <c r="U191" s="29"/>
     </row>
-    <row r="192" spans="1:21" ht="13">
+    <row r="192" spans="1:21">
       <c r="A192" s="29" t="s">
         <v>427</v>
       </c>
@@ -55331,7 +55333,7 @@
       </c>
       <c r="U192" s="29"/>
     </row>
-    <row r="193" spans="1:21" ht="13">
+    <row r="193" spans="1:21">
       <c r="A193" s="37" t="s">
         <v>429</v>
       </c>
@@ -55412,7 +55414,7 @@
       </c>
       <c r="U193" s="29"/>
     </row>
-    <row r="194" spans="1:21" ht="13">
+    <row r="194" spans="1:21">
       <c r="A194" s="37" t="s">
         <v>431</v>
       </c>
@@ -55493,7 +55495,7 @@
       </c>
       <c r="U194" s="29"/>
     </row>
-    <row r="195" spans="1:21" ht="13">
+    <row r="195" spans="1:21">
       <c r="A195" s="37" t="s">
         <v>433</v>
       </c>
@@ -55576,12 +55578,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D8:E22 D177:E195 D173:E175 D171:E171 D164:E169 D160:E162 D152:E158 D127:E150 D125:E125 D122:E123 D119:E120 D115:E117 D111:E113 D95:E109 D92:E93 D89:E90 D79:E87 D76:E77 D72:E74 D56:E70 D24:E26 D28:E29 D31:E31 D33:E41 D43:E44 D46:E54">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:S22 B24:S26 B28:S29 B31:S31 B33:S41 B43:S44 B46:S195">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55595,15 +55597,15 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="4" width="5.90625" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
@@ -56327,20 +56329,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I22" sqref="B1:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="4" width="4.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.5">
+    <row r="1" spans="1:16" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -56448,7 +56450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.5">
+    <row r="3" spans="1:16" ht="12.75">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LARGE2</v>
@@ -56507,7 +56509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12.5">
+    <row r="4" spans="1:16" ht="12.75">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LARGE3</v>
@@ -56566,7 +56568,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12.5">
+    <row r="5" spans="1:16" ht="12.75">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LARGE4</v>
@@ -56625,7 +56627,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.5">
+    <row r="6" spans="1:16" ht="12.75">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LARGE5</v>
@@ -56684,7 +56686,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12.5">
+    <row r="7" spans="1:16" ht="12.75">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LARGE6</v>
@@ -56709,7 +56711,7 @@
       </c>
       <c r="H7" s="4">
         <f>ROUND(shield_values[[#This Row],[Previous_HP]]*shield_values[[#This Row],[Factor]],0)</f>
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="I7" s="4">
         <f>shield_values[[#This Row],[Previous_Regen]]*shield_values[[#This Row],[Ratio_Power]]</f>
@@ -56736,14 +56738,14 @@
         <v>1.2</v>
       </c>
       <c r="O7" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="P7" s="4">
         <f>shield_values[[#This Row],[Ratio_Power]]+shield_values[[#This Row],[Bonus]]</f>
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="12.5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="12.75">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>LARGE6</v>
@@ -56768,7 +56770,7 @@
       </c>
       <c r="H8" s="4">
         <f>ROUND(shield_values[[#This Row],[Previous_HP]]*shield_values[[#This Row],[Factor]],0)</f>
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="I8" s="4">
         <f>shield_values[[#This Row],[Previous_Regen]]*shield_values[[#This Row],[Ratio_Power]]</f>
@@ -56795,14 +56797,14 @@
         <v>1.2</v>
       </c>
       <c r="O8" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="P8" s="4">
         <f>shield_values[[#This Row],[Ratio_Power]]+shield_values[[#This Row],[Bonus]]</f>
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="12.5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="12.75">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MEDIUM1</v>
@@ -56860,7 +56862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.5">
+    <row r="10" spans="1:16" ht="12.75">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MEDIUM2</v>
@@ -56919,7 +56921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.5">
+    <row r="11" spans="1:16" ht="12.75">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MEDIUM3</v>
@@ -56978,7 +56980,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.5">
+    <row r="12" spans="1:16" ht="12.75">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MEDIUM4</v>
@@ -57037,7 +57039,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.5">
+    <row r="13" spans="1:16" ht="12.75">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MEDIUM5</v>
@@ -57096,7 +57098,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="12.5">
+    <row r="14" spans="1:16" ht="12.75">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MEDIUM6</v>
@@ -57121,7 +57123,7 @@
       </c>
       <c r="H14" s="4">
         <f>ROUND(shield_values[[#This Row],[Previous_HP]]*shield_values[[#This Row],[Factor]],0)</f>
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I14" s="4">
         <f>shield_values[[#This Row],[Previous_Regen]]*shield_values[[#This Row],[Ratio_Power]]</f>
@@ -57148,14 +57150,14 @@
         <v>1.2</v>
       </c>
       <c r="O14" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="P14" s="4">
         <f>shield_values[[#This Row],[Ratio_Power]]+shield_values[[#This Row],[Bonus]]</f>
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="12.5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="12.75">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MEDIUM6</v>
@@ -57180,7 +57182,7 @@
       </c>
       <c r="H15" s="4">
         <f>ROUND(shield_values[[#This Row],[Previous_HP]]*shield_values[[#This Row],[Factor]],0)</f>
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="I15" s="4">
         <f>shield_values[[#This Row],[Previous_Regen]]*shield_values[[#This Row],[Ratio_Power]]</f>
@@ -57207,14 +57209,14 @@
         <v>1.2</v>
       </c>
       <c r="O15" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="P15" s="4">
         <f>shield_values[[#This Row],[Ratio_Power]]+shield_values[[#This Row],[Bonus]]</f>
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="12.5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="12.75">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SMALL1</v>
@@ -57272,7 +57274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="12.5">
+    <row r="17" spans="1:16" ht="12.75">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SMALL2</v>
@@ -57331,7 +57333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="12.5">
+    <row r="18" spans="1:16" ht="12.75">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SMALL3</v>
@@ -57390,7 +57392,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="12.5">
+    <row r="19" spans="1:16" ht="12.75">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SMALL4</v>
@@ -57449,7 +57451,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="12.5">
+    <row r="20" spans="1:16" ht="12.75">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SMALL5</v>
@@ -57508,7 +57510,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="12.5">
+    <row r="21" spans="1:16" ht="12.75">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SMALL6</v>
@@ -57533,7 +57535,7 @@
       </c>
       <c r="H21" s="4">
         <f>ROUND(shield_values[[#This Row],[Previous_HP]]*shield_values[[#This Row],[Factor]],0)</f>
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I21" s="4">
         <f>shield_values[[#This Row],[Previous_Regen]]*shield_values[[#This Row],[Ratio_Power]]</f>
@@ -57560,14 +57562,14 @@
         <v>1.2</v>
       </c>
       <c r="O21" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="P21" s="4">
         <f>shield_values[[#This Row],[Ratio_Power]]+shield_values[[#This Row],[Bonus]]</f>
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="12.5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="12.75">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>SMALL6</v>
@@ -57592,7 +57594,7 @@
       </c>
       <c r="H22" s="4">
         <f>ROUND(shield_values[[#This Row],[Previous_HP]]*shield_values[[#This Row],[Factor]],0)</f>
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I22" s="4">
         <f>shield_values[[#This Row],[Previous_Regen]]*shield_values[[#This Row],[Ratio_Power]]</f>
@@ -57619,17 +57621,17 @@
         <v>1.2</v>
       </c>
       <c r="O22" s="1">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="P22" s="4">
         <f>shield_values[[#This Row],[Ratio_Power]]+shield_values[[#This Row],[Bonus]]</f>
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="12.5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="12.75">
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:16" ht="12.5">
+    <row r="24" spans="1:16" ht="12.75">
       <c r="J24" s="4"/>
     </row>
   </sheetData>
@@ -57648,9 +57650,9 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="21.26953125" customWidth="1"/>
+    <col min="1" max="2" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -58538,7 +58540,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="12.5">
+    <row r="60" spans="1:4" ht="12.75">
       <c r="A60" s="1" t="s">
         <v>501</v>
       </c>
@@ -58553,7 +58555,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="12.5">
+    <row r="61" spans="1:4" ht="12.75">
       <c r="A61" s="1" t="s">
         <v>501</v>
       </c>
@@ -58568,7 +58570,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="12.5">
+    <row r="62" spans="1:4" ht="12.75">
       <c r="A62" s="1" t="s">
         <v>501</v>
       </c>
@@ -58583,7 +58585,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.5">
+    <row r="63" spans="1:4" ht="12.75">
       <c r="A63" s="1" t="s">
         <v>501</v>
       </c>
@@ -58598,7 +58600,7 @@
         <v>39400</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="12.5">
+    <row r="64" spans="1:4" ht="12.75">
       <c r="A64" s="1" t="s">
         <v>506</v>
       </c>
@@ -58613,7 +58615,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="12.5">
+    <row r="65" spans="1:4" ht="12.75">
       <c r="A65" s="1" t="s">
         <v>506</v>
       </c>
@@ -58628,7 +58630,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="12.5">
+    <row r="66" spans="1:4" ht="12.75">
       <c r="A66" s="1" t="s">
         <v>506</v>
       </c>
@@ -58643,7 +58645,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="12.5">
+    <row r="67" spans="1:4" ht="12.75">
       <c r="A67" s="1" t="s">
         <v>506</v>
       </c>
@@ -58658,7 +58660,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="12.5">
+    <row r="68" spans="1:4" ht="12.75">
       <c r="A68" s="1" t="s">
         <v>506</v>
       </c>
@@ -58673,7 +58675,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="12.5">
+    <row r="69" spans="1:4" ht="12.75">
       <c r="A69" s="1" t="s">
         <v>506</v>
       </c>
@@ -58688,7 +58690,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.5">
+    <row r="70" spans="1:4" ht="12.75">
       <c r="A70" s="1" t="s">
         <v>506</v>
       </c>
@@ -58703,7 +58705,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.5">
+    <row r="71" spans="1:4" ht="12.75">
       <c r="A71" s="1" t="s">
         <v>506</v>
       </c>
@@ -58718,7 +58720,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.5">
+    <row r="72" spans="1:4" ht="12.75">
       <c r="A72" s="1" t="s">
         <v>506</v>
       </c>
@@ -58733,7 +58735,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.5">
+    <row r="73" spans="1:4" ht="12.75">
       <c r="A73" s="1" t="s">
         <v>506</v>
       </c>
@@ -58748,7 +58750,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.5">
+    <row r="74" spans="1:4" ht="12.75">
       <c r="A74" s="1" t="s">
         <v>517</v>
       </c>
@@ -58763,7 +58765,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.5">
+    <row r="75" spans="1:4" ht="12.75">
       <c r="A75" s="1" t="s">
         <v>517</v>
       </c>
@@ -58778,7 +58780,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.5">
+    <row r="76" spans="1:4" ht="12.75">
       <c r="A76" s="1" t="s">
         <v>520</v>
       </c>
@@ -58793,7 +58795,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.5">
+    <row r="77" spans="1:4" ht="12.75">
       <c r="A77" s="1" t="s">
         <v>520</v>
       </c>
@@ -58808,7 +58810,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="12.5">
+    <row r="78" spans="1:4" ht="12.75">
       <c r="A78" s="1" t="s">
         <v>520</v>
       </c>
@@ -58823,7 +58825,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="12.5">
+    <row r="79" spans="1:4" ht="12.75">
       <c r="A79" s="1" t="s">
         <v>520</v>
       </c>
@@ -58838,7 +58840,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="12.5">
+    <row r="80" spans="1:4" ht="12.75">
       <c r="A80" s="1" t="s">
         <v>525</v>
       </c>
@@ -58853,7 +58855,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="12.5">
+    <row r="81" spans="1:4" ht="12.75">
       <c r="A81" s="1" t="s">
         <v>525</v>
       </c>
@@ -58868,7 +58870,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="12.5">
+    <row r="82" spans="1:4" ht="12.75">
       <c r="A82" s="1" t="s">
         <v>525</v>
       </c>
@@ -58883,7 +58885,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="12.5">
+    <row r="83" spans="1:4" ht="12.75">
       <c r="A83" s="1" t="s">
         <v>525</v>
       </c>
@@ -58898,7 +58900,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="12.5">
+    <row r="84" spans="1:4" ht="12.75">
       <c r="A84" s="1" t="s">
         <v>525</v>
       </c>
@@ -58913,7 +58915,7 @@
         <v>49300</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="12.5">
+    <row r="85" spans="1:4" ht="12.75">
       <c r="A85" s="1" t="s">
         <v>525</v>
       </c>
@@ -58928,7 +58930,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="12.5">
+    <row r="86" spans="1:4" ht="12.75">
       <c r="A86" s="1" t="s">
         <v>525</v>
       </c>
@@ -58943,7 +58945,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="12.5">
+    <row r="87" spans="1:4" ht="12.75">
       <c r="A87" s="1" t="s">
         <v>525</v>
       </c>
@@ -58958,7 +58960,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="12.5">
+    <row r="88" spans="1:4" ht="12.75">
       <c r="A88" s="1" t="s">
         <v>534</v>
       </c>
@@ -58973,7 +58975,7 @@
         <v>73900</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="12.5">
+    <row r="89" spans="1:4" ht="12.75">
       <c r="A89" s="1" t="s">
         <v>534</v>
       </c>
@@ -58988,7 +58990,7 @@
         <v>19700</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="12.5">
+    <row r="90" spans="1:4" ht="12.75">
       <c r="A90" s="1" t="s">
         <v>534</v>
       </c>
@@ -59003,7 +59005,7 @@
         <v>98600</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="12.5">
+    <row r="91" spans="1:4" ht="12.75">
       <c r="A91" s="1" t="s">
         <v>534</v>
       </c>
@@ -59018,7 +59020,7 @@
         <v>39400</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="12.5">
+    <row r="92" spans="1:4" ht="12.75">
       <c r="A92" s="1" t="s">
         <v>534</v>
       </c>
@@ -59033,7 +59035,7 @@
         <v>39400</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.5">
+    <row r="93" spans="1:4" ht="12.75">
       <c r="A93" s="1" t="s">
         <v>534</v>
       </c>
@@ -59048,7 +59050,7 @@
         <v>49300</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.5">
+    <row r="94" spans="1:4" ht="12.75">
       <c r="A94" s="1" t="s">
         <v>534</v>
       </c>
@@ -59063,7 +59065,7 @@
         <v>19700</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.5">
+    <row r="95" spans="1:4" ht="12.75">
       <c r="A95" s="1" t="s">
         <v>534</v>
       </c>
@@ -59078,7 +59080,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.5">
+    <row r="96" spans="1:4" ht="12.75">
       <c r="A96" s="1" t="s">
         <v>534</v>
       </c>
@@ -59093,7 +59095,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="12.5">
+    <row r="97" spans="1:4" ht="12.75">
       <c r="A97" s="1" t="s">
         <v>534</v>
       </c>
@@ -59108,7 +59110,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="12.5">
+    <row r="98" spans="1:4" ht="12.75">
       <c r="A98" s="1" t="s">
         <v>534</v>
       </c>
@@ -59123,7 +59125,7 @@
         <v>98600</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="12.5">
+    <row r="99" spans="1:4" ht="12.75">
       <c r="A99" s="1" t="s">
         <v>534</v>
       </c>
@@ -59138,7 +59140,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="12.5">
+    <row r="100" spans="1:4" ht="12.75">
       <c r="A100" s="1" t="s">
         <v>534</v>
       </c>
@@ -59153,7 +59155,7 @@
         <v>39400</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="12.5">
+    <row r="101" spans="1:4" ht="12.75">
       <c r="A101" s="1" t="s">
         <v>534</v>
       </c>
@@ -59168,7 +59170,7 @@
         <v>19700</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="12.5">
+    <row r="102" spans="1:4" ht="12.75">
       <c r="A102" s="1" t="s">
         <v>534</v>
       </c>
@@ -59183,7 +59185,7 @@
         <v>19700</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="12.5">
+    <row r="103" spans="1:4" ht="12.75">
       <c r="A103" s="1" t="s">
         <v>534</v>
       </c>
@@ -59198,7 +59200,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="12.5">
+    <row r="104" spans="1:4" ht="12.75">
       <c r="A104" s="1" t="s">
         <v>534</v>
       </c>
@@ -59213,7 +59215,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="12.5">
+    <row r="105" spans="1:4" ht="12.75">
       <c r="A105" s="1" t="s">
         <v>534</v>
       </c>
@@ -59228,7 +59230,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="12.5">
+    <row r="106" spans="1:4" ht="12.75">
       <c r="A106" s="1" t="s">
         <v>553</v>
       </c>
@@ -59243,7 +59245,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="12.5">
+    <row r="107" spans="1:4" ht="12.75">
       <c r="A107" s="1" t="s">
         <v>553</v>
       </c>
@@ -59258,7 +59260,7 @@
         <v>17300</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="12.5">
+    <row r="108" spans="1:4" ht="12.75">
       <c r="A108" s="1" t="s">
         <v>553</v>
       </c>
@@ -59273,7 +59275,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="12.5">
+    <row r="109" spans="1:4" ht="12.75">
       <c r="A109" s="1" t="s">
         <v>553</v>
       </c>
